--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="337">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1895,6 +1895,10 @@
     <t>20161231</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -46090,7 +46094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -53266,8 +53270,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -54940,10 +54944,18 @@
       <c r="A15" s="37">
         <v>1</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="B15" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -46090,7 +46090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -55226,8 +55226,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -57536,7 +57536,7 @@
         <v>125</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="335">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1337,14 +1337,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/WEB-INF/view/project/completeOfChange.jsp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>success.update.project</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>completeOfUpdate</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1362,10 +1354,6 @@
     <rPh sb="17" eb="20">
       <t>キタイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>success.delete.project</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1893,6 +1881,14 @@
   </si>
   <si>
     <t>20161231</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/WEB-INF/view/project/completeOfUpdate.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/WEB-INF/view/project/completeOfDelete.jsp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2835,7 +2831,7 @@
     <row r="3" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2843,64 +2839,64 @@
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="E5" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="F5" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="H5" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="I5" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="J5" s="47" t="s">
         <v>265</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="E6" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="F6" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="G6" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="H6" s="56" t="s">
         <v>273</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>276</v>
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -2908,7 +2904,7 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2916,31 +2912,31 @@
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -3946,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4210,7 +4206,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4468,7 +4464,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -12031,7 +12027,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -12295,7 +12291,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -12553,7 +12549,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -14365,7 +14361,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -14629,7 +14625,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -14887,7 +14883,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -16825,7 +16821,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -17089,7 +17085,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -17347,7 +17343,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -19157,7 +19153,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -19421,7 +19417,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -19679,7 +19675,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -21617,7 +21613,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -21881,7 +21877,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -22139,7 +22135,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -25481,7 +25477,7 @@
         <v>84</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
@@ -33014,7 +33010,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -33278,7 +33274,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -33536,7 +33532,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -37086,7 +37082,7 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -37419,13 +37415,11 @@
       <c r="E4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>235</v>
-      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -38228,7 +38222,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -42028,7 +42022,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>1</v>
@@ -44134,8 +44128,8 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -44474,12 +44468,10 @@
       <c r="G4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>238</v>
-      </c>
+      <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -45266,7 +45258,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -46071,7 +46063,7 @@
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -46090,7 +46082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -46414,7 +46406,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -46960,7 +46952,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -47218,13 +47210,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -47482,7 +47474,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -47806,7 +47798,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -47818,37 +47810,37 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="L14" s="54" t="s">
         <v>320</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>323</v>
       </c>
       <c r="M14" s="55">
         <v>2000</v>
       </c>
       <c r="N14" s="54" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O14" s="54" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P14" s="54" t="s">
         <v>123</v>
@@ -48411,7 +48403,7 @@
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -48423,10 +48415,10 @@
     </row>
     <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
@@ -48437,10 +48429,10 @@
     </row>
     <row r="25" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
@@ -48451,10 +48443,10 @@
     </row>
     <row r="26" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="71"/>
@@ -48465,276 +48457,276 @@
     </row>
     <row r="27" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="86" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B27" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="F27" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="G27" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="H27" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="I27" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="J27" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="K27" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="L27" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="M27" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="N27" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="O27" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="M27" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="N27" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O28" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="69"/>
       <c r="B29" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="F29" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="G29" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="H29" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="I29" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="J29" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="K29" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="I29" s="70" t="s">
+      <c r="L29" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="M29" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="N29" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="O29" s="70" t="s">
         <v>310</v>
-      </c>
-      <c r="M29" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="N29" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="O29" s="70" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="69" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="F30" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="G30" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="H30" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="I30" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="J30" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="K30" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="L30" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="M30" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="N30" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="O30" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="69"/>
       <c r="B31" s="88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C31" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="F31" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="88" t="s">
-        <v>244</v>
-      </c>
       <c r="G31" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="88" t="s">
-        <v>244</v>
-      </c>
       <c r="I31" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="J31" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="K31" s="88" t="s">
-        <v>244</v>
-      </c>
       <c r="L31" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="G32" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="E32" s="57" t="s">
+      <c r="H32" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="N32" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F32" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" s="57" t="s">
+      <c r="O32" s="57" t="s">
         <v>328</v>
-      </c>
-      <c r="J32" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="L32" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="M32" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="N32" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="O32" s="57" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -49079,7 +49071,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -49632,7 +49624,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -49890,13 +49882,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -50154,7 +50146,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -65250,7 +65242,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -65514,7 +65506,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -65772,7 +65764,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -379,10 +379,6 @@
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>302</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1891,6 +1887,10 @@
     <t>/WEB-INF/view/project/completeOfDelete.jsp</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2793,9 +2793,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2825,13 +2823,13 @@
     </row>
     <row r="2" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2839,64 +2837,64 @@
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="H5" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="I5" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="J5" s="47" t="s">
         <v>264</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="F6" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="G6" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="H6" s="56" t="s">
         <v>272</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>273</v>
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -2904,7 +2902,7 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2912,31 +2910,31 @@
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>274</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>275</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>276</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>277</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -3006,39 +3004,39 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3046,10 +3044,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3069,9 +3067,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3394,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -3403,7 +3399,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -3411,7 +3407,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3942,7 +3938,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4200,13 +4196,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4464,7 +4460,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -4724,7 +4720,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4788,46 +4784,46 @@
         <v>46</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="J14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="K14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5103,13 +5099,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -5120,15 +5116,15 @@
         <v>46</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5387,12 +5383,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -5411,7 +5407,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="34"/>
     </row>
@@ -5420,12 +5416,12 @@
         <v>58</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="38"/>
     </row>
@@ -5437,19 +5433,19 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="35"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="19"/>
@@ -5707,7 +5703,7 @@
     </row>
     <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="34"/>
       <c r="E34" s="19"/>
@@ -5965,10 +5961,10 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -6225,7 +6221,7 @@
     </row>
     <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="34"/>
       <c r="E36" s="19"/>
@@ -6483,7 +6479,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>1</v>
@@ -6743,7 +6739,7 @@
     </row>
     <row r="39" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -7000,7 +6996,7 @@
     </row>
     <row r="40" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -7520,7 +7516,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
@@ -11152,9 +11148,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11477,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -11486,17 +11480,17 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -12027,7 +12021,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -12285,13 +12279,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -12549,7 +12543,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -12809,7 +12803,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -12873,46 +12867,46 @@
         <v>46</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="J14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="K14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -13188,13 +13182,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -13209,7 +13203,7 @@
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13468,7 +13462,7 @@
     </row>
     <row r="22" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -13488,9 +13482,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13813,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -13822,7 +13814,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -13830,7 +13822,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -14361,7 +14353,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -14619,13 +14611,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -14883,7 +14875,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -15143,7 +15135,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -15157,10 +15149,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -15207,52 +15199,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -15547,7 +15539,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -15806,7 +15798,7 @@
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
@@ -15819,10 +15811,10 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
@@ -15838,7 +15830,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
@@ -15869,13 +15861,13 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="34"/>
     </row>
@@ -15887,33 +15879,33 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="34"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="34"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="34"/>
     </row>
@@ -15925,10 +15917,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -15948,9 +15940,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16273,7 +16263,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -16282,15 +16272,15 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -16821,7 +16811,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -17079,13 +17069,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -17343,7 +17333,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -17603,7 +17593,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -17617,10 +17607,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -17667,52 +17657,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -18001,7 +17991,7 @@
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18260,7 +18250,7 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -18280,9 +18270,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18605,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -18614,7 +18602,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -18622,7 +18610,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -19153,7 +19141,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -19411,13 +19399,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -19675,7 +19663,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -19935,7 +19923,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -19949,10 +19937,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -19999,52 +19987,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -20339,7 +20327,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -20598,7 +20586,7 @@
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
@@ -20611,10 +20599,10 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
@@ -20630,7 +20618,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
@@ -20661,13 +20649,13 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="34"/>
     </row>
@@ -20679,33 +20667,33 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="34"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="34"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="34"/>
     </row>
@@ -20717,10 +20705,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -20740,9 +20728,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21065,7 +21051,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -21077,12 +21063,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -21613,7 +21599,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -21871,13 +21857,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -22135,7 +22121,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -22395,7 +22381,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -22409,10 +22395,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -22459,7 +22445,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -22471,40 +22457,40 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -22799,7 +22785,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -23058,7 +23044,7 @@
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -23078,9 +23064,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -23399,7 +23383,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -23413,7 +23397,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -24200,7 +24184,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -24764,7 +24748,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -25143,9 +25127,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25465,7 +25447,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -25474,14 +25456,14 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -26268,7 +26250,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -26830,7 +26812,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -27089,7 +27071,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -27109,9 +27091,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -27432,7 +27412,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -27447,7 +27427,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -28250,7 +28230,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -29433,9 +29413,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29739,7 +29717,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>18</v>
@@ -29762,7 +29740,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -29774,10 +29752,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="11"/>
@@ -29785,7 +29763,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -30588,7 +30566,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -31108,7 +31086,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -31122,10 +31100,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -31172,52 +31150,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
@@ -32023,18 +32001,18 @@
     </row>
     <row r="22" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:255" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>33</v>
@@ -32043,10 +32021,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>37</v>
@@ -32064,7 +32042,7 @@
         <v>41</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N23" s="49" t="s">
         <v>43</v>
@@ -32078,7 +32056,7 @@
     </row>
     <row r="24" spans="1:255" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>46</v>
@@ -32090,37 +32068,37 @@
         <v>48</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P24" s="52" t="s">
         <v>1</v>
@@ -32143,9 +32121,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32465,7 +32441,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>27</v>
@@ -33010,7 +32986,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -33274,7 +33250,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -33532,7 +33508,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -33800,7 +33776,7 @@
     </row>
     <row r="12" spans="1:256" ht="30" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="19"/>
@@ -33830,7 +33806,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -34089,7 +34065,7 @@
     </row>
     <row r="18" spans="1:255" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -34112,9 +34088,7 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -34427,7 +34401,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>17</v>
@@ -34438,37 +34412,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>2</v>
@@ -34477,18 +34451,18 @@
         <v>79</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="11"/>
       <c r="I5" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.35">
@@ -35281,7 +35255,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -35801,7 +35775,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -35815,10 +35789,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -35865,52 +35839,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -35933,7 +35907,7 @@
     </row>
     <row r="16" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -35947,10 +35921,10 @@
     </row>
     <row r="17" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>32</v>
@@ -35997,49 +35971,49 @@
     </row>
     <row r="18" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P18" s="82" t="s">
         <v>1</v>
@@ -36589,7 +36563,7 @@
     </row>
     <row r="24" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -36856,18 +36830,18 @@
     </row>
     <row r="27" spans="1:256" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:256" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>33</v>
@@ -36876,10 +36850,10 @@
         <v>34</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>37</v>
@@ -36897,7 +36871,7 @@
         <v>41</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N28" s="49" t="s">
         <v>43</v>
@@ -36911,68 +36885,68 @@
     </row>
     <row r="29" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:256" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:256" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>33</v>
@@ -36981,10 +36955,10 @@
         <v>34</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>37</v>
@@ -37002,7 +36976,7 @@
         <v>41</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N32" s="49" t="s">
         <v>43</v>
@@ -37016,49 +36990,49 @@
     </row>
     <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M33" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P33" s="54" t="s">
         <v>1</v>
@@ -37081,9 +37055,7 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -37404,7 +37376,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37419,7 +37391,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -38222,7 +38194,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -39285,7 +39257,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -39305,9 +39277,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -39611,7 +39581,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>18</v>
@@ -39632,7 +39602,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -39644,15 +39614,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -40439,7 +40409,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -40959,7 +40929,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -40973,10 +40943,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -41023,7 +40993,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -41035,40 +41005,40 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -41363,7 +41333,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -41622,15 +41592,15 @@
     </row>
     <row r="25" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:255" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>33</v>
@@ -41639,10 +41609,10 @@
         <v>34</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>37</v>
@@ -41660,7 +41630,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M26" s="49" t="s">
         <v>43</v>
@@ -41689,9 +41659,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -41995,7 +41963,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>18</v>
@@ -42016,29 +41984,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -42825,7 +42793,7 @@
     </row>
     <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>26</v>
@@ -43345,7 +43313,7 @@
     </row>
     <row r="11" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -43359,10 +43327,10 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>32</v>
@@ -43409,7 +43377,7 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>46</v>
@@ -43421,40 +43389,40 @@
         <v>48</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -43749,7 +43717,7 @@
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -44008,18 +43976,18 @@
     </row>
     <row r="24" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:255" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>33</v>
@@ -44028,10 +43996,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>37</v>
@@ -44049,7 +44017,7 @@
         <v>41</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N25" s="49" t="s">
         <v>43</v>
@@ -44063,7 +44031,7 @@
     </row>
     <row r="26" spans="1:255" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>46</v>
@@ -44075,40 +44043,40 @@
         <v>48</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M26" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N26" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -44128,9 +44096,7 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -44434,7 +44400,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>18</v>
@@ -44455,7 +44421,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -44471,7 +44437,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -45258,7 +45224,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -45804,7 +45770,7 @@
     </row>
     <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -46063,7 +46029,7 @@
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -46082,9 +46048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -46406,13 +46370,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -46952,7 +46916,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -47210,13 +47174,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -47474,7 +47438,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -47734,7 +47698,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -47748,10 +47712,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -47798,7 +47762,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -47810,40 +47774,40 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>318</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>319</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L14" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M14" s="55">
         <v>2000</v>
       </c>
       <c r="N14" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="O14" s="54" t="s">
-        <v>322</v>
-      </c>
       <c r="P14" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -48119,13 +48083,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -48136,15 +48100,15 @@
         <v>46</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -48403,7 +48367,7 @@
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -48415,10 +48379,10 @@
     </row>
     <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
@@ -48429,10 +48393,10 @@
     </row>
     <row r="25" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
@@ -48443,10 +48407,10 @@
     </row>
     <row r="26" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="71"/>
@@ -48457,276 +48421,276 @@
     </row>
     <row r="27" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="D27" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="E27" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="F27" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="G27" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="H27" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="I27" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="J27" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="K27" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="L27" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="M27" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="N27" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="N27" s="33" t="s">
+      <c r="O27" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O28" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="69"/>
       <c r="B29" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="D29" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="E29" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="F29" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="G29" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="H29" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="I29" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="70" t="s">
+      <c r="J29" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="K29" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="L29" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="M29" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="M29" s="70" t="s">
+      <c r="N29" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="N29" s="70" t="s">
+      <c r="O29" s="70" t="s">
         <v>309</v>
-      </c>
-      <c r="O29" s="70" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="D30" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="E30" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="G30" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="H30" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="I30" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="J30" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="K30" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="L30" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="M30" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="N30" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="O30" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="69"/>
       <c r="B31" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F31" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H31" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K31" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="D32" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="E32" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="E32" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="F32" s="57" t="s">
+      <c r="H32" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="N32" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="O32" s="57" t="s">
         <v>327</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="J32" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="L32" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="M32" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="N32" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="O32" s="57" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -48745,9 +48709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -49071,26 +49033,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>1</v>
@@ -49624,7 +49586,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -49882,13 +49844,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -50146,7 +50108,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -50406,7 +50368,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -50420,7 +50382,7 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>32</v>
@@ -50476,40 +50438,40 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -50785,13 +50747,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -50806,7 +50768,7 @@
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -51065,7 +51027,7 @@
     </row>
     <row r="23" spans="1:255" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -51079,7 +51041,7 @@
     </row>
     <row r="24" spans="1:255" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>32</v>
@@ -51135,40 +51097,40 @@
         <v>48</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O25" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -51188,9 +51150,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -51509,7 +51469,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -52874,7 +52834,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -53133,7 +53093,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:255" x14ac:dyDescent="0.35">
@@ -53154,7 +53114,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
@@ -53162,7 +53122,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
@@ -53258,9 +53218,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -53564,7 +53522,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>16</v>
@@ -53580,7 +53538,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -53589,14 +53547,14 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -54904,7 +54862,7 @@
     </row>
     <row r="13" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -54939,7 +54897,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -55198,7 +55156,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -55218,9 +55176,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -55521,13 +55477,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>82</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>78</v>
@@ -55541,7 +55497,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -55550,7 +55506,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="11"/>
@@ -55558,7 +55514,7 @@
         <v>77</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.35">
@@ -57414,13 +57370,13 @@
     </row>
     <row r="17" spans="1:15" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:15" s="50" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -57439,49 +57395,49 @@
     </row>
     <row r="20" spans="1:15" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="C20" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="D20" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="E20" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="F20" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="G20" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="H20" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="I20" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="J20" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="K20" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="L20" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="M20" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="N20" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="O20" s="49" t="s">
         <v>118</v>
-      </c>
-      <c r="O20" s="49" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -57489,46 +57445,46 @@
         <v>46</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="52" t="s">
+      <c r="L21" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="52" t="s">
         <v>122</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -57548,9 +57504,7 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -57871,26 +57825,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -59756,15 +59710,15 @@
     </row>
     <row r="18" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:255" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>33</v>
@@ -59773,10 +59727,10 @@
         <v>34</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>37</v>
@@ -59794,7 +59748,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M19" s="49" t="s">
         <v>43</v>
@@ -59823,9 +59777,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -60146,7 +60098,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -60161,7 +60113,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -60964,7 +60916,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -62027,7 +61979,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -62047,9 +61999,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -62370,7 +62320,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -62385,7 +62335,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -63187,7 +63137,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -64369,9 +64319,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -64694,7 +64642,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -64703,7 +64651,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -64711,7 +64659,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -65242,7 +65190,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -65500,13 +65448,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -65764,7 +65712,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -66024,7 +65972,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -66088,46 +66036,46 @@
         <v>46</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="J14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="K14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -66416,7 +66364,7 @@
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -66675,12 +66623,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -66699,7 +66647,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="34"/>
     </row>
@@ -66711,7 +66659,7 @@
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="38"/>
     </row>
@@ -66723,45 +66671,45 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="35"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="34"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>1</v>
@@ -66769,12 +66717,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -66790,7 +66738,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="17" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="349">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1891,6 +1891,106 @@
     <t>303</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>orm.projectStartDate</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>018/01/01</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>orm.projectStartDate</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>018/01/01</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2060,7 +2160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2261,12 +2361,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2420,6 +2529,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2793,7 +2908,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4790,10 +4905,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>139</v>
@@ -8555,7 +8670,9 @@
       <c r="A46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="89" t="s">
+        <v>340</v>
+      </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -8813,7 +8930,9 @@
       <c r="A47" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="89" t="s">
+        <v>341</v>
+      </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -15211,10 +15330,10 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>139</v>
@@ -15845,13 +15964,17 @@
       <c r="A31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="89" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="89" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
@@ -19999,7 +20122,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>141</v>
@@ -20633,7 +20756,9 @@
       <c r="A31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="89" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
@@ -23074,7 +23199,8 @@
     <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="19" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="19" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
@@ -24728,6 +24854,10 @@
       <c r="E14" s="63" t="s">
         <v>54</v>
       </c>
+      <c r="F14" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
@@ -24745,6 +24875,10 @@
       <c r="E15" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="F15" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="94"/>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -25054,13 +25188,15 @@
       <c r="A24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="89" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="89"/>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -29340,7 +29476,9 @@
       <c r="A25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="89" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -34088,7 +34226,9 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -48709,7 +48849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -51160,7 +51300,8 @@
     <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="19" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="19" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
@@ -52814,6 +52955,10 @@
       <c r="E14" s="63" t="s">
         <v>54</v>
       </c>
+      <c r="F14" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
@@ -52831,6 +52976,10 @@
       <c r="E15" s="37" t="s">
         <v>57</v>
       </c>
+      <c r="F15" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" s="92"/>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -53145,13 +53294,15 @@
       <c r="A26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="89" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="89"/>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
@@ -64246,7 +64397,9 @@
       <c r="A25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="89" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -66042,10 +66195,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>139</v>
@@ -66769,13 +66922,17 @@
       <c r="A46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="89" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="89" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="17" activeTab="25"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -1844,14 +1844,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"20161231"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"20150101"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"テストマネージャー"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1989,6 +1981,14 @@
   </si>
   <si>
     <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"2015/01/01"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"2016/12/31"</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4905,10 +4905,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>139</v>
@@ -8671,7 +8671,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -8931,7 +8931,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -15330,10 +15330,10 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>139</v>
@@ -15965,7 +15965,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="89" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
@@ -15973,7 +15973,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -20122,7 +20122,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>141</v>
@@ -20757,7 +20757,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="89" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
@@ -24855,7 +24855,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G14" s="93"/>
     </row>
@@ -24876,7 +24876,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G15" s="94"/>
     </row>
@@ -25189,7 +25189,7 @@
         <v>63</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -29477,7 +29477,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="89" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
@@ -29893,7 +29893,7 @@
         <v>228</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="11"/>
@@ -37531,7 +37531,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -39757,7 +39757,7 @@
         <v>228</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
@@ -44577,7 +44577,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -46188,7 +46188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -47917,7 +47919,7 @@
         <v>315</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -48800,10 +48802,10 @@
         <v>313</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G32" s="57" t="s">
         <v>314</v>
@@ -48812,25 +48814,25 @@
         <v>310</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="J32" s="57" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="K32" s="57" t="s">
         <v>322</v>
       </c>
       <c r="L32" s="57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M32" s="57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N32" s="57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O32" s="57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -48849,7 +48851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -52956,7 +52958,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G14" s="93"/>
     </row>
@@ -52977,7 +52979,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G15" s="92"/>
     </row>
@@ -53295,7 +53297,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
@@ -55657,7 +55659,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="11"/>
@@ -64398,7 +64400,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="89" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
@@ -66195,10 +66197,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>139</v>
@@ -66923,7 +66925,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -66931,7 +66933,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91603600-2944-415A-BD17-205C28897DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -42,12 +43,23 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testIndex"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_3">"setUpDb"</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="350">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1991,11 +2003,15 @@
     <t>"2016/12/31"</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ADMIN_FLAG</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -2538,7 +2554,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2614,12 +2630,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2661,7 +2680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2694,9 +2713,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2729,6 +2765,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2904,11 +2957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2961,24 +3014,27 @@
         <v>257</v>
       </c>
       <c r="D5" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="H5" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="I5" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="J5" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="K5" s="47" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2993,22 +3049,25 @@
         <v>267</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="F6" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="G6" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="H6" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="I6" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="56" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3178,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>
@@ -11263,7 +11322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:IV22"/>
   <sheetViews>
@@ -13597,7 +13656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:IV43"/>
   <sheetViews>
@@ -16059,7 +16118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:IV23"/>
   <sheetViews>
@@ -18389,7 +18448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:IV43"/>
   <sheetViews>
@@ -20849,7 +20908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:IV24"/>
   <sheetViews>
@@ -23185,7 +23244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
@@ -25259,7 +25318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -27223,7 +27282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:IV34"/>
   <sheetViews>
@@ -29547,7 +29606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:IV24"/>
   <sheetViews>
@@ -32255,7 +32314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -34222,13 +34281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -37191,7 +37248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -39413,7 +39470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
@@ -41795,7 +41852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
@@ -44232,7 +44289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
@@ -46185,12 +46242,10 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -48848,7 +48903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -51288,7 +51343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV35"/>
   <sheetViews>
@@ -53367,7 +53422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -55325,7 +55380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -57653,7 +57708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
@@ -59926,7 +59981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -62148,7 +62203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV34"/>
   <sheetViews>
@@ -64470,7 +64525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E8C1D4-26FB-4ED7-8B7D-00717E6BBB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF6365A-4427-4B8E-8170-BC53B5F21FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="352">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -6330,29 +6330,17 @@
       <c r="A22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>165</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="25" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -15463,25 +15451,17 @@
       <c r="A22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="25" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -51423,29 +51403,17 @@
       <c r="A22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>165</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="25" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -55133,25 +55101,17 @@
       <c r="A22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="25" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B38014-8660-45A7-9279-8D9CCD799BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AB011-B005-4139-BC8B-336234B4E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="353">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -2015,6 +2015,10 @@
     <t>searchCondition</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -26188,7 +26192,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -26450,7 +26456,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -28264,7 +28272,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -28526,7 +28536,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -30244,7 +30256,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -30506,7 +30520,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -32582,7 +32598,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -32844,7 +32862,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -37269,7 +37289,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -37531,7 +37553,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -40208,7 +40232,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -40470,7 +40496,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -42423,7 +42451,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -42685,7 +42715,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -44807,7 +44839,9 @@
       <c r="B8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -45069,7 +45103,9 @@
       <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -47238,7 +47274,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -47500,7 +47538,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -56361,7 +56401,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -56623,7 +56665,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -58442,7 +58486,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -58704,7 +58750,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -60408,7 +60456,9 @@
       <c r="B8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -60670,7 +60720,9 @@
       <c r="B9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -62748,7 +62800,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -63010,7 +63064,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -65017,7 +65073,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -65279,7 +65337,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -67239,7 +67299,9 @@
       <c r="B9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -67500,7 +67562,9 @@
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AB011-B005-4139-BC8B-336234B4E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363E910-B127-431A-846A-117F9D7530D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5275,1076 +5275,1076 @@
       <c r="IT16" s="5"/>
       <c r="IU16" s="5"/>
     </row>
-    <row r="17" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="21" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="17"/>
-      <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="17"/>
-      <c r="CI17" s="17"/>
-      <c r="CJ17" s="17"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="17"/>
-      <c r="CS17" s="17"/>
-      <c r="CT17" s="17"/>
-      <c r="CU17" s="17"/>
-      <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
-      <c r="CX17" s="17"/>
-      <c r="CY17" s="17"/>
-      <c r="CZ17" s="17"/>
-      <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
-      <c r="DC17" s="17"/>
-      <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DP17" s="17"/>
-      <c r="DQ17" s="17"/>
-      <c r="DR17" s="17"/>
-      <c r="DS17" s="17"/>
-      <c r="DT17" s="17"/>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
-      <c r="DW17" s="17"/>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
-      <c r="EA17" s="17"/>
-      <c r="EB17" s="17"/>
-      <c r="EC17" s="17"/>
-      <c r="ED17" s="17"/>
-      <c r="EE17" s="17"/>
-      <c r="EF17" s="17"/>
-      <c r="EG17" s="17"/>
-      <c r="EH17" s="17"/>
-      <c r="EI17" s="17"/>
-      <c r="EJ17" s="17"/>
-      <c r="EK17" s="17"/>
-      <c r="EL17" s="17"/>
-      <c r="EM17" s="17"/>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
-      <c r="EZ17" s="17"/>
-      <c r="FA17" s="17"/>
-      <c r="FB17" s="17"/>
-      <c r="FC17" s="17"/>
-      <c r="FD17" s="17"/>
-      <c r="FE17" s="17"/>
-      <c r="FF17" s="17"/>
-      <c r="FG17" s="17"/>
-      <c r="FH17" s="17"/>
-      <c r="FI17" s="17"/>
-      <c r="FJ17" s="17"/>
-      <c r="FK17" s="17"/>
-      <c r="FL17" s="17"/>
-      <c r="FM17" s="17"/>
-      <c r="FN17" s="17"/>
-      <c r="FO17" s="17"/>
-      <c r="FP17" s="17"/>
-      <c r="FQ17" s="17"/>
-      <c r="FR17" s="17"/>
-      <c r="FS17" s="17"/>
-      <c r="FT17" s="17"/>
-      <c r="FU17" s="17"/>
-      <c r="FV17" s="17"/>
-      <c r="FW17" s="17"/>
-      <c r="FX17" s="17"/>
-      <c r="FY17" s="17"/>
-      <c r="FZ17" s="17"/>
-      <c r="GA17" s="17"/>
-      <c r="GB17" s="17"/>
-      <c r="GC17" s="17"/>
-      <c r="GD17" s="17"/>
-      <c r="GE17" s="17"/>
-      <c r="GF17" s="17"/>
-      <c r="GG17" s="17"/>
-      <c r="GH17" s="17"/>
-      <c r="GI17" s="17"/>
-      <c r="GJ17" s="17"/>
-      <c r="GK17" s="17"/>
-      <c r="GL17" s="17"/>
-      <c r="GM17" s="17"/>
-      <c r="GN17" s="17"/>
-      <c r="GO17" s="17"/>
-      <c r="GP17" s="17"/>
-      <c r="GQ17" s="17"/>
-      <c r="GR17" s="17"/>
-      <c r="GS17" s="17"/>
-      <c r="GT17" s="17"/>
-      <c r="GU17" s="17"/>
-      <c r="GV17" s="17"/>
-      <c r="GW17" s="17"/>
-      <c r="GX17" s="17"/>
-      <c r="GY17" s="17"/>
-      <c r="GZ17" s="17"/>
-      <c r="HA17" s="17"/>
-      <c r="HB17" s="17"/>
-      <c r="HC17" s="17"/>
-      <c r="HD17" s="17"/>
-      <c r="HE17" s="17"/>
-      <c r="HF17" s="17"/>
-      <c r="HG17" s="17"/>
-      <c r="HH17" s="17"/>
-      <c r="HI17" s="17"/>
-      <c r="HJ17" s="17"/>
-      <c r="HK17" s="17"/>
-      <c r="HL17" s="17"/>
-      <c r="HM17" s="17"/>
-      <c r="HN17" s="17"/>
-      <c r="HO17" s="17"/>
-      <c r="HP17" s="17"/>
-      <c r="HQ17" s="17"/>
-      <c r="HR17" s="17"/>
-      <c r="HS17" s="17"/>
-      <c r="HT17" s="17"/>
-      <c r="HU17" s="17"/>
-      <c r="HV17" s="17"/>
-      <c r="HW17" s="17"/>
-      <c r="HX17" s="17"/>
-      <c r="HY17" s="17"/>
-      <c r="HZ17" s="17"/>
-      <c r="IA17" s="17"/>
-      <c r="IB17" s="17"/>
-      <c r="IC17" s="17"/>
-      <c r="ID17" s="17"/>
-      <c r="IE17" s="17"/>
-      <c r="IF17" s="17"/>
-      <c r="IG17" s="17"/>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="17"/>
-      <c r="IJ17" s="17"/>
-      <c r="IK17" s="17"/>
-      <c r="IL17" s="17"/>
-      <c r="IM17" s="17"/>
-      <c r="IN17" s="17"/>
-      <c r="IO17" s="17"/>
-      <c r="IP17" s="17"/>
-      <c r="IQ17" s="17"/>
-      <c r="IR17" s="17"/>
-      <c r="IS17" s="17"/>
-      <c r="IT17" s="17"/>
-      <c r="IU17" s="17"/>
-      <c r="IV17" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="17"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="17"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="17"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="17"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="17"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="17"/>
+      <c r="CU21" s="17"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="17"/>
+      <c r="CX21" s="17"/>
+      <c r="CY21" s="17"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="17"/>
+      <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="17"/>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
+      <c r="EA21" s="17"/>
+      <c r="EB21" s="17"/>
+      <c r="EC21" s="17"/>
+      <c r="ED21" s="17"/>
+      <c r="EE21" s="17"/>
+      <c r="EF21" s="17"/>
+      <c r="EG21" s="17"/>
+      <c r="EH21" s="17"/>
+      <c r="EI21" s="17"/>
+      <c r="EJ21" s="17"/>
+      <c r="EK21" s="17"/>
+      <c r="EL21" s="17"/>
+      <c r="EM21" s="17"/>
+      <c r="EN21" s="17"/>
+      <c r="EO21" s="17"/>
+      <c r="EP21" s="17"/>
+      <c r="EQ21" s="17"/>
+      <c r="ER21" s="17"/>
+      <c r="ES21" s="17"/>
+      <c r="ET21" s="17"/>
+      <c r="EU21" s="17"/>
+      <c r="EV21" s="17"/>
+      <c r="EW21" s="17"/>
+      <c r="EX21" s="17"/>
+      <c r="EY21" s="17"/>
+      <c r="EZ21" s="17"/>
+      <c r="FA21" s="17"/>
+      <c r="FB21" s="17"/>
+      <c r="FC21" s="17"/>
+      <c r="FD21" s="17"/>
+      <c r="FE21" s="17"/>
+      <c r="FF21" s="17"/>
+      <c r="FG21" s="17"/>
+      <c r="FH21" s="17"/>
+      <c r="FI21" s="17"/>
+      <c r="FJ21" s="17"/>
+      <c r="FK21" s="17"/>
+      <c r="FL21" s="17"/>
+      <c r="FM21" s="17"/>
+      <c r="FN21" s="17"/>
+      <c r="FO21" s="17"/>
+      <c r="FP21" s="17"/>
+      <c r="FQ21" s="17"/>
+      <c r="FR21" s="17"/>
+      <c r="FS21" s="17"/>
+      <c r="FT21" s="17"/>
+      <c r="FU21" s="17"/>
+      <c r="FV21" s="17"/>
+      <c r="FW21" s="17"/>
+      <c r="FX21" s="17"/>
+      <c r="FY21" s="17"/>
+      <c r="FZ21" s="17"/>
+      <c r="GA21" s="17"/>
+      <c r="GB21" s="17"/>
+      <c r="GC21" s="17"/>
+      <c r="GD21" s="17"/>
+      <c r="GE21" s="17"/>
+      <c r="GF21" s="17"/>
+      <c r="GG21" s="17"/>
+      <c r="GH21" s="17"/>
+      <c r="GI21" s="17"/>
+      <c r="GJ21" s="17"/>
+      <c r="GK21" s="17"/>
+      <c r="GL21" s="17"/>
+      <c r="GM21" s="17"/>
+      <c r="GN21" s="17"/>
+      <c r="GO21" s="17"/>
+      <c r="GP21" s="17"/>
+      <c r="GQ21" s="17"/>
+      <c r="GR21" s="17"/>
+      <c r="GS21" s="17"/>
+      <c r="GT21" s="17"/>
+      <c r="GU21" s="17"/>
+      <c r="GV21" s="17"/>
+      <c r="GW21" s="17"/>
+      <c r="GX21" s="17"/>
+      <c r="GY21" s="17"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="17"/>
+      <c r="HE21" s="17"/>
+      <c r="HF21" s="17"/>
+      <c r="HG21" s="17"/>
+      <c r="HH21" s="17"/>
+      <c r="HI21" s="17"/>
+      <c r="HJ21" s="17"/>
+      <c r="HK21" s="17"/>
+      <c r="HL21" s="17"/>
+      <c r="HM21" s="17"/>
+      <c r="HN21" s="17"/>
+      <c r="HO21" s="17"/>
+      <c r="HP21" s="17"/>
+      <c r="HQ21" s="17"/>
+      <c r="HR21" s="17"/>
+      <c r="HS21" s="17"/>
+      <c r="HT21" s="17"/>
+      <c r="HU21" s="17"/>
+      <c r="HV21" s="17"/>
+      <c r="HW21" s="17"/>
+      <c r="HX21" s="17"/>
+      <c r="HY21" s="17"/>
+      <c r="HZ21" s="17"/>
+      <c r="IA21" s="17"/>
+      <c r="IB21" s="17"/>
+      <c r="IC21" s="17"/>
+      <c r="ID21" s="17"/>
+      <c r="IE21" s="17"/>
+      <c r="IF21" s="17"/>
+      <c r="IG21" s="17"/>
+      <c r="IH21" s="17"/>
+      <c r="II21" s="17"/>
+      <c r="IJ21" s="17"/>
+      <c r="IK21" s="17"/>
+      <c r="IL21" s="17"/>
+      <c r="IM21" s="17"/>
+      <c r="IN21" s="17"/>
+      <c r="IO21" s="17"/>
+      <c r="IP21" s="17"/>
+      <c r="IQ21" s="17"/>
+      <c r="IR21" s="17"/>
+      <c r="IS21" s="17"/>
+      <c r="IT21" s="17"/>
+      <c r="IU21" s="17"/>
+      <c r="IV21" s="17"/>
     </row>
-    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="63" t="s">
+    <row r="22" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="17"/>
-      <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="17"/>
-      <c r="CI18" s="17"/>
-      <c r="CJ18" s="17"/>
-      <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="17"/>
-      <c r="CU18" s="17"/>
-      <c r="CV18" s="17"/>
-      <c r="CW18" s="17"/>
-      <c r="CX18" s="17"/>
-      <c r="CY18" s="17"/>
-      <c r="CZ18" s="17"/>
-      <c r="DA18" s="17"/>
-      <c r="DB18" s="17"/>
-      <c r="DC18" s="17"/>
-      <c r="DD18" s="17"/>
-      <c r="DE18" s="17"/>
-      <c r="DF18" s="17"/>
-      <c r="DG18" s="17"/>
-      <c r="DH18" s="17"/>
-      <c r="DI18" s="17"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="17"/>
-      <c r="DL18" s="17"/>
-      <c r="DM18" s="17"/>
-      <c r="DN18" s="17"/>
-      <c r="DO18" s="17"/>
-      <c r="DP18" s="17"/>
-      <c r="DQ18" s="17"/>
-      <c r="DR18" s="17"/>
-      <c r="DS18" s="17"/>
-      <c r="DT18" s="17"/>
-      <c r="DU18" s="17"/>
-      <c r="DV18" s="17"/>
-      <c r="DW18" s="17"/>
-      <c r="DX18" s="17"/>
-      <c r="DY18" s="17"/>
-      <c r="DZ18" s="17"/>
-      <c r="EA18" s="17"/>
-      <c r="EB18" s="17"/>
-      <c r="EC18" s="17"/>
-      <c r="ED18" s="17"/>
-      <c r="EE18" s="17"/>
-      <c r="EF18" s="17"/>
-      <c r="EG18" s="17"/>
-      <c r="EH18" s="17"/>
-      <c r="EI18" s="17"/>
-      <c r="EJ18" s="17"/>
-      <c r="EK18" s="17"/>
-      <c r="EL18" s="17"/>
-      <c r="EM18" s="17"/>
-      <c r="EN18" s="17"/>
-      <c r="EO18" s="17"/>
-      <c r="EP18" s="17"/>
-      <c r="EQ18" s="17"/>
-      <c r="ER18" s="17"/>
-      <c r="ES18" s="17"/>
-      <c r="ET18" s="17"/>
-      <c r="EU18" s="17"/>
-      <c r="EV18" s="17"/>
-      <c r="EW18" s="17"/>
-      <c r="EX18" s="17"/>
-      <c r="EY18" s="17"/>
-      <c r="EZ18" s="17"/>
-      <c r="FA18" s="17"/>
-      <c r="FB18" s="17"/>
-      <c r="FC18" s="17"/>
-      <c r="FD18" s="17"/>
-      <c r="FE18" s="17"/>
-      <c r="FF18" s="17"/>
-      <c r="FG18" s="17"/>
-      <c r="FH18" s="17"/>
-      <c r="FI18" s="17"/>
-      <c r="FJ18" s="17"/>
-      <c r="FK18" s="17"/>
-      <c r="FL18" s="17"/>
-      <c r="FM18" s="17"/>
-      <c r="FN18" s="17"/>
-      <c r="FO18" s="17"/>
-      <c r="FP18" s="17"/>
-      <c r="FQ18" s="17"/>
-      <c r="FR18" s="17"/>
-      <c r="FS18" s="17"/>
-      <c r="FT18" s="17"/>
-      <c r="FU18" s="17"/>
-      <c r="FV18" s="17"/>
-      <c r="FW18" s="17"/>
-      <c r="FX18" s="17"/>
-      <c r="FY18" s="17"/>
-      <c r="FZ18" s="17"/>
-      <c r="GA18" s="17"/>
-      <c r="GB18" s="17"/>
-      <c r="GC18" s="17"/>
-      <c r="GD18" s="17"/>
-      <c r="GE18" s="17"/>
-      <c r="GF18" s="17"/>
-      <c r="GG18" s="17"/>
-      <c r="GH18" s="17"/>
-      <c r="GI18" s="17"/>
-      <c r="GJ18" s="17"/>
-      <c r="GK18" s="17"/>
-      <c r="GL18" s="17"/>
-      <c r="GM18" s="17"/>
-      <c r="GN18" s="17"/>
-      <c r="GO18" s="17"/>
-      <c r="GP18" s="17"/>
-      <c r="GQ18" s="17"/>
-      <c r="GR18" s="17"/>
-      <c r="GS18" s="17"/>
-      <c r="GT18" s="17"/>
-      <c r="GU18" s="17"/>
-      <c r="GV18" s="17"/>
-      <c r="GW18" s="17"/>
-      <c r="GX18" s="17"/>
-      <c r="GY18" s="17"/>
-      <c r="GZ18" s="17"/>
-      <c r="HA18" s="17"/>
-      <c r="HB18" s="17"/>
-      <c r="HC18" s="17"/>
-      <c r="HD18" s="17"/>
-      <c r="HE18" s="17"/>
-      <c r="HF18" s="17"/>
-      <c r="HG18" s="17"/>
-      <c r="HH18" s="17"/>
-      <c r="HI18" s="17"/>
-      <c r="HJ18" s="17"/>
-      <c r="HK18" s="17"/>
-      <c r="HL18" s="17"/>
-      <c r="HM18" s="17"/>
-      <c r="HN18" s="17"/>
-      <c r="HO18" s="17"/>
-      <c r="HP18" s="17"/>
-      <c r="HQ18" s="17"/>
-      <c r="HR18" s="17"/>
-      <c r="HS18" s="17"/>
-      <c r="HT18" s="17"/>
-      <c r="HU18" s="17"/>
-      <c r="HV18" s="17"/>
-      <c r="HW18" s="17"/>
-      <c r="HX18" s="17"/>
-      <c r="HY18" s="17"/>
-      <c r="HZ18" s="17"/>
-      <c r="IA18" s="17"/>
-      <c r="IB18" s="17"/>
-      <c r="IC18" s="17"/>
-      <c r="ID18" s="17"/>
-      <c r="IE18" s="17"/>
-      <c r="IF18" s="17"/>
-      <c r="IG18" s="17"/>
-      <c r="IH18" s="17"/>
-      <c r="II18" s="17"/>
-      <c r="IJ18" s="17"/>
-      <c r="IK18" s="17"/>
-      <c r="IL18" s="17"/>
-      <c r="IM18" s="17"/>
-      <c r="IN18" s="17"/>
-      <c r="IO18" s="17"/>
-      <c r="IP18" s="17"/>
-      <c r="IQ18" s="17"/>
-      <c r="IR18" s="17"/>
-      <c r="IS18" s="17"/>
-      <c r="IT18" s="17"/>
-      <c r="IU18" s="17"/>
-      <c r="IV18" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="17"/>
+      <c r="CX22" s="17"/>
+      <c r="CY22" s="17"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="17"/>
+      <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="17"/>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
+      <c r="EA22" s="17"/>
+      <c r="EB22" s="17"/>
+      <c r="EC22" s="17"/>
+      <c r="ED22" s="17"/>
+      <c r="EE22" s="17"/>
+      <c r="EF22" s="17"/>
+      <c r="EG22" s="17"/>
+      <c r="EH22" s="17"/>
+      <c r="EI22" s="17"/>
+      <c r="EJ22" s="17"/>
+      <c r="EK22" s="17"/>
+      <c r="EL22" s="17"/>
+      <c r="EM22" s="17"/>
+      <c r="EN22" s="17"/>
+      <c r="EO22" s="17"/>
+      <c r="EP22" s="17"/>
+      <c r="EQ22" s="17"/>
+      <c r="ER22" s="17"/>
+      <c r="ES22" s="17"/>
+      <c r="ET22" s="17"/>
+      <c r="EU22" s="17"/>
+      <c r="EV22" s="17"/>
+      <c r="EW22" s="17"/>
+      <c r="EX22" s="17"/>
+      <c r="EY22" s="17"/>
+      <c r="EZ22" s="17"/>
+      <c r="FA22" s="17"/>
+      <c r="FB22" s="17"/>
+      <c r="FC22" s="17"/>
+      <c r="FD22" s="17"/>
+      <c r="FE22" s="17"/>
+      <c r="FF22" s="17"/>
+      <c r="FG22" s="17"/>
+      <c r="FH22" s="17"/>
+      <c r="FI22" s="17"/>
+      <c r="FJ22" s="17"/>
+      <c r="FK22" s="17"/>
+      <c r="FL22" s="17"/>
+      <c r="FM22" s="17"/>
+      <c r="FN22" s="17"/>
+      <c r="FO22" s="17"/>
+      <c r="FP22" s="17"/>
+      <c r="FQ22" s="17"/>
+      <c r="FR22" s="17"/>
+      <c r="FS22" s="17"/>
+      <c r="FT22" s="17"/>
+      <c r="FU22" s="17"/>
+      <c r="FV22" s="17"/>
+      <c r="FW22" s="17"/>
+      <c r="FX22" s="17"/>
+      <c r="FY22" s="17"/>
+      <c r="FZ22" s="17"/>
+      <c r="GA22" s="17"/>
+      <c r="GB22" s="17"/>
+      <c r="GC22" s="17"/>
+      <c r="GD22" s="17"/>
+      <c r="GE22" s="17"/>
+      <c r="GF22" s="17"/>
+      <c r="GG22" s="17"/>
+      <c r="GH22" s="17"/>
+      <c r="GI22" s="17"/>
+      <c r="GJ22" s="17"/>
+      <c r="GK22" s="17"/>
+      <c r="GL22" s="17"/>
+      <c r="GM22" s="17"/>
+      <c r="GN22" s="17"/>
+      <c r="GO22" s="17"/>
+      <c r="GP22" s="17"/>
+      <c r="GQ22" s="17"/>
+      <c r="GR22" s="17"/>
+      <c r="GS22" s="17"/>
+      <c r="GT22" s="17"/>
+      <c r="GU22" s="17"/>
+      <c r="GV22" s="17"/>
+      <c r="GW22" s="17"/>
+      <c r="GX22" s="17"/>
+      <c r="GY22" s="17"/>
+      <c r="GZ22" s="17"/>
+      <c r="HA22" s="17"/>
+      <c r="HB22" s="17"/>
+      <c r="HC22" s="17"/>
+      <c r="HD22" s="17"/>
+      <c r="HE22" s="17"/>
+      <c r="HF22" s="17"/>
+      <c r="HG22" s="17"/>
+      <c r="HH22" s="17"/>
+      <c r="HI22" s="17"/>
+      <c r="HJ22" s="17"/>
+      <c r="HK22" s="17"/>
+      <c r="HL22" s="17"/>
+      <c r="HM22" s="17"/>
+      <c r="HN22" s="17"/>
+      <c r="HO22" s="17"/>
+      <c r="HP22" s="17"/>
+      <c r="HQ22" s="17"/>
+      <c r="HR22" s="17"/>
+      <c r="HS22" s="17"/>
+      <c r="HT22" s="17"/>
+      <c r="HU22" s="17"/>
+      <c r="HV22" s="17"/>
+      <c r="HW22" s="17"/>
+      <c r="HX22" s="17"/>
+      <c r="HY22" s="17"/>
+      <c r="HZ22" s="17"/>
+      <c r="IA22" s="17"/>
+      <c r="IB22" s="17"/>
+      <c r="IC22" s="17"/>
+      <c r="ID22" s="17"/>
+      <c r="IE22" s="17"/>
+      <c r="IF22" s="17"/>
+      <c r="IG22" s="17"/>
+      <c r="IH22" s="17"/>
+      <c r="II22" s="17"/>
+      <c r="IJ22" s="17"/>
+      <c r="IK22" s="17"/>
+      <c r="IL22" s="17"/>
+      <c r="IM22" s="17"/>
+      <c r="IN22" s="17"/>
+      <c r="IO22" s="17"/>
+      <c r="IP22" s="17"/>
+      <c r="IQ22" s="17"/>
+      <c r="IR22" s="17"/>
+      <c r="IS22" s="17"/>
+      <c r="IT22" s="17"/>
+      <c r="IU22" s="17"/>
+      <c r="IV22" s="17"/>
     </row>
-    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+    <row r="23" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B23" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C23" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="17"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
-      <c r="BR19" s="17"/>
-      <c r="BS19" s="17"/>
-      <c r="BT19" s="17"/>
-      <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
-      <c r="BW19" s="17"/>
-      <c r="BX19" s="17"/>
-      <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
-      <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
-      <c r="CI19" s="17"/>
-      <c r="CJ19" s="17"/>
-      <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="17"/>
-      <c r="CU19" s="17"/>
-      <c r="CV19" s="17"/>
-      <c r="CW19" s="17"/>
-      <c r="CX19" s="17"/>
-      <c r="CY19" s="17"/>
-      <c r="CZ19" s="17"/>
-      <c r="DA19" s="17"/>
-      <c r="DB19" s="17"/>
-      <c r="DC19" s="17"/>
-      <c r="DD19" s="17"/>
-      <c r="DE19" s="17"/>
-      <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DP19" s="17"/>
-      <c r="DQ19" s="17"/>
-      <c r="DR19" s="17"/>
-      <c r="DS19" s="17"/>
-      <c r="DT19" s="17"/>
-      <c r="DU19" s="17"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
-      <c r="DX19" s="17"/>
-      <c r="DY19" s="17"/>
-      <c r="DZ19" s="17"/>
-      <c r="EA19" s="17"/>
-      <c r="EB19" s="17"/>
-      <c r="EC19" s="17"/>
-      <c r="ED19" s="17"/>
-      <c r="EE19" s="17"/>
-      <c r="EF19" s="17"/>
-      <c r="EG19" s="17"/>
-      <c r="EH19" s="17"/>
-      <c r="EI19" s="17"/>
-      <c r="EJ19" s="17"/>
-      <c r="EK19" s="17"/>
-      <c r="EL19" s="17"/>
-      <c r="EM19" s="17"/>
-      <c r="EN19" s="17"/>
-      <c r="EO19" s="17"/>
-      <c r="EP19" s="17"/>
-      <c r="EQ19" s="17"/>
-      <c r="ER19" s="17"/>
-      <c r="ES19" s="17"/>
-      <c r="ET19" s="17"/>
-      <c r="EU19" s="17"/>
-      <c r="EV19" s="17"/>
-      <c r="EW19" s="17"/>
-      <c r="EX19" s="17"/>
-      <c r="EY19" s="17"/>
-      <c r="EZ19" s="17"/>
-      <c r="FA19" s="17"/>
-      <c r="FB19" s="17"/>
-      <c r="FC19" s="17"/>
-      <c r="FD19" s="17"/>
-      <c r="FE19" s="17"/>
-      <c r="FF19" s="17"/>
-      <c r="FG19" s="17"/>
-      <c r="FH19" s="17"/>
-      <c r="FI19" s="17"/>
-      <c r="FJ19" s="17"/>
-      <c r="FK19" s="17"/>
-      <c r="FL19" s="17"/>
-      <c r="FM19" s="17"/>
-      <c r="FN19" s="17"/>
-      <c r="FO19" s="17"/>
-      <c r="FP19" s="17"/>
-      <c r="FQ19" s="17"/>
-      <c r="FR19" s="17"/>
-      <c r="FS19" s="17"/>
-      <c r="FT19" s="17"/>
-      <c r="FU19" s="17"/>
-      <c r="FV19" s="17"/>
-      <c r="FW19" s="17"/>
-      <c r="FX19" s="17"/>
-      <c r="FY19" s="17"/>
-      <c r="FZ19" s="17"/>
-      <c r="GA19" s="17"/>
-      <c r="GB19" s="17"/>
-      <c r="GC19" s="17"/>
-      <c r="GD19" s="17"/>
-      <c r="GE19" s="17"/>
-      <c r="GF19" s="17"/>
-      <c r="GG19" s="17"/>
-      <c r="GH19" s="17"/>
-      <c r="GI19" s="17"/>
-      <c r="GJ19" s="17"/>
-      <c r="GK19" s="17"/>
-      <c r="GL19" s="17"/>
-      <c r="GM19" s="17"/>
-      <c r="GN19" s="17"/>
-      <c r="GO19" s="17"/>
-      <c r="GP19" s="17"/>
-      <c r="GQ19" s="17"/>
-      <c r="GR19" s="17"/>
-      <c r="GS19" s="17"/>
-      <c r="GT19" s="17"/>
-      <c r="GU19" s="17"/>
-      <c r="GV19" s="17"/>
-      <c r="GW19" s="17"/>
-      <c r="GX19" s="17"/>
-      <c r="GY19" s="17"/>
-      <c r="GZ19" s="17"/>
-      <c r="HA19" s="17"/>
-      <c r="HB19" s="17"/>
-      <c r="HC19" s="17"/>
-      <c r="HD19" s="17"/>
-      <c r="HE19" s="17"/>
-      <c r="HF19" s="17"/>
-      <c r="HG19" s="17"/>
-      <c r="HH19" s="17"/>
-      <c r="HI19" s="17"/>
-      <c r="HJ19" s="17"/>
-      <c r="HK19" s="17"/>
-      <c r="HL19" s="17"/>
-      <c r="HM19" s="17"/>
-      <c r="HN19" s="17"/>
-      <c r="HO19" s="17"/>
-      <c r="HP19" s="17"/>
-      <c r="HQ19" s="17"/>
-      <c r="HR19" s="17"/>
-      <c r="HS19" s="17"/>
-      <c r="HT19" s="17"/>
-      <c r="HU19" s="17"/>
-      <c r="HV19" s="17"/>
-      <c r="HW19" s="17"/>
-      <c r="HX19" s="17"/>
-      <c r="HY19" s="17"/>
-      <c r="HZ19" s="17"/>
-      <c r="IA19" s="17"/>
-      <c r="IB19" s="17"/>
-      <c r="IC19" s="17"/>
-      <c r="ID19" s="17"/>
-      <c r="IE19" s="17"/>
-      <c r="IF19" s="17"/>
-      <c r="IG19" s="17"/>
-      <c r="IH19" s="17"/>
-      <c r="II19" s="17"/>
-      <c r="IJ19" s="17"/>
-      <c r="IK19" s="17"/>
-      <c r="IL19" s="17"/>
-      <c r="IM19" s="17"/>
-      <c r="IN19" s="17"/>
-      <c r="IO19" s="17"/>
-      <c r="IP19" s="17"/>
-      <c r="IQ19" s="17"/>
-      <c r="IR19" s="17"/>
-      <c r="IS19" s="17"/>
-      <c r="IT19" s="17"/>
-      <c r="IU19" s="17"/>
-      <c r="IV19" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="17"/>
+      <c r="CQ23" s="17"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="17"/>
+      <c r="CT23" s="17"/>
+      <c r="CU23" s="17"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="17"/>
+      <c r="CX23" s="17"/>
+      <c r="CY23" s="17"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="17"/>
+      <c r="DB23" s="17"/>
+      <c r="DC23" s="17"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="17"/>
+      <c r="DF23" s="17"/>
+      <c r="DG23" s="17"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="17"/>
+      <c r="DJ23" s="17"/>
+      <c r="DK23" s="17"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
+      <c r="DN23" s="17"/>
+      <c r="DO23" s="17"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
+      <c r="EA23" s="17"/>
+      <c r="EB23" s="17"/>
+      <c r="EC23" s="17"/>
+      <c r="ED23" s="17"/>
+      <c r="EE23" s="17"/>
+      <c r="EF23" s="17"/>
+      <c r="EG23" s="17"/>
+      <c r="EH23" s="17"/>
+      <c r="EI23" s="17"/>
+      <c r="EJ23" s="17"/>
+      <c r="EK23" s="17"/>
+      <c r="EL23" s="17"/>
+      <c r="EM23" s="17"/>
+      <c r="EN23" s="17"/>
+      <c r="EO23" s="17"/>
+      <c r="EP23" s="17"/>
+      <c r="EQ23" s="17"/>
+      <c r="ER23" s="17"/>
+      <c r="ES23" s="17"/>
+      <c r="ET23" s="17"/>
+      <c r="EU23" s="17"/>
+      <c r="EV23" s="17"/>
+      <c r="EW23" s="17"/>
+      <c r="EX23" s="17"/>
+      <c r="EY23" s="17"/>
+      <c r="EZ23" s="17"/>
+      <c r="FA23" s="17"/>
+      <c r="FB23" s="17"/>
+      <c r="FC23" s="17"/>
+      <c r="FD23" s="17"/>
+      <c r="FE23" s="17"/>
+      <c r="FF23" s="17"/>
+      <c r="FG23" s="17"/>
+      <c r="FH23" s="17"/>
+      <c r="FI23" s="17"/>
+      <c r="FJ23" s="17"/>
+      <c r="FK23" s="17"/>
+      <c r="FL23" s="17"/>
+      <c r="FM23" s="17"/>
+      <c r="FN23" s="17"/>
+      <c r="FO23" s="17"/>
+      <c r="FP23" s="17"/>
+      <c r="FQ23" s="17"/>
+      <c r="FR23" s="17"/>
+      <c r="FS23" s="17"/>
+      <c r="FT23" s="17"/>
+      <c r="FU23" s="17"/>
+      <c r="FV23" s="17"/>
+      <c r="FW23" s="17"/>
+      <c r="FX23" s="17"/>
+      <c r="FY23" s="17"/>
+      <c r="FZ23" s="17"/>
+      <c r="GA23" s="17"/>
+      <c r="GB23" s="17"/>
+      <c r="GC23" s="17"/>
+      <c r="GD23" s="17"/>
+      <c r="GE23" s="17"/>
+      <c r="GF23" s="17"/>
+      <c r="GG23" s="17"/>
+      <c r="GH23" s="17"/>
+      <c r="GI23" s="17"/>
+      <c r="GJ23" s="17"/>
+      <c r="GK23" s="17"/>
+      <c r="GL23" s="17"/>
+      <c r="GM23" s="17"/>
+      <c r="GN23" s="17"/>
+      <c r="GO23" s="17"/>
+      <c r="GP23" s="17"/>
+      <c r="GQ23" s="17"/>
+      <c r="GR23" s="17"/>
+      <c r="GS23" s="17"/>
+      <c r="GT23" s="17"/>
+      <c r="GU23" s="17"/>
+      <c r="GV23" s="17"/>
+      <c r="GW23" s="17"/>
+      <c r="GX23" s="17"/>
+      <c r="GY23" s="17"/>
+      <c r="GZ23" s="17"/>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="17"/>
+      <c r="HE23" s="17"/>
+      <c r="HF23" s="17"/>
+      <c r="HG23" s="17"/>
+      <c r="HH23" s="17"/>
+      <c r="HI23" s="17"/>
+      <c r="HJ23" s="17"/>
+      <c r="HK23" s="17"/>
+      <c r="HL23" s="17"/>
+      <c r="HM23" s="17"/>
+      <c r="HN23" s="17"/>
+      <c r="HO23" s="17"/>
+      <c r="HP23" s="17"/>
+      <c r="HQ23" s="17"/>
+      <c r="HR23" s="17"/>
+      <c r="HS23" s="17"/>
+      <c r="HT23" s="17"/>
+      <c r="HU23" s="17"/>
+      <c r="HV23" s="17"/>
+      <c r="HW23" s="17"/>
+      <c r="HX23" s="17"/>
+      <c r="HY23" s="17"/>
+      <c r="HZ23" s="17"/>
+      <c r="IA23" s="17"/>
+      <c r="IB23" s="17"/>
+      <c r="IC23" s="17"/>
+      <c r="ID23" s="17"/>
+      <c r="IE23" s="17"/>
+      <c r="IF23" s="17"/>
+      <c r="IG23" s="17"/>
+      <c r="IH23" s="17"/>
+      <c r="II23" s="17"/>
+      <c r="IJ23" s="17"/>
+      <c r="IK23" s="17"/>
+      <c r="IL23" s="17"/>
+      <c r="IM23" s="17"/>
+      <c r="IN23" s="17"/>
+      <c r="IO23" s="17"/>
+      <c r="IP23" s="17"/>
+      <c r="IQ23" s="17"/>
+      <c r="IR23" s="17"/>
+      <c r="IS23" s="17"/>
+      <c r="IT23" s="17"/>
+      <c r="IU23" s="17"/>
+      <c r="IV23" s="17"/>
     </row>
-    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="17"/>
-      <c r="CS20" s="17"/>
-      <c r="CT20" s="17"/>
-      <c r="CU20" s="17"/>
-      <c r="CV20" s="17"/>
-      <c r="CW20" s="17"/>
-      <c r="CX20" s="17"/>
-      <c r="CY20" s="17"/>
-      <c r="CZ20" s="17"/>
-      <c r="DA20" s="17"/>
-      <c r="DB20" s="17"/>
-      <c r="DC20" s="17"/>
-      <c r="DD20" s="17"/>
-      <c r="DE20" s="17"/>
-      <c r="DF20" s="17"/>
-      <c r="DG20" s="17"/>
-      <c r="DH20" s="17"/>
-      <c r="DI20" s="17"/>
-      <c r="DJ20" s="17"/>
-      <c r="DK20" s="17"/>
-      <c r="DL20" s="17"/>
-      <c r="DM20" s="17"/>
-      <c r="DN20" s="17"/>
-      <c r="DO20" s="17"/>
-      <c r="DP20" s="17"/>
-      <c r="DQ20" s="17"/>
-      <c r="DR20" s="17"/>
-      <c r="DS20" s="17"/>
-      <c r="DT20" s="17"/>
-      <c r="DU20" s="17"/>
-      <c r="DV20" s="17"/>
-      <c r="DW20" s="17"/>
-      <c r="DX20" s="17"/>
-      <c r="DY20" s="17"/>
-      <c r="DZ20" s="17"/>
-      <c r="EA20" s="17"/>
-      <c r="EB20" s="17"/>
-      <c r="EC20" s="17"/>
-      <c r="ED20" s="17"/>
-      <c r="EE20" s="17"/>
-      <c r="EF20" s="17"/>
-      <c r="EG20" s="17"/>
-      <c r="EH20" s="17"/>
-      <c r="EI20" s="17"/>
-      <c r="EJ20" s="17"/>
-      <c r="EK20" s="17"/>
-      <c r="EL20" s="17"/>
-      <c r="EM20" s="17"/>
-      <c r="EN20" s="17"/>
-      <c r="EO20" s="17"/>
-      <c r="EP20" s="17"/>
-      <c r="EQ20" s="17"/>
-      <c r="ER20" s="17"/>
-      <c r="ES20" s="17"/>
-      <c r="ET20" s="17"/>
-      <c r="EU20" s="17"/>
-      <c r="EV20" s="17"/>
-      <c r="EW20" s="17"/>
-      <c r="EX20" s="17"/>
-      <c r="EY20" s="17"/>
-      <c r="EZ20" s="17"/>
-      <c r="FA20" s="17"/>
-      <c r="FB20" s="17"/>
-      <c r="FC20" s="17"/>
-      <c r="FD20" s="17"/>
-      <c r="FE20" s="17"/>
-      <c r="FF20" s="17"/>
-      <c r="FG20" s="17"/>
-      <c r="FH20" s="17"/>
-      <c r="FI20" s="17"/>
-      <c r="FJ20" s="17"/>
-      <c r="FK20" s="17"/>
-      <c r="FL20" s="17"/>
-      <c r="FM20" s="17"/>
-      <c r="FN20" s="17"/>
-      <c r="FO20" s="17"/>
-      <c r="FP20" s="17"/>
-      <c r="FQ20" s="17"/>
-      <c r="FR20" s="17"/>
-      <c r="FS20" s="17"/>
-      <c r="FT20" s="17"/>
-      <c r="FU20" s="17"/>
-      <c r="FV20" s="17"/>
-      <c r="FW20" s="17"/>
-      <c r="FX20" s="17"/>
-      <c r="FY20" s="17"/>
-      <c r="FZ20" s="17"/>
-      <c r="GA20" s="17"/>
-      <c r="GB20" s="17"/>
-      <c r="GC20" s="17"/>
-      <c r="GD20" s="17"/>
-      <c r="GE20" s="17"/>
-      <c r="GF20" s="17"/>
-      <c r="GG20" s="17"/>
-      <c r="GH20" s="17"/>
-      <c r="GI20" s="17"/>
-      <c r="GJ20" s="17"/>
-      <c r="GK20" s="17"/>
-      <c r="GL20" s="17"/>
-      <c r="GM20" s="17"/>
-      <c r="GN20" s="17"/>
-      <c r="GO20" s="17"/>
-      <c r="GP20" s="17"/>
-      <c r="GQ20" s="17"/>
-      <c r="GR20" s="17"/>
-      <c r="GS20" s="17"/>
-      <c r="GT20" s="17"/>
-      <c r="GU20" s="17"/>
-      <c r="GV20" s="17"/>
-      <c r="GW20" s="17"/>
-      <c r="GX20" s="17"/>
-      <c r="GY20" s="17"/>
-      <c r="GZ20" s="17"/>
-      <c r="HA20" s="17"/>
-      <c r="HB20" s="17"/>
-      <c r="HC20" s="17"/>
-      <c r="HD20" s="17"/>
-      <c r="HE20" s="17"/>
-      <c r="HF20" s="17"/>
-      <c r="HG20" s="17"/>
-      <c r="HH20" s="17"/>
-      <c r="HI20" s="17"/>
-      <c r="HJ20" s="17"/>
-      <c r="HK20" s="17"/>
-      <c r="HL20" s="17"/>
-      <c r="HM20" s="17"/>
-      <c r="HN20" s="17"/>
-      <c r="HO20" s="17"/>
-      <c r="HP20" s="17"/>
-      <c r="HQ20" s="17"/>
-      <c r="HR20" s="17"/>
-      <c r="HS20" s="17"/>
-      <c r="HT20" s="17"/>
-      <c r="HU20" s="17"/>
-      <c r="HV20" s="17"/>
-      <c r="HW20" s="17"/>
-      <c r="HX20" s="17"/>
-      <c r="HY20" s="17"/>
-      <c r="HZ20" s="17"/>
-      <c r="IA20" s="17"/>
-      <c r="IB20" s="17"/>
-      <c r="IC20" s="17"/>
-      <c r="ID20" s="17"/>
-      <c r="IE20" s="17"/>
-      <c r="IF20" s="17"/>
-      <c r="IG20" s="17"/>
-      <c r="IH20" s="17"/>
-      <c r="II20" s="17"/>
-      <c r="IJ20" s="17"/>
-      <c r="IK20" s="17"/>
-      <c r="IL20" s="17"/>
-      <c r="IM20" s="17"/>
-      <c r="IN20" s="17"/>
-      <c r="IO20" s="17"/>
-      <c r="IP20" s="17"/>
-      <c r="IQ20" s="17"/>
-      <c r="IR20" s="17"/>
-      <c r="IS20" s="17"/>
-      <c r="IT20" s="17"/>
-      <c r="IU20" s="17"/>
-      <c r="IV20" s="17"/>
-    </row>
-    <row r="21" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="24" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="94"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="17"/>
+      <c r="CU24" s="17"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="17"/>
+      <c r="CX24" s="17"/>
+      <c r="CY24" s="17"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="17"/>
+      <c r="DB24" s="17"/>
+      <c r="DC24" s="17"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="17"/>
+      <c r="DF24" s="17"/>
+      <c r="DG24" s="17"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="17"/>
+      <c r="DJ24" s="17"/>
+      <c r="DK24" s="17"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
+      <c r="DN24" s="17"/>
+      <c r="DO24" s="17"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="17"/>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
+      <c r="EA24" s="17"/>
+      <c r="EB24" s="17"/>
+      <c r="EC24" s="17"/>
+      <c r="ED24" s="17"/>
+      <c r="EE24" s="17"/>
+      <c r="EF24" s="17"/>
+      <c r="EG24" s="17"/>
+      <c r="EH24" s="17"/>
+      <c r="EI24" s="17"/>
+      <c r="EJ24" s="17"/>
+      <c r="EK24" s="17"/>
+      <c r="EL24" s="17"/>
+      <c r="EM24" s="17"/>
+      <c r="EN24" s="17"/>
+      <c r="EO24" s="17"/>
+      <c r="EP24" s="17"/>
+      <c r="EQ24" s="17"/>
+      <c r="ER24" s="17"/>
+      <c r="ES24" s="17"/>
+      <c r="ET24" s="17"/>
+      <c r="EU24" s="17"/>
+      <c r="EV24" s="17"/>
+      <c r="EW24" s="17"/>
+      <c r="EX24" s="17"/>
+      <c r="EY24" s="17"/>
+      <c r="EZ24" s="17"/>
+      <c r="FA24" s="17"/>
+      <c r="FB24" s="17"/>
+      <c r="FC24" s="17"/>
+      <c r="FD24" s="17"/>
+      <c r="FE24" s="17"/>
+      <c r="FF24" s="17"/>
+      <c r="FG24" s="17"/>
+      <c r="FH24" s="17"/>
+      <c r="FI24" s="17"/>
+      <c r="FJ24" s="17"/>
+      <c r="FK24" s="17"/>
+      <c r="FL24" s="17"/>
+      <c r="FM24" s="17"/>
+      <c r="FN24" s="17"/>
+      <c r="FO24" s="17"/>
+      <c r="FP24" s="17"/>
+      <c r="FQ24" s="17"/>
+      <c r="FR24" s="17"/>
+      <c r="FS24" s="17"/>
+      <c r="FT24" s="17"/>
+      <c r="FU24" s="17"/>
+      <c r="FV24" s="17"/>
+      <c r="FW24" s="17"/>
+      <c r="FX24" s="17"/>
+      <c r="FY24" s="17"/>
+      <c r="FZ24" s="17"/>
+      <c r="GA24" s="17"/>
+      <c r="GB24" s="17"/>
+      <c r="GC24" s="17"/>
+      <c r="GD24" s="17"/>
+      <c r="GE24" s="17"/>
+      <c r="GF24" s="17"/>
+      <c r="GG24" s="17"/>
+      <c r="GH24" s="17"/>
+      <c r="GI24" s="17"/>
+      <c r="GJ24" s="17"/>
+      <c r="GK24" s="17"/>
+      <c r="GL24" s="17"/>
+      <c r="GM24" s="17"/>
+      <c r="GN24" s="17"/>
+      <c r="GO24" s="17"/>
+      <c r="GP24" s="17"/>
+      <c r="GQ24" s="17"/>
+      <c r="GR24" s="17"/>
+      <c r="GS24" s="17"/>
+      <c r="GT24" s="17"/>
+      <c r="GU24" s="17"/>
+      <c r="GV24" s="17"/>
+      <c r="GW24" s="17"/>
+      <c r="GX24" s="17"/>
+      <c r="GY24" s="17"/>
+      <c r="GZ24" s="17"/>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="17"/>
+      <c r="HE24" s="17"/>
+      <c r="HF24" s="17"/>
+      <c r="HG24" s="17"/>
+      <c r="HH24" s="17"/>
+      <c r="HI24" s="17"/>
+      <c r="HJ24" s="17"/>
+      <c r="HK24" s="17"/>
+      <c r="HL24" s="17"/>
+      <c r="HM24" s="17"/>
+      <c r="HN24" s="17"/>
+      <c r="HO24" s="17"/>
+      <c r="HP24" s="17"/>
+      <c r="HQ24" s="17"/>
+      <c r="HR24" s="17"/>
+      <c r="HS24" s="17"/>
+      <c r="HT24" s="17"/>
+      <c r="HU24" s="17"/>
+      <c r="HV24" s="17"/>
+      <c r="HW24" s="17"/>
+      <c r="HX24" s="17"/>
+      <c r="HY24" s="17"/>
+      <c r="HZ24" s="17"/>
+      <c r="IA24" s="17"/>
+      <c r="IB24" s="17"/>
+      <c r="IC24" s="17"/>
+      <c r="ID24" s="17"/>
+      <c r="IE24" s="17"/>
+      <c r="IF24" s="17"/>
+      <c r="IG24" s="17"/>
+      <c r="IH24" s="17"/>
+      <c r="II24" s="17"/>
+      <c r="IJ24" s="17"/>
+      <c r="IK24" s="17"/>
+      <c r="IL24" s="17"/>
+      <c r="IM24" s="17"/>
+      <c r="IN24" s="17"/>
+      <c r="IO24" s="17"/>
+      <c r="IP24" s="17"/>
+      <c r="IQ24" s="17"/>
+      <c r="IR24" s="17"/>
+      <c r="IS24" s="17"/>
+      <c r="IT24" s="17"/>
+      <c r="IU24" s="17"/>
+      <c r="IV24" s="17"/>
     </row>
     <row r="25" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -14400,1072 +14400,1072 @@
       <c r="IT16" s="5"/>
       <c r="IU16" s="5"/>
     </row>
-    <row r="17" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="21" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="17"/>
-      <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="17"/>
-      <c r="CI17" s="17"/>
-      <c r="CJ17" s="17"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="17"/>
-      <c r="CS17" s="17"/>
-      <c r="CT17" s="17"/>
-      <c r="CU17" s="17"/>
-      <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
-      <c r="CX17" s="17"/>
-      <c r="CY17" s="17"/>
-      <c r="CZ17" s="17"/>
-      <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
-      <c r="DC17" s="17"/>
-      <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DP17" s="17"/>
-      <c r="DQ17" s="17"/>
-      <c r="DR17" s="17"/>
-      <c r="DS17" s="17"/>
-      <c r="DT17" s="17"/>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
-      <c r="DW17" s="17"/>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
-      <c r="EA17" s="17"/>
-      <c r="EB17" s="17"/>
-      <c r="EC17" s="17"/>
-      <c r="ED17" s="17"/>
-      <c r="EE17" s="17"/>
-      <c r="EF17" s="17"/>
-      <c r="EG17" s="17"/>
-      <c r="EH17" s="17"/>
-      <c r="EI17" s="17"/>
-      <c r="EJ17" s="17"/>
-      <c r="EK17" s="17"/>
-      <c r="EL17" s="17"/>
-      <c r="EM17" s="17"/>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
-      <c r="EZ17" s="17"/>
-      <c r="FA17" s="17"/>
-      <c r="FB17" s="17"/>
-      <c r="FC17" s="17"/>
-      <c r="FD17" s="17"/>
-      <c r="FE17" s="17"/>
-      <c r="FF17" s="17"/>
-      <c r="FG17" s="17"/>
-      <c r="FH17" s="17"/>
-      <c r="FI17" s="17"/>
-      <c r="FJ17" s="17"/>
-      <c r="FK17" s="17"/>
-      <c r="FL17" s="17"/>
-      <c r="FM17" s="17"/>
-      <c r="FN17" s="17"/>
-      <c r="FO17" s="17"/>
-      <c r="FP17" s="17"/>
-      <c r="FQ17" s="17"/>
-      <c r="FR17" s="17"/>
-      <c r="FS17" s="17"/>
-      <c r="FT17" s="17"/>
-      <c r="FU17" s="17"/>
-      <c r="FV17" s="17"/>
-      <c r="FW17" s="17"/>
-      <c r="FX17" s="17"/>
-      <c r="FY17" s="17"/>
-      <c r="FZ17" s="17"/>
-      <c r="GA17" s="17"/>
-      <c r="GB17" s="17"/>
-      <c r="GC17" s="17"/>
-      <c r="GD17" s="17"/>
-      <c r="GE17" s="17"/>
-      <c r="GF17" s="17"/>
-      <c r="GG17" s="17"/>
-      <c r="GH17" s="17"/>
-      <c r="GI17" s="17"/>
-      <c r="GJ17" s="17"/>
-      <c r="GK17" s="17"/>
-      <c r="GL17" s="17"/>
-      <c r="GM17" s="17"/>
-      <c r="GN17" s="17"/>
-      <c r="GO17" s="17"/>
-      <c r="GP17" s="17"/>
-      <c r="GQ17" s="17"/>
-      <c r="GR17" s="17"/>
-      <c r="GS17" s="17"/>
-      <c r="GT17" s="17"/>
-      <c r="GU17" s="17"/>
-      <c r="GV17" s="17"/>
-      <c r="GW17" s="17"/>
-      <c r="GX17" s="17"/>
-      <c r="GY17" s="17"/>
-      <c r="GZ17" s="17"/>
-      <c r="HA17" s="17"/>
-      <c r="HB17" s="17"/>
-      <c r="HC17" s="17"/>
-      <c r="HD17" s="17"/>
-      <c r="HE17" s="17"/>
-      <c r="HF17" s="17"/>
-      <c r="HG17" s="17"/>
-      <c r="HH17" s="17"/>
-      <c r="HI17" s="17"/>
-      <c r="HJ17" s="17"/>
-      <c r="HK17" s="17"/>
-      <c r="HL17" s="17"/>
-      <c r="HM17" s="17"/>
-      <c r="HN17" s="17"/>
-      <c r="HO17" s="17"/>
-      <c r="HP17" s="17"/>
-      <c r="HQ17" s="17"/>
-      <c r="HR17" s="17"/>
-      <c r="HS17" s="17"/>
-      <c r="HT17" s="17"/>
-      <c r="HU17" s="17"/>
-      <c r="HV17" s="17"/>
-      <c r="HW17" s="17"/>
-      <c r="HX17" s="17"/>
-      <c r="HY17" s="17"/>
-      <c r="HZ17" s="17"/>
-      <c r="IA17" s="17"/>
-      <c r="IB17" s="17"/>
-      <c r="IC17" s="17"/>
-      <c r="ID17" s="17"/>
-      <c r="IE17" s="17"/>
-      <c r="IF17" s="17"/>
-      <c r="IG17" s="17"/>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="17"/>
-      <c r="IJ17" s="17"/>
-      <c r="IK17" s="17"/>
-      <c r="IL17" s="17"/>
-      <c r="IM17" s="17"/>
-      <c r="IN17" s="17"/>
-      <c r="IO17" s="17"/>
-      <c r="IP17" s="17"/>
-      <c r="IQ17" s="17"/>
-      <c r="IR17" s="17"/>
-      <c r="IS17" s="17"/>
-      <c r="IT17" s="17"/>
-      <c r="IU17" s="17"/>
-      <c r="IV17" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="17"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="17"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="17"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="17"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="17"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="17"/>
+      <c r="CU21" s="17"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="17"/>
+      <c r="CX21" s="17"/>
+      <c r="CY21" s="17"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="17"/>
+      <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="17"/>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
+      <c r="EA21" s="17"/>
+      <c r="EB21" s="17"/>
+      <c r="EC21" s="17"/>
+      <c r="ED21" s="17"/>
+      <c r="EE21" s="17"/>
+      <c r="EF21" s="17"/>
+      <c r="EG21" s="17"/>
+      <c r="EH21" s="17"/>
+      <c r="EI21" s="17"/>
+      <c r="EJ21" s="17"/>
+      <c r="EK21" s="17"/>
+      <c r="EL21" s="17"/>
+      <c r="EM21" s="17"/>
+      <c r="EN21" s="17"/>
+      <c r="EO21" s="17"/>
+      <c r="EP21" s="17"/>
+      <c r="EQ21" s="17"/>
+      <c r="ER21" s="17"/>
+      <c r="ES21" s="17"/>
+      <c r="ET21" s="17"/>
+      <c r="EU21" s="17"/>
+      <c r="EV21" s="17"/>
+      <c r="EW21" s="17"/>
+      <c r="EX21" s="17"/>
+      <c r="EY21" s="17"/>
+      <c r="EZ21" s="17"/>
+      <c r="FA21" s="17"/>
+      <c r="FB21" s="17"/>
+      <c r="FC21" s="17"/>
+      <c r="FD21" s="17"/>
+      <c r="FE21" s="17"/>
+      <c r="FF21" s="17"/>
+      <c r="FG21" s="17"/>
+      <c r="FH21" s="17"/>
+      <c r="FI21" s="17"/>
+      <c r="FJ21" s="17"/>
+      <c r="FK21" s="17"/>
+      <c r="FL21" s="17"/>
+      <c r="FM21" s="17"/>
+      <c r="FN21" s="17"/>
+      <c r="FO21" s="17"/>
+      <c r="FP21" s="17"/>
+      <c r="FQ21" s="17"/>
+      <c r="FR21" s="17"/>
+      <c r="FS21" s="17"/>
+      <c r="FT21" s="17"/>
+      <c r="FU21" s="17"/>
+      <c r="FV21" s="17"/>
+      <c r="FW21" s="17"/>
+      <c r="FX21" s="17"/>
+      <c r="FY21" s="17"/>
+      <c r="FZ21" s="17"/>
+      <c r="GA21" s="17"/>
+      <c r="GB21" s="17"/>
+      <c r="GC21" s="17"/>
+      <c r="GD21" s="17"/>
+      <c r="GE21" s="17"/>
+      <c r="GF21" s="17"/>
+      <c r="GG21" s="17"/>
+      <c r="GH21" s="17"/>
+      <c r="GI21" s="17"/>
+      <c r="GJ21" s="17"/>
+      <c r="GK21" s="17"/>
+      <c r="GL21" s="17"/>
+      <c r="GM21" s="17"/>
+      <c r="GN21" s="17"/>
+      <c r="GO21" s="17"/>
+      <c r="GP21" s="17"/>
+      <c r="GQ21" s="17"/>
+      <c r="GR21" s="17"/>
+      <c r="GS21" s="17"/>
+      <c r="GT21" s="17"/>
+      <c r="GU21" s="17"/>
+      <c r="GV21" s="17"/>
+      <c r="GW21" s="17"/>
+      <c r="GX21" s="17"/>
+      <c r="GY21" s="17"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="17"/>
+      <c r="HE21" s="17"/>
+      <c r="HF21" s="17"/>
+      <c r="HG21" s="17"/>
+      <c r="HH21" s="17"/>
+      <c r="HI21" s="17"/>
+      <c r="HJ21" s="17"/>
+      <c r="HK21" s="17"/>
+      <c r="HL21" s="17"/>
+      <c r="HM21" s="17"/>
+      <c r="HN21" s="17"/>
+      <c r="HO21" s="17"/>
+      <c r="HP21" s="17"/>
+      <c r="HQ21" s="17"/>
+      <c r="HR21" s="17"/>
+      <c r="HS21" s="17"/>
+      <c r="HT21" s="17"/>
+      <c r="HU21" s="17"/>
+      <c r="HV21" s="17"/>
+      <c r="HW21" s="17"/>
+      <c r="HX21" s="17"/>
+      <c r="HY21" s="17"/>
+      <c r="HZ21" s="17"/>
+      <c r="IA21" s="17"/>
+      <c r="IB21" s="17"/>
+      <c r="IC21" s="17"/>
+      <c r="ID21" s="17"/>
+      <c r="IE21" s="17"/>
+      <c r="IF21" s="17"/>
+      <c r="IG21" s="17"/>
+      <c r="IH21" s="17"/>
+      <c r="II21" s="17"/>
+      <c r="IJ21" s="17"/>
+      <c r="IK21" s="17"/>
+      <c r="IL21" s="17"/>
+      <c r="IM21" s="17"/>
+      <c r="IN21" s="17"/>
+      <c r="IO21" s="17"/>
+      <c r="IP21" s="17"/>
+      <c r="IQ21" s="17"/>
+      <c r="IR21" s="17"/>
+      <c r="IS21" s="17"/>
+      <c r="IT21" s="17"/>
+      <c r="IU21" s="17"/>
+      <c r="IV21" s="17"/>
     </row>
-    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="63" t="s">
+    <row r="22" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="17"/>
-      <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="17"/>
-      <c r="CI18" s="17"/>
-      <c r="CJ18" s="17"/>
-      <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="17"/>
-      <c r="CU18" s="17"/>
-      <c r="CV18" s="17"/>
-      <c r="CW18" s="17"/>
-      <c r="CX18" s="17"/>
-      <c r="CY18" s="17"/>
-      <c r="CZ18" s="17"/>
-      <c r="DA18" s="17"/>
-      <c r="DB18" s="17"/>
-      <c r="DC18" s="17"/>
-      <c r="DD18" s="17"/>
-      <c r="DE18" s="17"/>
-      <c r="DF18" s="17"/>
-      <c r="DG18" s="17"/>
-      <c r="DH18" s="17"/>
-      <c r="DI18" s="17"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="17"/>
-      <c r="DL18" s="17"/>
-      <c r="DM18" s="17"/>
-      <c r="DN18" s="17"/>
-      <c r="DO18" s="17"/>
-      <c r="DP18" s="17"/>
-      <c r="DQ18" s="17"/>
-      <c r="DR18" s="17"/>
-      <c r="DS18" s="17"/>
-      <c r="DT18" s="17"/>
-      <c r="DU18" s="17"/>
-      <c r="DV18" s="17"/>
-      <c r="DW18" s="17"/>
-      <c r="DX18" s="17"/>
-      <c r="DY18" s="17"/>
-      <c r="DZ18" s="17"/>
-      <c r="EA18" s="17"/>
-      <c r="EB18" s="17"/>
-      <c r="EC18" s="17"/>
-      <c r="ED18" s="17"/>
-      <c r="EE18" s="17"/>
-      <c r="EF18" s="17"/>
-      <c r="EG18" s="17"/>
-      <c r="EH18" s="17"/>
-      <c r="EI18" s="17"/>
-      <c r="EJ18" s="17"/>
-      <c r="EK18" s="17"/>
-      <c r="EL18" s="17"/>
-      <c r="EM18" s="17"/>
-      <c r="EN18" s="17"/>
-      <c r="EO18" s="17"/>
-      <c r="EP18" s="17"/>
-      <c r="EQ18" s="17"/>
-      <c r="ER18" s="17"/>
-      <c r="ES18" s="17"/>
-      <c r="ET18" s="17"/>
-      <c r="EU18" s="17"/>
-      <c r="EV18" s="17"/>
-      <c r="EW18" s="17"/>
-      <c r="EX18" s="17"/>
-      <c r="EY18" s="17"/>
-      <c r="EZ18" s="17"/>
-      <c r="FA18" s="17"/>
-      <c r="FB18" s="17"/>
-      <c r="FC18" s="17"/>
-      <c r="FD18" s="17"/>
-      <c r="FE18" s="17"/>
-      <c r="FF18" s="17"/>
-      <c r="FG18" s="17"/>
-      <c r="FH18" s="17"/>
-      <c r="FI18" s="17"/>
-      <c r="FJ18" s="17"/>
-      <c r="FK18" s="17"/>
-      <c r="FL18" s="17"/>
-      <c r="FM18" s="17"/>
-      <c r="FN18" s="17"/>
-      <c r="FO18" s="17"/>
-      <c r="FP18" s="17"/>
-      <c r="FQ18" s="17"/>
-      <c r="FR18" s="17"/>
-      <c r="FS18" s="17"/>
-      <c r="FT18" s="17"/>
-      <c r="FU18" s="17"/>
-      <c r="FV18" s="17"/>
-      <c r="FW18" s="17"/>
-      <c r="FX18" s="17"/>
-      <c r="FY18" s="17"/>
-      <c r="FZ18" s="17"/>
-      <c r="GA18" s="17"/>
-      <c r="GB18" s="17"/>
-      <c r="GC18" s="17"/>
-      <c r="GD18" s="17"/>
-      <c r="GE18" s="17"/>
-      <c r="GF18" s="17"/>
-      <c r="GG18" s="17"/>
-      <c r="GH18" s="17"/>
-      <c r="GI18" s="17"/>
-      <c r="GJ18" s="17"/>
-      <c r="GK18" s="17"/>
-      <c r="GL18" s="17"/>
-      <c r="GM18" s="17"/>
-      <c r="GN18" s="17"/>
-      <c r="GO18" s="17"/>
-      <c r="GP18" s="17"/>
-      <c r="GQ18" s="17"/>
-      <c r="GR18" s="17"/>
-      <c r="GS18" s="17"/>
-      <c r="GT18" s="17"/>
-      <c r="GU18" s="17"/>
-      <c r="GV18" s="17"/>
-      <c r="GW18" s="17"/>
-      <c r="GX18" s="17"/>
-      <c r="GY18" s="17"/>
-      <c r="GZ18" s="17"/>
-      <c r="HA18" s="17"/>
-      <c r="HB18" s="17"/>
-      <c r="HC18" s="17"/>
-      <c r="HD18" s="17"/>
-      <c r="HE18" s="17"/>
-      <c r="HF18" s="17"/>
-      <c r="HG18" s="17"/>
-      <c r="HH18" s="17"/>
-      <c r="HI18" s="17"/>
-      <c r="HJ18" s="17"/>
-      <c r="HK18" s="17"/>
-      <c r="HL18" s="17"/>
-      <c r="HM18" s="17"/>
-      <c r="HN18" s="17"/>
-      <c r="HO18" s="17"/>
-      <c r="HP18" s="17"/>
-      <c r="HQ18" s="17"/>
-      <c r="HR18" s="17"/>
-      <c r="HS18" s="17"/>
-      <c r="HT18" s="17"/>
-      <c r="HU18" s="17"/>
-      <c r="HV18" s="17"/>
-      <c r="HW18" s="17"/>
-      <c r="HX18" s="17"/>
-      <c r="HY18" s="17"/>
-      <c r="HZ18" s="17"/>
-      <c r="IA18" s="17"/>
-      <c r="IB18" s="17"/>
-      <c r="IC18" s="17"/>
-      <c r="ID18" s="17"/>
-      <c r="IE18" s="17"/>
-      <c r="IF18" s="17"/>
-      <c r="IG18" s="17"/>
-      <c r="IH18" s="17"/>
-      <c r="II18" s="17"/>
-      <c r="IJ18" s="17"/>
-      <c r="IK18" s="17"/>
-      <c r="IL18" s="17"/>
-      <c r="IM18" s="17"/>
-      <c r="IN18" s="17"/>
-      <c r="IO18" s="17"/>
-      <c r="IP18" s="17"/>
-      <c r="IQ18" s="17"/>
-      <c r="IR18" s="17"/>
-      <c r="IS18" s="17"/>
-      <c r="IT18" s="17"/>
-      <c r="IU18" s="17"/>
-      <c r="IV18" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="17"/>
+      <c r="CX22" s="17"/>
+      <c r="CY22" s="17"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="17"/>
+      <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="17"/>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
+      <c r="EA22" s="17"/>
+      <c r="EB22" s="17"/>
+      <c r="EC22" s="17"/>
+      <c r="ED22" s="17"/>
+      <c r="EE22" s="17"/>
+      <c r="EF22" s="17"/>
+      <c r="EG22" s="17"/>
+      <c r="EH22" s="17"/>
+      <c r="EI22" s="17"/>
+      <c r="EJ22" s="17"/>
+      <c r="EK22" s="17"/>
+      <c r="EL22" s="17"/>
+      <c r="EM22" s="17"/>
+      <c r="EN22" s="17"/>
+      <c r="EO22" s="17"/>
+      <c r="EP22" s="17"/>
+      <c r="EQ22" s="17"/>
+      <c r="ER22" s="17"/>
+      <c r="ES22" s="17"/>
+      <c r="ET22" s="17"/>
+      <c r="EU22" s="17"/>
+      <c r="EV22" s="17"/>
+      <c r="EW22" s="17"/>
+      <c r="EX22" s="17"/>
+      <c r="EY22" s="17"/>
+      <c r="EZ22" s="17"/>
+      <c r="FA22" s="17"/>
+      <c r="FB22" s="17"/>
+      <c r="FC22" s="17"/>
+      <c r="FD22" s="17"/>
+      <c r="FE22" s="17"/>
+      <c r="FF22" s="17"/>
+      <c r="FG22" s="17"/>
+      <c r="FH22" s="17"/>
+      <c r="FI22" s="17"/>
+      <c r="FJ22" s="17"/>
+      <c r="FK22" s="17"/>
+      <c r="FL22" s="17"/>
+      <c r="FM22" s="17"/>
+      <c r="FN22" s="17"/>
+      <c r="FO22" s="17"/>
+      <c r="FP22" s="17"/>
+      <c r="FQ22" s="17"/>
+      <c r="FR22" s="17"/>
+      <c r="FS22" s="17"/>
+      <c r="FT22" s="17"/>
+      <c r="FU22" s="17"/>
+      <c r="FV22" s="17"/>
+      <c r="FW22" s="17"/>
+      <c r="FX22" s="17"/>
+      <c r="FY22" s="17"/>
+      <c r="FZ22" s="17"/>
+      <c r="GA22" s="17"/>
+      <c r="GB22" s="17"/>
+      <c r="GC22" s="17"/>
+      <c r="GD22" s="17"/>
+      <c r="GE22" s="17"/>
+      <c r="GF22" s="17"/>
+      <c r="GG22" s="17"/>
+      <c r="GH22" s="17"/>
+      <c r="GI22" s="17"/>
+      <c r="GJ22" s="17"/>
+      <c r="GK22" s="17"/>
+      <c r="GL22" s="17"/>
+      <c r="GM22" s="17"/>
+      <c r="GN22" s="17"/>
+      <c r="GO22" s="17"/>
+      <c r="GP22" s="17"/>
+      <c r="GQ22" s="17"/>
+      <c r="GR22" s="17"/>
+      <c r="GS22" s="17"/>
+      <c r="GT22" s="17"/>
+      <c r="GU22" s="17"/>
+      <c r="GV22" s="17"/>
+      <c r="GW22" s="17"/>
+      <c r="GX22" s="17"/>
+      <c r="GY22" s="17"/>
+      <c r="GZ22" s="17"/>
+      <c r="HA22" s="17"/>
+      <c r="HB22" s="17"/>
+      <c r="HC22" s="17"/>
+      <c r="HD22" s="17"/>
+      <c r="HE22" s="17"/>
+      <c r="HF22" s="17"/>
+      <c r="HG22" s="17"/>
+      <c r="HH22" s="17"/>
+      <c r="HI22" s="17"/>
+      <c r="HJ22" s="17"/>
+      <c r="HK22" s="17"/>
+      <c r="HL22" s="17"/>
+      <c r="HM22" s="17"/>
+      <c r="HN22" s="17"/>
+      <c r="HO22" s="17"/>
+      <c r="HP22" s="17"/>
+      <c r="HQ22" s="17"/>
+      <c r="HR22" s="17"/>
+      <c r="HS22" s="17"/>
+      <c r="HT22" s="17"/>
+      <c r="HU22" s="17"/>
+      <c r="HV22" s="17"/>
+      <c r="HW22" s="17"/>
+      <c r="HX22" s="17"/>
+      <c r="HY22" s="17"/>
+      <c r="HZ22" s="17"/>
+      <c r="IA22" s="17"/>
+      <c r="IB22" s="17"/>
+      <c r="IC22" s="17"/>
+      <c r="ID22" s="17"/>
+      <c r="IE22" s="17"/>
+      <c r="IF22" s="17"/>
+      <c r="IG22" s="17"/>
+      <c r="IH22" s="17"/>
+      <c r="II22" s="17"/>
+      <c r="IJ22" s="17"/>
+      <c r="IK22" s="17"/>
+      <c r="IL22" s="17"/>
+      <c r="IM22" s="17"/>
+      <c r="IN22" s="17"/>
+      <c r="IO22" s="17"/>
+      <c r="IP22" s="17"/>
+      <c r="IQ22" s="17"/>
+      <c r="IR22" s="17"/>
+      <c r="IS22" s="17"/>
+      <c r="IT22" s="17"/>
+      <c r="IU22" s="17"/>
+      <c r="IV22" s="17"/>
     </row>
-    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+    <row r="23" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="17"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
-      <c r="BR19" s="17"/>
-      <c r="BS19" s="17"/>
-      <c r="BT19" s="17"/>
-      <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
-      <c r="BW19" s="17"/>
-      <c r="BX19" s="17"/>
-      <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
-      <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
-      <c r="CI19" s="17"/>
-      <c r="CJ19" s="17"/>
-      <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="17"/>
-      <c r="CU19" s="17"/>
-      <c r="CV19" s="17"/>
-      <c r="CW19" s="17"/>
-      <c r="CX19" s="17"/>
-      <c r="CY19" s="17"/>
-      <c r="CZ19" s="17"/>
-      <c r="DA19" s="17"/>
-      <c r="DB19" s="17"/>
-      <c r="DC19" s="17"/>
-      <c r="DD19" s="17"/>
-      <c r="DE19" s="17"/>
-      <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DP19" s="17"/>
-      <c r="DQ19" s="17"/>
-      <c r="DR19" s="17"/>
-      <c r="DS19" s="17"/>
-      <c r="DT19" s="17"/>
-      <c r="DU19" s="17"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
-      <c r="DX19" s="17"/>
-      <c r="DY19" s="17"/>
-      <c r="DZ19" s="17"/>
-      <c r="EA19" s="17"/>
-      <c r="EB19" s="17"/>
-      <c r="EC19" s="17"/>
-      <c r="ED19" s="17"/>
-      <c r="EE19" s="17"/>
-      <c r="EF19" s="17"/>
-      <c r="EG19" s="17"/>
-      <c r="EH19" s="17"/>
-      <c r="EI19" s="17"/>
-      <c r="EJ19" s="17"/>
-      <c r="EK19" s="17"/>
-      <c r="EL19" s="17"/>
-      <c r="EM19" s="17"/>
-      <c r="EN19" s="17"/>
-      <c r="EO19" s="17"/>
-      <c r="EP19" s="17"/>
-      <c r="EQ19" s="17"/>
-      <c r="ER19" s="17"/>
-      <c r="ES19" s="17"/>
-      <c r="ET19" s="17"/>
-      <c r="EU19" s="17"/>
-      <c r="EV19" s="17"/>
-      <c r="EW19" s="17"/>
-      <c r="EX19" s="17"/>
-      <c r="EY19" s="17"/>
-      <c r="EZ19" s="17"/>
-      <c r="FA19" s="17"/>
-      <c r="FB19" s="17"/>
-      <c r="FC19" s="17"/>
-      <c r="FD19" s="17"/>
-      <c r="FE19" s="17"/>
-      <c r="FF19" s="17"/>
-      <c r="FG19" s="17"/>
-      <c r="FH19" s="17"/>
-      <c r="FI19" s="17"/>
-      <c r="FJ19" s="17"/>
-      <c r="FK19" s="17"/>
-      <c r="FL19" s="17"/>
-      <c r="FM19" s="17"/>
-      <c r="FN19" s="17"/>
-      <c r="FO19" s="17"/>
-      <c r="FP19" s="17"/>
-      <c r="FQ19" s="17"/>
-      <c r="FR19" s="17"/>
-      <c r="FS19" s="17"/>
-      <c r="FT19" s="17"/>
-      <c r="FU19" s="17"/>
-      <c r="FV19" s="17"/>
-      <c r="FW19" s="17"/>
-      <c r="FX19" s="17"/>
-      <c r="FY19" s="17"/>
-      <c r="FZ19" s="17"/>
-      <c r="GA19" s="17"/>
-      <c r="GB19" s="17"/>
-      <c r="GC19" s="17"/>
-      <c r="GD19" s="17"/>
-      <c r="GE19" s="17"/>
-      <c r="GF19" s="17"/>
-      <c r="GG19" s="17"/>
-      <c r="GH19" s="17"/>
-      <c r="GI19" s="17"/>
-      <c r="GJ19" s="17"/>
-      <c r="GK19" s="17"/>
-      <c r="GL19" s="17"/>
-      <c r="GM19" s="17"/>
-      <c r="GN19" s="17"/>
-      <c r="GO19" s="17"/>
-      <c r="GP19" s="17"/>
-      <c r="GQ19" s="17"/>
-      <c r="GR19" s="17"/>
-      <c r="GS19" s="17"/>
-      <c r="GT19" s="17"/>
-      <c r="GU19" s="17"/>
-      <c r="GV19" s="17"/>
-      <c r="GW19" s="17"/>
-      <c r="GX19" s="17"/>
-      <c r="GY19" s="17"/>
-      <c r="GZ19" s="17"/>
-      <c r="HA19" s="17"/>
-      <c r="HB19" s="17"/>
-      <c r="HC19" s="17"/>
-      <c r="HD19" s="17"/>
-      <c r="HE19" s="17"/>
-      <c r="HF19" s="17"/>
-      <c r="HG19" s="17"/>
-      <c r="HH19" s="17"/>
-      <c r="HI19" s="17"/>
-      <c r="HJ19" s="17"/>
-      <c r="HK19" s="17"/>
-      <c r="HL19" s="17"/>
-      <c r="HM19" s="17"/>
-      <c r="HN19" s="17"/>
-      <c r="HO19" s="17"/>
-      <c r="HP19" s="17"/>
-      <c r="HQ19" s="17"/>
-      <c r="HR19" s="17"/>
-      <c r="HS19" s="17"/>
-      <c r="HT19" s="17"/>
-      <c r="HU19" s="17"/>
-      <c r="HV19" s="17"/>
-      <c r="HW19" s="17"/>
-      <c r="HX19" s="17"/>
-      <c r="HY19" s="17"/>
-      <c r="HZ19" s="17"/>
-      <c r="IA19" s="17"/>
-      <c r="IB19" s="17"/>
-      <c r="IC19" s="17"/>
-      <c r="ID19" s="17"/>
-      <c r="IE19" s="17"/>
-      <c r="IF19" s="17"/>
-      <c r="IG19" s="17"/>
-      <c r="IH19" s="17"/>
-      <c r="II19" s="17"/>
-      <c r="IJ19" s="17"/>
-      <c r="IK19" s="17"/>
-      <c r="IL19" s="17"/>
-      <c r="IM19" s="17"/>
-      <c r="IN19" s="17"/>
-      <c r="IO19" s="17"/>
-      <c r="IP19" s="17"/>
-      <c r="IQ19" s="17"/>
-      <c r="IR19" s="17"/>
-      <c r="IS19" s="17"/>
-      <c r="IT19" s="17"/>
-      <c r="IU19" s="17"/>
-      <c r="IV19" s="17"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="17"/>
+      <c r="CQ23" s="17"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="17"/>
+      <c r="CT23" s="17"/>
+      <c r="CU23" s="17"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="17"/>
+      <c r="CX23" s="17"/>
+      <c r="CY23" s="17"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="17"/>
+      <c r="DB23" s="17"/>
+      <c r="DC23" s="17"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="17"/>
+      <c r="DF23" s="17"/>
+      <c r="DG23" s="17"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="17"/>
+      <c r="DJ23" s="17"/>
+      <c r="DK23" s="17"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
+      <c r="DN23" s="17"/>
+      <c r="DO23" s="17"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
+      <c r="EA23" s="17"/>
+      <c r="EB23" s="17"/>
+      <c r="EC23" s="17"/>
+      <c r="ED23" s="17"/>
+      <c r="EE23" s="17"/>
+      <c r="EF23" s="17"/>
+      <c r="EG23" s="17"/>
+      <c r="EH23" s="17"/>
+      <c r="EI23" s="17"/>
+      <c r="EJ23" s="17"/>
+      <c r="EK23" s="17"/>
+      <c r="EL23" s="17"/>
+      <c r="EM23" s="17"/>
+      <c r="EN23" s="17"/>
+      <c r="EO23" s="17"/>
+      <c r="EP23" s="17"/>
+      <c r="EQ23" s="17"/>
+      <c r="ER23" s="17"/>
+      <c r="ES23" s="17"/>
+      <c r="ET23" s="17"/>
+      <c r="EU23" s="17"/>
+      <c r="EV23" s="17"/>
+      <c r="EW23" s="17"/>
+      <c r="EX23" s="17"/>
+      <c r="EY23" s="17"/>
+      <c r="EZ23" s="17"/>
+      <c r="FA23" s="17"/>
+      <c r="FB23" s="17"/>
+      <c r="FC23" s="17"/>
+      <c r="FD23" s="17"/>
+      <c r="FE23" s="17"/>
+      <c r="FF23" s="17"/>
+      <c r="FG23" s="17"/>
+      <c r="FH23" s="17"/>
+      <c r="FI23" s="17"/>
+      <c r="FJ23" s="17"/>
+      <c r="FK23" s="17"/>
+      <c r="FL23" s="17"/>
+      <c r="FM23" s="17"/>
+      <c r="FN23" s="17"/>
+      <c r="FO23" s="17"/>
+      <c r="FP23" s="17"/>
+      <c r="FQ23" s="17"/>
+      <c r="FR23" s="17"/>
+      <c r="FS23" s="17"/>
+      <c r="FT23" s="17"/>
+      <c r="FU23" s="17"/>
+      <c r="FV23" s="17"/>
+      <c r="FW23" s="17"/>
+      <c r="FX23" s="17"/>
+      <c r="FY23" s="17"/>
+      <c r="FZ23" s="17"/>
+      <c r="GA23" s="17"/>
+      <c r="GB23" s="17"/>
+      <c r="GC23" s="17"/>
+      <c r="GD23" s="17"/>
+      <c r="GE23" s="17"/>
+      <c r="GF23" s="17"/>
+      <c r="GG23" s="17"/>
+      <c r="GH23" s="17"/>
+      <c r="GI23" s="17"/>
+      <c r="GJ23" s="17"/>
+      <c r="GK23" s="17"/>
+      <c r="GL23" s="17"/>
+      <c r="GM23" s="17"/>
+      <c r="GN23" s="17"/>
+      <c r="GO23" s="17"/>
+      <c r="GP23" s="17"/>
+      <c r="GQ23" s="17"/>
+      <c r="GR23" s="17"/>
+      <c r="GS23" s="17"/>
+      <c r="GT23" s="17"/>
+      <c r="GU23" s="17"/>
+      <c r="GV23" s="17"/>
+      <c r="GW23" s="17"/>
+      <c r="GX23" s="17"/>
+      <c r="GY23" s="17"/>
+      <c r="GZ23" s="17"/>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="17"/>
+      <c r="HE23" s="17"/>
+      <c r="HF23" s="17"/>
+      <c r="HG23" s="17"/>
+      <c r="HH23" s="17"/>
+      <c r="HI23" s="17"/>
+      <c r="HJ23" s="17"/>
+      <c r="HK23" s="17"/>
+      <c r="HL23" s="17"/>
+      <c r="HM23" s="17"/>
+      <c r="HN23" s="17"/>
+      <c r="HO23" s="17"/>
+      <c r="HP23" s="17"/>
+      <c r="HQ23" s="17"/>
+      <c r="HR23" s="17"/>
+      <c r="HS23" s="17"/>
+      <c r="HT23" s="17"/>
+      <c r="HU23" s="17"/>
+      <c r="HV23" s="17"/>
+      <c r="HW23" s="17"/>
+      <c r="HX23" s="17"/>
+      <c r="HY23" s="17"/>
+      <c r="HZ23" s="17"/>
+      <c r="IA23" s="17"/>
+      <c r="IB23" s="17"/>
+      <c r="IC23" s="17"/>
+      <c r="ID23" s="17"/>
+      <c r="IE23" s="17"/>
+      <c r="IF23" s="17"/>
+      <c r="IG23" s="17"/>
+      <c r="IH23" s="17"/>
+      <c r="II23" s="17"/>
+      <c r="IJ23" s="17"/>
+      <c r="IK23" s="17"/>
+      <c r="IL23" s="17"/>
+      <c r="IM23" s="17"/>
+      <c r="IN23" s="17"/>
+      <c r="IO23" s="17"/>
+      <c r="IP23" s="17"/>
+      <c r="IQ23" s="17"/>
+      <c r="IR23" s="17"/>
+      <c r="IS23" s="17"/>
+      <c r="IT23" s="17"/>
+      <c r="IU23" s="17"/>
+      <c r="IV23" s="17"/>
     </row>
-    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="17"/>
-      <c r="CS20" s="17"/>
-      <c r="CT20" s="17"/>
-      <c r="CU20" s="17"/>
-      <c r="CV20" s="17"/>
-      <c r="CW20" s="17"/>
-      <c r="CX20" s="17"/>
-      <c r="CY20" s="17"/>
-      <c r="CZ20" s="17"/>
-      <c r="DA20" s="17"/>
-      <c r="DB20" s="17"/>
-      <c r="DC20" s="17"/>
-      <c r="DD20" s="17"/>
-      <c r="DE20" s="17"/>
-      <c r="DF20" s="17"/>
-      <c r="DG20" s="17"/>
-      <c r="DH20" s="17"/>
-      <c r="DI20" s="17"/>
-      <c r="DJ20" s="17"/>
-      <c r="DK20" s="17"/>
-      <c r="DL20" s="17"/>
-      <c r="DM20" s="17"/>
-      <c r="DN20" s="17"/>
-      <c r="DO20" s="17"/>
-      <c r="DP20" s="17"/>
-      <c r="DQ20" s="17"/>
-      <c r="DR20" s="17"/>
-      <c r="DS20" s="17"/>
-      <c r="DT20" s="17"/>
-      <c r="DU20" s="17"/>
-      <c r="DV20" s="17"/>
-      <c r="DW20" s="17"/>
-      <c r="DX20" s="17"/>
-      <c r="DY20" s="17"/>
-      <c r="DZ20" s="17"/>
-      <c r="EA20" s="17"/>
-      <c r="EB20" s="17"/>
-      <c r="EC20" s="17"/>
-      <c r="ED20" s="17"/>
-      <c r="EE20" s="17"/>
-      <c r="EF20" s="17"/>
-      <c r="EG20" s="17"/>
-      <c r="EH20" s="17"/>
-      <c r="EI20" s="17"/>
-      <c r="EJ20" s="17"/>
-      <c r="EK20" s="17"/>
-      <c r="EL20" s="17"/>
-      <c r="EM20" s="17"/>
-      <c r="EN20" s="17"/>
-      <c r="EO20" s="17"/>
-      <c r="EP20" s="17"/>
-      <c r="EQ20" s="17"/>
-      <c r="ER20" s="17"/>
-      <c r="ES20" s="17"/>
-      <c r="ET20" s="17"/>
-      <c r="EU20" s="17"/>
-      <c r="EV20" s="17"/>
-      <c r="EW20" s="17"/>
-      <c r="EX20" s="17"/>
-      <c r="EY20" s="17"/>
-      <c r="EZ20" s="17"/>
-      <c r="FA20" s="17"/>
-      <c r="FB20" s="17"/>
-      <c r="FC20" s="17"/>
-      <c r="FD20" s="17"/>
-      <c r="FE20" s="17"/>
-      <c r="FF20" s="17"/>
-      <c r="FG20" s="17"/>
-      <c r="FH20" s="17"/>
-      <c r="FI20" s="17"/>
-      <c r="FJ20" s="17"/>
-      <c r="FK20" s="17"/>
-      <c r="FL20" s="17"/>
-      <c r="FM20" s="17"/>
-      <c r="FN20" s="17"/>
-      <c r="FO20" s="17"/>
-      <c r="FP20" s="17"/>
-      <c r="FQ20" s="17"/>
-      <c r="FR20" s="17"/>
-      <c r="FS20" s="17"/>
-      <c r="FT20" s="17"/>
-      <c r="FU20" s="17"/>
-      <c r="FV20" s="17"/>
-      <c r="FW20" s="17"/>
-      <c r="FX20" s="17"/>
-      <c r="FY20" s="17"/>
-      <c r="FZ20" s="17"/>
-      <c r="GA20" s="17"/>
-      <c r="GB20" s="17"/>
-      <c r="GC20" s="17"/>
-      <c r="GD20" s="17"/>
-      <c r="GE20" s="17"/>
-      <c r="GF20" s="17"/>
-      <c r="GG20" s="17"/>
-      <c r="GH20" s="17"/>
-      <c r="GI20" s="17"/>
-      <c r="GJ20" s="17"/>
-      <c r="GK20" s="17"/>
-      <c r="GL20" s="17"/>
-      <c r="GM20" s="17"/>
-      <c r="GN20" s="17"/>
-      <c r="GO20" s="17"/>
-      <c r="GP20" s="17"/>
-      <c r="GQ20" s="17"/>
-      <c r="GR20" s="17"/>
-      <c r="GS20" s="17"/>
-      <c r="GT20" s="17"/>
-      <c r="GU20" s="17"/>
-      <c r="GV20" s="17"/>
-      <c r="GW20" s="17"/>
-      <c r="GX20" s="17"/>
-      <c r="GY20" s="17"/>
-      <c r="GZ20" s="17"/>
-      <c r="HA20" s="17"/>
-      <c r="HB20" s="17"/>
-      <c r="HC20" s="17"/>
-      <c r="HD20" s="17"/>
-      <c r="HE20" s="17"/>
-      <c r="HF20" s="17"/>
-      <c r="HG20" s="17"/>
-      <c r="HH20" s="17"/>
-      <c r="HI20" s="17"/>
-      <c r="HJ20" s="17"/>
-      <c r="HK20" s="17"/>
-      <c r="HL20" s="17"/>
-      <c r="HM20" s="17"/>
-      <c r="HN20" s="17"/>
-      <c r="HO20" s="17"/>
-      <c r="HP20" s="17"/>
-      <c r="HQ20" s="17"/>
-      <c r="HR20" s="17"/>
-      <c r="HS20" s="17"/>
-      <c r="HT20" s="17"/>
-      <c r="HU20" s="17"/>
-      <c r="HV20" s="17"/>
-      <c r="HW20" s="17"/>
-      <c r="HX20" s="17"/>
-      <c r="HY20" s="17"/>
-      <c r="HZ20" s="17"/>
-      <c r="IA20" s="17"/>
-      <c r="IB20" s="17"/>
-      <c r="IC20" s="17"/>
-      <c r="ID20" s="17"/>
-      <c r="IE20" s="17"/>
-      <c r="IF20" s="17"/>
-      <c r="IG20" s="17"/>
-      <c r="IH20" s="17"/>
-      <c r="II20" s="17"/>
-      <c r="IJ20" s="17"/>
-      <c r="IK20" s="17"/>
-      <c r="IL20" s="17"/>
-      <c r="IM20" s="17"/>
-      <c r="IN20" s="17"/>
-      <c r="IO20" s="17"/>
-      <c r="IP20" s="17"/>
-      <c r="IQ20" s="17"/>
-      <c r="IR20" s="17"/>
-      <c r="IS20" s="17"/>
-      <c r="IT20" s="17"/>
-      <c r="IU20" s="17"/>
-      <c r="IV20" s="17"/>
-    </row>
-    <row r="21" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="24" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="94"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="17"/>
+      <c r="CU24" s="17"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="17"/>
+      <c r="CX24" s="17"/>
+      <c r="CY24" s="17"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="17"/>
+      <c r="DB24" s="17"/>
+      <c r="DC24" s="17"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="17"/>
+      <c r="DF24" s="17"/>
+      <c r="DG24" s="17"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="17"/>
+      <c r="DJ24" s="17"/>
+      <c r="DK24" s="17"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
+      <c r="DN24" s="17"/>
+      <c r="DO24" s="17"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="17"/>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
+      <c r="EA24" s="17"/>
+      <c r="EB24" s="17"/>
+      <c r="EC24" s="17"/>
+      <c r="ED24" s="17"/>
+      <c r="EE24" s="17"/>
+      <c r="EF24" s="17"/>
+      <c r="EG24" s="17"/>
+      <c r="EH24" s="17"/>
+      <c r="EI24" s="17"/>
+      <c r="EJ24" s="17"/>
+      <c r="EK24" s="17"/>
+      <c r="EL24" s="17"/>
+      <c r="EM24" s="17"/>
+      <c r="EN24" s="17"/>
+      <c r="EO24" s="17"/>
+      <c r="EP24" s="17"/>
+      <c r="EQ24" s="17"/>
+      <c r="ER24" s="17"/>
+      <c r="ES24" s="17"/>
+      <c r="ET24" s="17"/>
+      <c r="EU24" s="17"/>
+      <c r="EV24" s="17"/>
+      <c r="EW24" s="17"/>
+      <c r="EX24" s="17"/>
+      <c r="EY24" s="17"/>
+      <c r="EZ24" s="17"/>
+      <c r="FA24" s="17"/>
+      <c r="FB24" s="17"/>
+      <c r="FC24" s="17"/>
+      <c r="FD24" s="17"/>
+      <c r="FE24" s="17"/>
+      <c r="FF24" s="17"/>
+      <c r="FG24" s="17"/>
+      <c r="FH24" s="17"/>
+      <c r="FI24" s="17"/>
+      <c r="FJ24" s="17"/>
+      <c r="FK24" s="17"/>
+      <c r="FL24" s="17"/>
+      <c r="FM24" s="17"/>
+      <c r="FN24" s="17"/>
+      <c r="FO24" s="17"/>
+      <c r="FP24" s="17"/>
+      <c r="FQ24" s="17"/>
+      <c r="FR24" s="17"/>
+      <c r="FS24" s="17"/>
+      <c r="FT24" s="17"/>
+      <c r="FU24" s="17"/>
+      <c r="FV24" s="17"/>
+      <c r="FW24" s="17"/>
+      <c r="FX24" s="17"/>
+      <c r="FY24" s="17"/>
+      <c r="FZ24" s="17"/>
+      <c r="GA24" s="17"/>
+      <c r="GB24" s="17"/>
+      <c r="GC24" s="17"/>
+      <c r="GD24" s="17"/>
+      <c r="GE24" s="17"/>
+      <c r="GF24" s="17"/>
+      <c r="GG24" s="17"/>
+      <c r="GH24" s="17"/>
+      <c r="GI24" s="17"/>
+      <c r="GJ24" s="17"/>
+      <c r="GK24" s="17"/>
+      <c r="GL24" s="17"/>
+      <c r="GM24" s="17"/>
+      <c r="GN24" s="17"/>
+      <c r="GO24" s="17"/>
+      <c r="GP24" s="17"/>
+      <c r="GQ24" s="17"/>
+      <c r="GR24" s="17"/>
+      <c r="GS24" s="17"/>
+      <c r="GT24" s="17"/>
+      <c r="GU24" s="17"/>
+      <c r="GV24" s="17"/>
+      <c r="GW24" s="17"/>
+      <c r="GX24" s="17"/>
+      <c r="GY24" s="17"/>
+      <c r="GZ24" s="17"/>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="17"/>
+      <c r="HE24" s="17"/>
+      <c r="HF24" s="17"/>
+      <c r="HG24" s="17"/>
+      <c r="HH24" s="17"/>
+      <c r="HI24" s="17"/>
+      <c r="HJ24" s="17"/>
+      <c r="HK24" s="17"/>
+      <c r="HL24" s="17"/>
+      <c r="HM24" s="17"/>
+      <c r="HN24" s="17"/>
+      <c r="HO24" s="17"/>
+      <c r="HP24" s="17"/>
+      <c r="HQ24" s="17"/>
+      <c r="HR24" s="17"/>
+      <c r="HS24" s="17"/>
+      <c r="HT24" s="17"/>
+      <c r="HU24" s="17"/>
+      <c r="HV24" s="17"/>
+      <c r="HW24" s="17"/>
+      <c r="HX24" s="17"/>
+      <c r="HY24" s="17"/>
+      <c r="HZ24" s="17"/>
+      <c r="IA24" s="17"/>
+      <c r="IB24" s="17"/>
+      <c r="IC24" s="17"/>
+      <c r="ID24" s="17"/>
+      <c r="IE24" s="17"/>
+      <c r="IF24" s="17"/>
+      <c r="IG24" s="17"/>
+      <c r="IH24" s="17"/>
+      <c r="II24" s="17"/>
+      <c r="IJ24" s="17"/>
+      <c r="IK24" s="17"/>
+      <c r="IL24" s="17"/>
+      <c r="IM24" s="17"/>
+      <c r="IN24" s="17"/>
+      <c r="IO24" s="17"/>
+      <c r="IP24" s="17"/>
+      <c r="IQ24" s="17"/>
+      <c r="IR24" s="17"/>
+      <c r="IS24" s="17"/>
+      <c r="IT24" s="17"/>
+      <c r="IU24" s="17"/>
+      <c r="IV24" s="17"/>
     </row>
     <row r="25" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -50384,1076 +50384,1076 @@
       <c r="IT16" s="5"/>
       <c r="IU16" s="5"/>
     </row>
-    <row r="17" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="21" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="17"/>
-      <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="17"/>
-      <c r="CI17" s="17"/>
-      <c r="CJ17" s="17"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="17"/>
-      <c r="CS17" s="17"/>
-      <c r="CT17" s="17"/>
-      <c r="CU17" s="17"/>
-      <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
-      <c r="CX17" s="17"/>
-      <c r="CY17" s="17"/>
-      <c r="CZ17" s="17"/>
-      <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
-      <c r="DC17" s="17"/>
-      <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DP17" s="17"/>
-      <c r="DQ17" s="17"/>
-      <c r="DR17" s="17"/>
-      <c r="DS17" s="17"/>
-      <c r="DT17" s="17"/>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
-      <c r="DW17" s="17"/>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
-      <c r="EA17" s="17"/>
-      <c r="EB17" s="17"/>
-      <c r="EC17" s="17"/>
-      <c r="ED17" s="17"/>
-      <c r="EE17" s="17"/>
-      <c r="EF17" s="17"/>
-      <c r="EG17" s="17"/>
-      <c r="EH17" s="17"/>
-      <c r="EI17" s="17"/>
-      <c r="EJ17" s="17"/>
-      <c r="EK17" s="17"/>
-      <c r="EL17" s="17"/>
-      <c r="EM17" s="17"/>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
-      <c r="EZ17" s="17"/>
-      <c r="FA17" s="17"/>
-      <c r="FB17" s="17"/>
-      <c r="FC17" s="17"/>
-      <c r="FD17" s="17"/>
-      <c r="FE17" s="17"/>
-      <c r="FF17" s="17"/>
-      <c r="FG17" s="17"/>
-      <c r="FH17" s="17"/>
-      <c r="FI17" s="17"/>
-      <c r="FJ17" s="17"/>
-      <c r="FK17" s="17"/>
-      <c r="FL17" s="17"/>
-      <c r="FM17" s="17"/>
-      <c r="FN17" s="17"/>
-      <c r="FO17" s="17"/>
-      <c r="FP17" s="17"/>
-      <c r="FQ17" s="17"/>
-      <c r="FR17" s="17"/>
-      <c r="FS17" s="17"/>
-      <c r="FT17" s="17"/>
-      <c r="FU17" s="17"/>
-      <c r="FV17" s="17"/>
-      <c r="FW17" s="17"/>
-      <c r="FX17" s="17"/>
-      <c r="FY17" s="17"/>
-      <c r="FZ17" s="17"/>
-      <c r="GA17" s="17"/>
-      <c r="GB17" s="17"/>
-      <c r="GC17" s="17"/>
-      <c r="GD17" s="17"/>
-      <c r="GE17" s="17"/>
-      <c r="GF17" s="17"/>
-      <c r="GG17" s="17"/>
-      <c r="GH17" s="17"/>
-      <c r="GI17" s="17"/>
-      <c r="GJ17" s="17"/>
-      <c r="GK17" s="17"/>
-      <c r="GL17" s="17"/>
-      <c r="GM17" s="17"/>
-      <c r="GN17" s="17"/>
-      <c r="GO17" s="17"/>
-      <c r="GP17" s="17"/>
-      <c r="GQ17" s="17"/>
-      <c r="GR17" s="17"/>
-      <c r="GS17" s="17"/>
-      <c r="GT17" s="17"/>
-      <c r="GU17" s="17"/>
-      <c r="GV17" s="17"/>
-      <c r="GW17" s="17"/>
-      <c r="GX17" s="17"/>
-      <c r="GY17" s="17"/>
-      <c r="GZ17" s="17"/>
-      <c r="HA17" s="17"/>
-      <c r="HB17" s="17"/>
-      <c r="HC17" s="17"/>
-      <c r="HD17" s="17"/>
-      <c r="HE17" s="17"/>
-      <c r="HF17" s="17"/>
-      <c r="HG17" s="17"/>
-      <c r="HH17" s="17"/>
-      <c r="HI17" s="17"/>
-      <c r="HJ17" s="17"/>
-      <c r="HK17" s="17"/>
-      <c r="HL17" s="17"/>
-      <c r="HM17" s="17"/>
-      <c r="HN17" s="17"/>
-      <c r="HO17" s="17"/>
-      <c r="HP17" s="17"/>
-      <c r="HQ17" s="17"/>
-      <c r="HR17" s="17"/>
-      <c r="HS17" s="17"/>
-      <c r="HT17" s="17"/>
-      <c r="HU17" s="17"/>
-      <c r="HV17" s="17"/>
-      <c r="HW17" s="17"/>
-      <c r="HX17" s="17"/>
-      <c r="HY17" s="17"/>
-      <c r="HZ17" s="17"/>
-      <c r="IA17" s="17"/>
-      <c r="IB17" s="17"/>
-      <c r="IC17" s="17"/>
-      <c r="ID17" s="17"/>
-      <c r="IE17" s="17"/>
-      <c r="IF17" s="17"/>
-      <c r="IG17" s="17"/>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="17"/>
-      <c r="IJ17" s="17"/>
-      <c r="IK17" s="17"/>
-      <c r="IL17" s="17"/>
-      <c r="IM17" s="17"/>
-      <c r="IN17" s="17"/>
-      <c r="IO17" s="17"/>
-      <c r="IP17" s="17"/>
-      <c r="IQ17" s="17"/>
-      <c r="IR17" s="17"/>
-      <c r="IS17" s="17"/>
-      <c r="IT17" s="17"/>
-      <c r="IU17" s="17"/>
-      <c r="IV17" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="17"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="17"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="17"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="17"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="17"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="17"/>
+      <c r="CU21" s="17"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="17"/>
+      <c r="CX21" s="17"/>
+      <c r="CY21" s="17"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="17"/>
+      <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="17"/>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
+      <c r="EA21" s="17"/>
+      <c r="EB21" s="17"/>
+      <c r="EC21" s="17"/>
+      <c r="ED21" s="17"/>
+      <c r="EE21" s="17"/>
+      <c r="EF21" s="17"/>
+      <c r="EG21" s="17"/>
+      <c r="EH21" s="17"/>
+      <c r="EI21" s="17"/>
+      <c r="EJ21" s="17"/>
+      <c r="EK21" s="17"/>
+      <c r="EL21" s="17"/>
+      <c r="EM21" s="17"/>
+      <c r="EN21" s="17"/>
+      <c r="EO21" s="17"/>
+      <c r="EP21" s="17"/>
+      <c r="EQ21" s="17"/>
+      <c r="ER21" s="17"/>
+      <c r="ES21" s="17"/>
+      <c r="ET21" s="17"/>
+      <c r="EU21" s="17"/>
+      <c r="EV21" s="17"/>
+      <c r="EW21" s="17"/>
+      <c r="EX21" s="17"/>
+      <c r="EY21" s="17"/>
+      <c r="EZ21" s="17"/>
+      <c r="FA21" s="17"/>
+      <c r="FB21" s="17"/>
+      <c r="FC21" s="17"/>
+      <c r="FD21" s="17"/>
+      <c r="FE21" s="17"/>
+      <c r="FF21" s="17"/>
+      <c r="FG21" s="17"/>
+      <c r="FH21" s="17"/>
+      <c r="FI21" s="17"/>
+      <c r="FJ21" s="17"/>
+      <c r="FK21" s="17"/>
+      <c r="FL21" s="17"/>
+      <c r="FM21" s="17"/>
+      <c r="FN21" s="17"/>
+      <c r="FO21" s="17"/>
+      <c r="FP21" s="17"/>
+      <c r="FQ21" s="17"/>
+      <c r="FR21" s="17"/>
+      <c r="FS21" s="17"/>
+      <c r="FT21" s="17"/>
+      <c r="FU21" s="17"/>
+      <c r="FV21" s="17"/>
+      <c r="FW21" s="17"/>
+      <c r="FX21" s="17"/>
+      <c r="FY21" s="17"/>
+      <c r="FZ21" s="17"/>
+      <c r="GA21" s="17"/>
+      <c r="GB21" s="17"/>
+      <c r="GC21" s="17"/>
+      <c r="GD21" s="17"/>
+      <c r="GE21" s="17"/>
+      <c r="GF21" s="17"/>
+      <c r="GG21" s="17"/>
+      <c r="GH21" s="17"/>
+      <c r="GI21" s="17"/>
+      <c r="GJ21" s="17"/>
+      <c r="GK21" s="17"/>
+      <c r="GL21" s="17"/>
+      <c r="GM21" s="17"/>
+      <c r="GN21" s="17"/>
+      <c r="GO21" s="17"/>
+      <c r="GP21" s="17"/>
+      <c r="GQ21" s="17"/>
+      <c r="GR21" s="17"/>
+      <c r="GS21" s="17"/>
+      <c r="GT21" s="17"/>
+      <c r="GU21" s="17"/>
+      <c r="GV21" s="17"/>
+      <c r="GW21" s="17"/>
+      <c r="GX21" s="17"/>
+      <c r="GY21" s="17"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="17"/>
+      <c r="HE21" s="17"/>
+      <c r="HF21" s="17"/>
+      <c r="HG21" s="17"/>
+      <c r="HH21" s="17"/>
+      <c r="HI21" s="17"/>
+      <c r="HJ21" s="17"/>
+      <c r="HK21" s="17"/>
+      <c r="HL21" s="17"/>
+      <c r="HM21" s="17"/>
+      <c r="HN21" s="17"/>
+      <c r="HO21" s="17"/>
+      <c r="HP21" s="17"/>
+      <c r="HQ21" s="17"/>
+      <c r="HR21" s="17"/>
+      <c r="HS21" s="17"/>
+      <c r="HT21" s="17"/>
+      <c r="HU21" s="17"/>
+      <c r="HV21" s="17"/>
+      <c r="HW21" s="17"/>
+      <c r="HX21" s="17"/>
+      <c r="HY21" s="17"/>
+      <c r="HZ21" s="17"/>
+      <c r="IA21" s="17"/>
+      <c r="IB21" s="17"/>
+      <c r="IC21" s="17"/>
+      <c r="ID21" s="17"/>
+      <c r="IE21" s="17"/>
+      <c r="IF21" s="17"/>
+      <c r="IG21" s="17"/>
+      <c r="IH21" s="17"/>
+      <c r="II21" s="17"/>
+      <c r="IJ21" s="17"/>
+      <c r="IK21" s="17"/>
+      <c r="IL21" s="17"/>
+      <c r="IM21" s="17"/>
+      <c r="IN21" s="17"/>
+      <c r="IO21" s="17"/>
+      <c r="IP21" s="17"/>
+      <c r="IQ21" s="17"/>
+      <c r="IR21" s="17"/>
+      <c r="IS21" s="17"/>
+      <c r="IT21" s="17"/>
+      <c r="IU21" s="17"/>
+      <c r="IV21" s="17"/>
     </row>
-    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="63" t="s">
+    <row r="22" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="17"/>
-      <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="17"/>
-      <c r="CI18" s="17"/>
-      <c r="CJ18" s="17"/>
-      <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="17"/>
-      <c r="CU18" s="17"/>
-      <c r="CV18" s="17"/>
-      <c r="CW18" s="17"/>
-      <c r="CX18" s="17"/>
-      <c r="CY18" s="17"/>
-      <c r="CZ18" s="17"/>
-      <c r="DA18" s="17"/>
-      <c r="DB18" s="17"/>
-      <c r="DC18" s="17"/>
-      <c r="DD18" s="17"/>
-      <c r="DE18" s="17"/>
-      <c r="DF18" s="17"/>
-      <c r="DG18" s="17"/>
-      <c r="DH18" s="17"/>
-      <c r="DI18" s="17"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="17"/>
-      <c r="DL18" s="17"/>
-      <c r="DM18" s="17"/>
-      <c r="DN18" s="17"/>
-      <c r="DO18" s="17"/>
-      <c r="DP18" s="17"/>
-      <c r="DQ18" s="17"/>
-      <c r="DR18" s="17"/>
-      <c r="DS18" s="17"/>
-      <c r="DT18" s="17"/>
-      <c r="DU18" s="17"/>
-      <c r="DV18" s="17"/>
-      <c r="DW18" s="17"/>
-      <c r="DX18" s="17"/>
-      <c r="DY18" s="17"/>
-      <c r="DZ18" s="17"/>
-      <c r="EA18" s="17"/>
-      <c r="EB18" s="17"/>
-      <c r="EC18" s="17"/>
-      <c r="ED18" s="17"/>
-      <c r="EE18" s="17"/>
-      <c r="EF18" s="17"/>
-      <c r="EG18" s="17"/>
-      <c r="EH18" s="17"/>
-      <c r="EI18" s="17"/>
-      <c r="EJ18" s="17"/>
-      <c r="EK18" s="17"/>
-      <c r="EL18" s="17"/>
-      <c r="EM18" s="17"/>
-      <c r="EN18" s="17"/>
-      <c r="EO18" s="17"/>
-      <c r="EP18" s="17"/>
-      <c r="EQ18" s="17"/>
-      <c r="ER18" s="17"/>
-      <c r="ES18" s="17"/>
-      <c r="ET18" s="17"/>
-      <c r="EU18" s="17"/>
-      <c r="EV18" s="17"/>
-      <c r="EW18" s="17"/>
-      <c r="EX18" s="17"/>
-      <c r="EY18" s="17"/>
-      <c r="EZ18" s="17"/>
-      <c r="FA18" s="17"/>
-      <c r="FB18" s="17"/>
-      <c r="FC18" s="17"/>
-      <c r="FD18" s="17"/>
-      <c r="FE18" s="17"/>
-      <c r="FF18" s="17"/>
-      <c r="FG18" s="17"/>
-      <c r="FH18" s="17"/>
-      <c r="FI18" s="17"/>
-      <c r="FJ18" s="17"/>
-      <c r="FK18" s="17"/>
-      <c r="FL18" s="17"/>
-      <c r="FM18" s="17"/>
-      <c r="FN18" s="17"/>
-      <c r="FO18" s="17"/>
-      <c r="FP18" s="17"/>
-      <c r="FQ18" s="17"/>
-      <c r="FR18" s="17"/>
-      <c r="FS18" s="17"/>
-      <c r="FT18" s="17"/>
-      <c r="FU18" s="17"/>
-      <c r="FV18" s="17"/>
-      <c r="FW18" s="17"/>
-      <c r="FX18" s="17"/>
-      <c r="FY18" s="17"/>
-      <c r="FZ18" s="17"/>
-      <c r="GA18" s="17"/>
-      <c r="GB18" s="17"/>
-      <c r="GC18" s="17"/>
-      <c r="GD18" s="17"/>
-      <c r="GE18" s="17"/>
-      <c r="GF18" s="17"/>
-      <c r="GG18" s="17"/>
-      <c r="GH18" s="17"/>
-      <c r="GI18" s="17"/>
-      <c r="GJ18" s="17"/>
-      <c r="GK18" s="17"/>
-      <c r="GL18" s="17"/>
-      <c r="GM18" s="17"/>
-      <c r="GN18" s="17"/>
-      <c r="GO18" s="17"/>
-      <c r="GP18" s="17"/>
-      <c r="GQ18" s="17"/>
-      <c r="GR18" s="17"/>
-      <c r="GS18" s="17"/>
-      <c r="GT18" s="17"/>
-      <c r="GU18" s="17"/>
-      <c r="GV18" s="17"/>
-      <c r="GW18" s="17"/>
-      <c r="GX18" s="17"/>
-      <c r="GY18" s="17"/>
-      <c r="GZ18" s="17"/>
-      <c r="HA18" s="17"/>
-      <c r="HB18" s="17"/>
-      <c r="HC18" s="17"/>
-      <c r="HD18" s="17"/>
-      <c r="HE18" s="17"/>
-      <c r="HF18" s="17"/>
-      <c r="HG18" s="17"/>
-      <c r="HH18" s="17"/>
-      <c r="HI18" s="17"/>
-      <c r="HJ18" s="17"/>
-      <c r="HK18" s="17"/>
-      <c r="HL18" s="17"/>
-      <c r="HM18" s="17"/>
-      <c r="HN18" s="17"/>
-      <c r="HO18" s="17"/>
-      <c r="HP18" s="17"/>
-      <c r="HQ18" s="17"/>
-      <c r="HR18" s="17"/>
-      <c r="HS18" s="17"/>
-      <c r="HT18" s="17"/>
-      <c r="HU18" s="17"/>
-      <c r="HV18" s="17"/>
-      <c r="HW18" s="17"/>
-      <c r="HX18" s="17"/>
-      <c r="HY18" s="17"/>
-      <c r="HZ18" s="17"/>
-      <c r="IA18" s="17"/>
-      <c r="IB18" s="17"/>
-      <c r="IC18" s="17"/>
-      <c r="ID18" s="17"/>
-      <c r="IE18" s="17"/>
-      <c r="IF18" s="17"/>
-      <c r="IG18" s="17"/>
-      <c r="IH18" s="17"/>
-      <c r="II18" s="17"/>
-      <c r="IJ18" s="17"/>
-      <c r="IK18" s="17"/>
-      <c r="IL18" s="17"/>
-      <c r="IM18" s="17"/>
-      <c r="IN18" s="17"/>
-      <c r="IO18" s="17"/>
-      <c r="IP18" s="17"/>
-      <c r="IQ18" s="17"/>
-      <c r="IR18" s="17"/>
-      <c r="IS18" s="17"/>
-      <c r="IT18" s="17"/>
-      <c r="IU18" s="17"/>
-      <c r="IV18" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="17"/>
+      <c r="CX22" s="17"/>
+      <c r="CY22" s="17"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="17"/>
+      <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="17"/>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
+      <c r="EA22" s="17"/>
+      <c r="EB22" s="17"/>
+      <c r="EC22" s="17"/>
+      <c r="ED22" s="17"/>
+      <c r="EE22" s="17"/>
+      <c r="EF22" s="17"/>
+      <c r="EG22" s="17"/>
+      <c r="EH22" s="17"/>
+      <c r="EI22" s="17"/>
+      <c r="EJ22" s="17"/>
+      <c r="EK22" s="17"/>
+      <c r="EL22" s="17"/>
+      <c r="EM22" s="17"/>
+      <c r="EN22" s="17"/>
+      <c r="EO22" s="17"/>
+      <c r="EP22" s="17"/>
+      <c r="EQ22" s="17"/>
+      <c r="ER22" s="17"/>
+      <c r="ES22" s="17"/>
+      <c r="ET22" s="17"/>
+      <c r="EU22" s="17"/>
+      <c r="EV22" s="17"/>
+      <c r="EW22" s="17"/>
+      <c r="EX22" s="17"/>
+      <c r="EY22" s="17"/>
+      <c r="EZ22" s="17"/>
+      <c r="FA22" s="17"/>
+      <c r="FB22" s="17"/>
+      <c r="FC22" s="17"/>
+      <c r="FD22" s="17"/>
+      <c r="FE22" s="17"/>
+      <c r="FF22" s="17"/>
+      <c r="FG22" s="17"/>
+      <c r="FH22" s="17"/>
+      <c r="FI22" s="17"/>
+      <c r="FJ22" s="17"/>
+      <c r="FK22" s="17"/>
+      <c r="FL22" s="17"/>
+      <c r="FM22" s="17"/>
+      <c r="FN22" s="17"/>
+      <c r="FO22" s="17"/>
+      <c r="FP22" s="17"/>
+      <c r="FQ22" s="17"/>
+      <c r="FR22" s="17"/>
+      <c r="FS22" s="17"/>
+      <c r="FT22" s="17"/>
+      <c r="FU22" s="17"/>
+      <c r="FV22" s="17"/>
+      <c r="FW22" s="17"/>
+      <c r="FX22" s="17"/>
+      <c r="FY22" s="17"/>
+      <c r="FZ22" s="17"/>
+      <c r="GA22" s="17"/>
+      <c r="GB22" s="17"/>
+      <c r="GC22" s="17"/>
+      <c r="GD22" s="17"/>
+      <c r="GE22" s="17"/>
+      <c r="GF22" s="17"/>
+      <c r="GG22" s="17"/>
+      <c r="GH22" s="17"/>
+      <c r="GI22" s="17"/>
+      <c r="GJ22" s="17"/>
+      <c r="GK22" s="17"/>
+      <c r="GL22" s="17"/>
+      <c r="GM22" s="17"/>
+      <c r="GN22" s="17"/>
+      <c r="GO22" s="17"/>
+      <c r="GP22" s="17"/>
+      <c r="GQ22" s="17"/>
+      <c r="GR22" s="17"/>
+      <c r="GS22" s="17"/>
+      <c r="GT22" s="17"/>
+      <c r="GU22" s="17"/>
+      <c r="GV22" s="17"/>
+      <c r="GW22" s="17"/>
+      <c r="GX22" s="17"/>
+      <c r="GY22" s="17"/>
+      <c r="GZ22" s="17"/>
+      <c r="HA22" s="17"/>
+      <c r="HB22" s="17"/>
+      <c r="HC22" s="17"/>
+      <c r="HD22" s="17"/>
+      <c r="HE22" s="17"/>
+      <c r="HF22" s="17"/>
+      <c r="HG22" s="17"/>
+      <c r="HH22" s="17"/>
+      <c r="HI22" s="17"/>
+      <c r="HJ22" s="17"/>
+      <c r="HK22" s="17"/>
+      <c r="HL22" s="17"/>
+      <c r="HM22" s="17"/>
+      <c r="HN22" s="17"/>
+      <c r="HO22" s="17"/>
+      <c r="HP22" s="17"/>
+      <c r="HQ22" s="17"/>
+      <c r="HR22" s="17"/>
+      <c r="HS22" s="17"/>
+      <c r="HT22" s="17"/>
+      <c r="HU22" s="17"/>
+      <c r="HV22" s="17"/>
+      <c r="HW22" s="17"/>
+      <c r="HX22" s="17"/>
+      <c r="HY22" s="17"/>
+      <c r="HZ22" s="17"/>
+      <c r="IA22" s="17"/>
+      <c r="IB22" s="17"/>
+      <c r="IC22" s="17"/>
+      <c r="ID22" s="17"/>
+      <c r="IE22" s="17"/>
+      <c r="IF22" s="17"/>
+      <c r="IG22" s="17"/>
+      <c r="IH22" s="17"/>
+      <c r="II22" s="17"/>
+      <c r="IJ22" s="17"/>
+      <c r="IK22" s="17"/>
+      <c r="IL22" s="17"/>
+      <c r="IM22" s="17"/>
+      <c r="IN22" s="17"/>
+      <c r="IO22" s="17"/>
+      <c r="IP22" s="17"/>
+      <c r="IQ22" s="17"/>
+      <c r="IR22" s="17"/>
+      <c r="IS22" s="17"/>
+      <c r="IT22" s="17"/>
+      <c r="IU22" s="17"/>
+      <c r="IV22" s="17"/>
     </row>
-    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+    <row r="23" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B23" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C23" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="17"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
-      <c r="BR19" s="17"/>
-      <c r="BS19" s="17"/>
-      <c r="BT19" s="17"/>
-      <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
-      <c r="BW19" s="17"/>
-      <c r="BX19" s="17"/>
-      <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
-      <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
-      <c r="CI19" s="17"/>
-      <c r="CJ19" s="17"/>
-      <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="17"/>
-      <c r="CU19" s="17"/>
-      <c r="CV19" s="17"/>
-      <c r="CW19" s="17"/>
-      <c r="CX19" s="17"/>
-      <c r="CY19" s="17"/>
-      <c r="CZ19" s="17"/>
-      <c r="DA19" s="17"/>
-      <c r="DB19" s="17"/>
-      <c r="DC19" s="17"/>
-      <c r="DD19" s="17"/>
-      <c r="DE19" s="17"/>
-      <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DP19" s="17"/>
-      <c r="DQ19" s="17"/>
-      <c r="DR19" s="17"/>
-      <c r="DS19" s="17"/>
-      <c r="DT19" s="17"/>
-      <c r="DU19" s="17"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
-      <c r="DX19" s="17"/>
-      <c r="DY19" s="17"/>
-      <c r="DZ19" s="17"/>
-      <c r="EA19" s="17"/>
-      <c r="EB19" s="17"/>
-      <c r="EC19" s="17"/>
-      <c r="ED19" s="17"/>
-      <c r="EE19" s="17"/>
-      <c r="EF19" s="17"/>
-      <c r="EG19" s="17"/>
-      <c r="EH19" s="17"/>
-      <c r="EI19" s="17"/>
-      <c r="EJ19" s="17"/>
-      <c r="EK19" s="17"/>
-      <c r="EL19" s="17"/>
-      <c r="EM19" s="17"/>
-      <c r="EN19" s="17"/>
-      <c r="EO19" s="17"/>
-      <c r="EP19" s="17"/>
-      <c r="EQ19" s="17"/>
-      <c r="ER19" s="17"/>
-      <c r="ES19" s="17"/>
-      <c r="ET19" s="17"/>
-      <c r="EU19" s="17"/>
-      <c r="EV19" s="17"/>
-      <c r="EW19" s="17"/>
-      <c r="EX19" s="17"/>
-      <c r="EY19" s="17"/>
-      <c r="EZ19" s="17"/>
-      <c r="FA19" s="17"/>
-      <c r="FB19" s="17"/>
-      <c r="FC19" s="17"/>
-      <c r="FD19" s="17"/>
-      <c r="FE19" s="17"/>
-      <c r="FF19" s="17"/>
-      <c r="FG19" s="17"/>
-      <c r="FH19" s="17"/>
-      <c r="FI19" s="17"/>
-      <c r="FJ19" s="17"/>
-      <c r="FK19" s="17"/>
-      <c r="FL19" s="17"/>
-      <c r="FM19" s="17"/>
-      <c r="FN19" s="17"/>
-      <c r="FO19" s="17"/>
-      <c r="FP19" s="17"/>
-      <c r="FQ19" s="17"/>
-      <c r="FR19" s="17"/>
-      <c r="FS19" s="17"/>
-      <c r="FT19" s="17"/>
-      <c r="FU19" s="17"/>
-      <c r="FV19" s="17"/>
-      <c r="FW19" s="17"/>
-      <c r="FX19" s="17"/>
-      <c r="FY19" s="17"/>
-      <c r="FZ19" s="17"/>
-      <c r="GA19" s="17"/>
-      <c r="GB19" s="17"/>
-      <c r="GC19" s="17"/>
-      <c r="GD19" s="17"/>
-      <c r="GE19" s="17"/>
-      <c r="GF19" s="17"/>
-      <c r="GG19" s="17"/>
-      <c r="GH19" s="17"/>
-      <c r="GI19" s="17"/>
-      <c r="GJ19" s="17"/>
-      <c r="GK19" s="17"/>
-      <c r="GL19" s="17"/>
-      <c r="GM19" s="17"/>
-      <c r="GN19" s="17"/>
-      <c r="GO19" s="17"/>
-      <c r="GP19" s="17"/>
-      <c r="GQ19" s="17"/>
-      <c r="GR19" s="17"/>
-      <c r="GS19" s="17"/>
-      <c r="GT19" s="17"/>
-      <c r="GU19" s="17"/>
-      <c r="GV19" s="17"/>
-      <c r="GW19" s="17"/>
-      <c r="GX19" s="17"/>
-      <c r="GY19" s="17"/>
-      <c r="GZ19" s="17"/>
-      <c r="HA19" s="17"/>
-      <c r="HB19" s="17"/>
-      <c r="HC19" s="17"/>
-      <c r="HD19" s="17"/>
-      <c r="HE19" s="17"/>
-      <c r="HF19" s="17"/>
-      <c r="HG19" s="17"/>
-      <c r="HH19" s="17"/>
-      <c r="HI19" s="17"/>
-      <c r="HJ19" s="17"/>
-      <c r="HK19" s="17"/>
-      <c r="HL19" s="17"/>
-      <c r="HM19" s="17"/>
-      <c r="HN19" s="17"/>
-      <c r="HO19" s="17"/>
-      <c r="HP19" s="17"/>
-      <c r="HQ19" s="17"/>
-      <c r="HR19" s="17"/>
-      <c r="HS19" s="17"/>
-      <c r="HT19" s="17"/>
-      <c r="HU19" s="17"/>
-      <c r="HV19" s="17"/>
-      <c r="HW19" s="17"/>
-      <c r="HX19" s="17"/>
-      <c r="HY19" s="17"/>
-      <c r="HZ19" s="17"/>
-      <c r="IA19" s="17"/>
-      <c r="IB19" s="17"/>
-      <c r="IC19" s="17"/>
-      <c r="ID19" s="17"/>
-      <c r="IE19" s="17"/>
-      <c r="IF19" s="17"/>
-      <c r="IG19" s="17"/>
-      <c r="IH19" s="17"/>
-      <c r="II19" s="17"/>
-      <c r="IJ19" s="17"/>
-      <c r="IK19" s="17"/>
-      <c r="IL19" s="17"/>
-      <c r="IM19" s="17"/>
-      <c r="IN19" s="17"/>
-      <c r="IO19" s="17"/>
-      <c r="IP19" s="17"/>
-      <c r="IQ19" s="17"/>
-      <c r="IR19" s="17"/>
-      <c r="IS19" s="17"/>
-      <c r="IT19" s="17"/>
-      <c r="IU19" s="17"/>
-      <c r="IV19" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="17"/>
+      <c r="CQ23" s="17"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="17"/>
+      <c r="CT23" s="17"/>
+      <c r="CU23" s="17"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="17"/>
+      <c r="CX23" s="17"/>
+      <c r="CY23" s="17"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="17"/>
+      <c r="DB23" s="17"/>
+      <c r="DC23" s="17"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="17"/>
+      <c r="DF23" s="17"/>
+      <c r="DG23" s="17"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="17"/>
+      <c r="DJ23" s="17"/>
+      <c r="DK23" s="17"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
+      <c r="DN23" s="17"/>
+      <c r="DO23" s="17"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
+      <c r="EA23" s="17"/>
+      <c r="EB23" s="17"/>
+      <c r="EC23" s="17"/>
+      <c r="ED23" s="17"/>
+      <c r="EE23" s="17"/>
+      <c r="EF23" s="17"/>
+      <c r="EG23" s="17"/>
+      <c r="EH23" s="17"/>
+      <c r="EI23" s="17"/>
+      <c r="EJ23" s="17"/>
+      <c r="EK23" s="17"/>
+      <c r="EL23" s="17"/>
+      <c r="EM23" s="17"/>
+      <c r="EN23" s="17"/>
+      <c r="EO23" s="17"/>
+      <c r="EP23" s="17"/>
+      <c r="EQ23" s="17"/>
+      <c r="ER23" s="17"/>
+      <c r="ES23" s="17"/>
+      <c r="ET23" s="17"/>
+      <c r="EU23" s="17"/>
+      <c r="EV23" s="17"/>
+      <c r="EW23" s="17"/>
+      <c r="EX23" s="17"/>
+      <c r="EY23" s="17"/>
+      <c r="EZ23" s="17"/>
+      <c r="FA23" s="17"/>
+      <c r="FB23" s="17"/>
+      <c r="FC23" s="17"/>
+      <c r="FD23" s="17"/>
+      <c r="FE23" s="17"/>
+      <c r="FF23" s="17"/>
+      <c r="FG23" s="17"/>
+      <c r="FH23" s="17"/>
+      <c r="FI23" s="17"/>
+      <c r="FJ23" s="17"/>
+      <c r="FK23" s="17"/>
+      <c r="FL23" s="17"/>
+      <c r="FM23" s="17"/>
+      <c r="FN23" s="17"/>
+      <c r="FO23" s="17"/>
+      <c r="FP23" s="17"/>
+      <c r="FQ23" s="17"/>
+      <c r="FR23" s="17"/>
+      <c r="FS23" s="17"/>
+      <c r="FT23" s="17"/>
+      <c r="FU23" s="17"/>
+      <c r="FV23" s="17"/>
+      <c r="FW23" s="17"/>
+      <c r="FX23" s="17"/>
+      <c r="FY23" s="17"/>
+      <c r="FZ23" s="17"/>
+      <c r="GA23" s="17"/>
+      <c r="GB23" s="17"/>
+      <c r="GC23" s="17"/>
+      <c r="GD23" s="17"/>
+      <c r="GE23" s="17"/>
+      <c r="GF23" s="17"/>
+      <c r="GG23" s="17"/>
+      <c r="GH23" s="17"/>
+      <c r="GI23" s="17"/>
+      <c r="GJ23" s="17"/>
+      <c r="GK23" s="17"/>
+      <c r="GL23" s="17"/>
+      <c r="GM23" s="17"/>
+      <c r="GN23" s="17"/>
+      <c r="GO23" s="17"/>
+      <c r="GP23" s="17"/>
+      <c r="GQ23" s="17"/>
+      <c r="GR23" s="17"/>
+      <c r="GS23" s="17"/>
+      <c r="GT23" s="17"/>
+      <c r="GU23" s="17"/>
+      <c r="GV23" s="17"/>
+      <c r="GW23" s="17"/>
+      <c r="GX23" s="17"/>
+      <c r="GY23" s="17"/>
+      <c r="GZ23" s="17"/>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="17"/>
+      <c r="HE23" s="17"/>
+      <c r="HF23" s="17"/>
+      <c r="HG23" s="17"/>
+      <c r="HH23" s="17"/>
+      <c r="HI23" s="17"/>
+      <c r="HJ23" s="17"/>
+      <c r="HK23" s="17"/>
+      <c r="HL23" s="17"/>
+      <c r="HM23" s="17"/>
+      <c r="HN23" s="17"/>
+      <c r="HO23" s="17"/>
+      <c r="HP23" s="17"/>
+      <c r="HQ23" s="17"/>
+      <c r="HR23" s="17"/>
+      <c r="HS23" s="17"/>
+      <c r="HT23" s="17"/>
+      <c r="HU23" s="17"/>
+      <c r="HV23" s="17"/>
+      <c r="HW23" s="17"/>
+      <c r="HX23" s="17"/>
+      <c r="HY23" s="17"/>
+      <c r="HZ23" s="17"/>
+      <c r="IA23" s="17"/>
+      <c r="IB23" s="17"/>
+      <c r="IC23" s="17"/>
+      <c r="ID23" s="17"/>
+      <c r="IE23" s="17"/>
+      <c r="IF23" s="17"/>
+      <c r="IG23" s="17"/>
+      <c r="IH23" s="17"/>
+      <c r="II23" s="17"/>
+      <c r="IJ23" s="17"/>
+      <c r="IK23" s="17"/>
+      <c r="IL23" s="17"/>
+      <c r="IM23" s="17"/>
+      <c r="IN23" s="17"/>
+      <c r="IO23" s="17"/>
+      <c r="IP23" s="17"/>
+      <c r="IQ23" s="17"/>
+      <c r="IR23" s="17"/>
+      <c r="IS23" s="17"/>
+      <c r="IT23" s="17"/>
+      <c r="IU23" s="17"/>
+      <c r="IV23" s="17"/>
     </row>
-    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="17"/>
-      <c r="CS20" s="17"/>
-      <c r="CT20" s="17"/>
-      <c r="CU20" s="17"/>
-      <c r="CV20" s="17"/>
-      <c r="CW20" s="17"/>
-      <c r="CX20" s="17"/>
-      <c r="CY20" s="17"/>
-      <c r="CZ20" s="17"/>
-      <c r="DA20" s="17"/>
-      <c r="DB20" s="17"/>
-      <c r="DC20" s="17"/>
-      <c r="DD20" s="17"/>
-      <c r="DE20" s="17"/>
-      <c r="DF20" s="17"/>
-      <c r="DG20" s="17"/>
-      <c r="DH20" s="17"/>
-      <c r="DI20" s="17"/>
-      <c r="DJ20" s="17"/>
-      <c r="DK20" s="17"/>
-      <c r="DL20" s="17"/>
-      <c r="DM20" s="17"/>
-      <c r="DN20" s="17"/>
-      <c r="DO20" s="17"/>
-      <c r="DP20" s="17"/>
-      <c r="DQ20" s="17"/>
-      <c r="DR20" s="17"/>
-      <c r="DS20" s="17"/>
-      <c r="DT20" s="17"/>
-      <c r="DU20" s="17"/>
-      <c r="DV20" s="17"/>
-      <c r="DW20" s="17"/>
-      <c r="DX20" s="17"/>
-      <c r="DY20" s="17"/>
-      <c r="DZ20" s="17"/>
-      <c r="EA20" s="17"/>
-      <c r="EB20" s="17"/>
-      <c r="EC20" s="17"/>
-      <c r="ED20" s="17"/>
-      <c r="EE20" s="17"/>
-      <c r="EF20" s="17"/>
-      <c r="EG20" s="17"/>
-      <c r="EH20" s="17"/>
-      <c r="EI20" s="17"/>
-      <c r="EJ20" s="17"/>
-      <c r="EK20" s="17"/>
-      <c r="EL20" s="17"/>
-      <c r="EM20" s="17"/>
-      <c r="EN20" s="17"/>
-      <c r="EO20" s="17"/>
-      <c r="EP20" s="17"/>
-      <c r="EQ20" s="17"/>
-      <c r="ER20" s="17"/>
-      <c r="ES20" s="17"/>
-      <c r="ET20" s="17"/>
-      <c r="EU20" s="17"/>
-      <c r="EV20" s="17"/>
-      <c r="EW20" s="17"/>
-      <c r="EX20" s="17"/>
-      <c r="EY20" s="17"/>
-      <c r="EZ20" s="17"/>
-      <c r="FA20" s="17"/>
-      <c r="FB20" s="17"/>
-      <c r="FC20" s="17"/>
-      <c r="FD20" s="17"/>
-      <c r="FE20" s="17"/>
-      <c r="FF20" s="17"/>
-      <c r="FG20" s="17"/>
-      <c r="FH20" s="17"/>
-      <c r="FI20" s="17"/>
-      <c r="FJ20" s="17"/>
-      <c r="FK20" s="17"/>
-      <c r="FL20" s="17"/>
-      <c r="FM20" s="17"/>
-      <c r="FN20" s="17"/>
-      <c r="FO20" s="17"/>
-      <c r="FP20" s="17"/>
-      <c r="FQ20" s="17"/>
-      <c r="FR20" s="17"/>
-      <c r="FS20" s="17"/>
-      <c r="FT20" s="17"/>
-      <c r="FU20" s="17"/>
-      <c r="FV20" s="17"/>
-      <c r="FW20" s="17"/>
-      <c r="FX20" s="17"/>
-      <c r="FY20" s="17"/>
-      <c r="FZ20" s="17"/>
-      <c r="GA20" s="17"/>
-      <c r="GB20" s="17"/>
-      <c r="GC20" s="17"/>
-      <c r="GD20" s="17"/>
-      <c r="GE20" s="17"/>
-      <c r="GF20" s="17"/>
-      <c r="GG20" s="17"/>
-      <c r="GH20" s="17"/>
-      <c r="GI20" s="17"/>
-      <c r="GJ20" s="17"/>
-      <c r="GK20" s="17"/>
-      <c r="GL20" s="17"/>
-      <c r="GM20" s="17"/>
-      <c r="GN20" s="17"/>
-      <c r="GO20" s="17"/>
-      <c r="GP20" s="17"/>
-      <c r="GQ20" s="17"/>
-      <c r="GR20" s="17"/>
-      <c r="GS20" s="17"/>
-      <c r="GT20" s="17"/>
-      <c r="GU20" s="17"/>
-      <c r="GV20" s="17"/>
-      <c r="GW20" s="17"/>
-      <c r="GX20" s="17"/>
-      <c r="GY20" s="17"/>
-      <c r="GZ20" s="17"/>
-      <c r="HA20" s="17"/>
-      <c r="HB20" s="17"/>
-      <c r="HC20" s="17"/>
-      <c r="HD20" s="17"/>
-      <c r="HE20" s="17"/>
-      <c r="HF20" s="17"/>
-      <c r="HG20" s="17"/>
-      <c r="HH20" s="17"/>
-      <c r="HI20" s="17"/>
-      <c r="HJ20" s="17"/>
-      <c r="HK20" s="17"/>
-      <c r="HL20" s="17"/>
-      <c r="HM20" s="17"/>
-      <c r="HN20" s="17"/>
-      <c r="HO20" s="17"/>
-      <c r="HP20" s="17"/>
-      <c r="HQ20" s="17"/>
-      <c r="HR20" s="17"/>
-      <c r="HS20" s="17"/>
-      <c r="HT20" s="17"/>
-      <c r="HU20" s="17"/>
-      <c r="HV20" s="17"/>
-      <c r="HW20" s="17"/>
-      <c r="HX20" s="17"/>
-      <c r="HY20" s="17"/>
-      <c r="HZ20" s="17"/>
-      <c r="IA20" s="17"/>
-      <c r="IB20" s="17"/>
-      <c r="IC20" s="17"/>
-      <c r="ID20" s="17"/>
-      <c r="IE20" s="17"/>
-      <c r="IF20" s="17"/>
-      <c r="IG20" s="17"/>
-      <c r="IH20" s="17"/>
-      <c r="II20" s="17"/>
-      <c r="IJ20" s="17"/>
-      <c r="IK20" s="17"/>
-      <c r="IL20" s="17"/>
-      <c r="IM20" s="17"/>
-      <c r="IN20" s="17"/>
-      <c r="IO20" s="17"/>
-      <c r="IP20" s="17"/>
-      <c r="IQ20" s="17"/>
-      <c r="IR20" s="17"/>
-      <c r="IS20" s="17"/>
-      <c r="IT20" s="17"/>
-      <c r="IU20" s="17"/>
-      <c r="IV20" s="17"/>
-    </row>
-    <row r="21" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="24" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="94"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="17"/>
+      <c r="CU24" s="17"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="17"/>
+      <c r="CX24" s="17"/>
+      <c r="CY24" s="17"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="17"/>
+      <c r="DB24" s="17"/>
+      <c r="DC24" s="17"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="17"/>
+      <c r="DF24" s="17"/>
+      <c r="DG24" s="17"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="17"/>
+      <c r="DJ24" s="17"/>
+      <c r="DK24" s="17"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
+      <c r="DN24" s="17"/>
+      <c r="DO24" s="17"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="17"/>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
+      <c r="EA24" s="17"/>
+      <c r="EB24" s="17"/>
+      <c r="EC24" s="17"/>
+      <c r="ED24" s="17"/>
+      <c r="EE24" s="17"/>
+      <c r="EF24" s="17"/>
+      <c r="EG24" s="17"/>
+      <c r="EH24" s="17"/>
+      <c r="EI24" s="17"/>
+      <c r="EJ24" s="17"/>
+      <c r="EK24" s="17"/>
+      <c r="EL24" s="17"/>
+      <c r="EM24" s="17"/>
+      <c r="EN24" s="17"/>
+      <c r="EO24" s="17"/>
+      <c r="EP24" s="17"/>
+      <c r="EQ24" s="17"/>
+      <c r="ER24" s="17"/>
+      <c r="ES24" s="17"/>
+      <c r="ET24" s="17"/>
+      <c r="EU24" s="17"/>
+      <c r="EV24" s="17"/>
+      <c r="EW24" s="17"/>
+      <c r="EX24" s="17"/>
+      <c r="EY24" s="17"/>
+      <c r="EZ24" s="17"/>
+      <c r="FA24" s="17"/>
+      <c r="FB24" s="17"/>
+      <c r="FC24" s="17"/>
+      <c r="FD24" s="17"/>
+      <c r="FE24" s="17"/>
+      <c r="FF24" s="17"/>
+      <c r="FG24" s="17"/>
+      <c r="FH24" s="17"/>
+      <c r="FI24" s="17"/>
+      <c r="FJ24" s="17"/>
+      <c r="FK24" s="17"/>
+      <c r="FL24" s="17"/>
+      <c r="FM24" s="17"/>
+      <c r="FN24" s="17"/>
+      <c r="FO24" s="17"/>
+      <c r="FP24" s="17"/>
+      <c r="FQ24" s="17"/>
+      <c r="FR24" s="17"/>
+      <c r="FS24" s="17"/>
+      <c r="FT24" s="17"/>
+      <c r="FU24" s="17"/>
+      <c r="FV24" s="17"/>
+      <c r="FW24" s="17"/>
+      <c r="FX24" s="17"/>
+      <c r="FY24" s="17"/>
+      <c r="FZ24" s="17"/>
+      <c r="GA24" s="17"/>
+      <c r="GB24" s="17"/>
+      <c r="GC24" s="17"/>
+      <c r="GD24" s="17"/>
+      <c r="GE24" s="17"/>
+      <c r="GF24" s="17"/>
+      <c r="GG24" s="17"/>
+      <c r="GH24" s="17"/>
+      <c r="GI24" s="17"/>
+      <c r="GJ24" s="17"/>
+      <c r="GK24" s="17"/>
+      <c r="GL24" s="17"/>
+      <c r="GM24" s="17"/>
+      <c r="GN24" s="17"/>
+      <c r="GO24" s="17"/>
+      <c r="GP24" s="17"/>
+      <c r="GQ24" s="17"/>
+      <c r="GR24" s="17"/>
+      <c r="GS24" s="17"/>
+      <c r="GT24" s="17"/>
+      <c r="GU24" s="17"/>
+      <c r="GV24" s="17"/>
+      <c r="GW24" s="17"/>
+      <c r="GX24" s="17"/>
+      <c r="GY24" s="17"/>
+      <c r="GZ24" s="17"/>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="17"/>
+      <c r="HE24" s="17"/>
+      <c r="HF24" s="17"/>
+      <c r="HG24" s="17"/>
+      <c r="HH24" s="17"/>
+      <c r="HI24" s="17"/>
+      <c r="HJ24" s="17"/>
+      <c r="HK24" s="17"/>
+      <c r="HL24" s="17"/>
+      <c r="HM24" s="17"/>
+      <c r="HN24" s="17"/>
+      <c r="HO24" s="17"/>
+      <c r="HP24" s="17"/>
+      <c r="HQ24" s="17"/>
+      <c r="HR24" s="17"/>
+      <c r="HS24" s="17"/>
+      <c r="HT24" s="17"/>
+      <c r="HU24" s="17"/>
+      <c r="HV24" s="17"/>
+      <c r="HW24" s="17"/>
+      <c r="HX24" s="17"/>
+      <c r="HY24" s="17"/>
+      <c r="HZ24" s="17"/>
+      <c r="IA24" s="17"/>
+      <c r="IB24" s="17"/>
+      <c r="IC24" s="17"/>
+      <c r="ID24" s="17"/>
+      <c r="IE24" s="17"/>
+      <c r="IF24" s="17"/>
+      <c r="IG24" s="17"/>
+      <c r="IH24" s="17"/>
+      <c r="II24" s="17"/>
+      <c r="IJ24" s="17"/>
+      <c r="IK24" s="17"/>
+      <c r="IL24" s="17"/>
+      <c r="IM24" s="17"/>
+      <c r="IN24" s="17"/>
+      <c r="IO24" s="17"/>
+      <c r="IP24" s="17"/>
+      <c r="IQ24" s="17"/>
+      <c r="IR24" s="17"/>
+      <c r="IS24" s="17"/>
+      <c r="IT24" s="17"/>
+      <c r="IU24" s="17"/>
+      <c r="IV24" s="17"/>
     </row>
     <row r="25" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -54086,1072 +54086,1072 @@
       <c r="IT16" s="5"/>
       <c r="IU16" s="5"/>
     </row>
-    <row r="17" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="21" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="17"/>
-      <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="17"/>
-      <c r="CI17" s="17"/>
-      <c r="CJ17" s="17"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="17"/>
-      <c r="CS17" s="17"/>
-      <c r="CT17" s="17"/>
-      <c r="CU17" s="17"/>
-      <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
-      <c r="CX17" s="17"/>
-      <c r="CY17" s="17"/>
-      <c r="CZ17" s="17"/>
-      <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
-      <c r="DC17" s="17"/>
-      <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DP17" s="17"/>
-      <c r="DQ17" s="17"/>
-      <c r="DR17" s="17"/>
-      <c r="DS17" s="17"/>
-      <c r="DT17" s="17"/>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
-      <c r="DW17" s="17"/>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
-      <c r="EA17" s="17"/>
-      <c r="EB17" s="17"/>
-      <c r="EC17" s="17"/>
-      <c r="ED17" s="17"/>
-      <c r="EE17" s="17"/>
-      <c r="EF17" s="17"/>
-      <c r="EG17" s="17"/>
-      <c r="EH17" s="17"/>
-      <c r="EI17" s="17"/>
-      <c r="EJ17" s="17"/>
-      <c r="EK17" s="17"/>
-      <c r="EL17" s="17"/>
-      <c r="EM17" s="17"/>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
-      <c r="EZ17" s="17"/>
-      <c r="FA17" s="17"/>
-      <c r="FB17" s="17"/>
-      <c r="FC17" s="17"/>
-      <c r="FD17" s="17"/>
-      <c r="FE17" s="17"/>
-      <c r="FF17" s="17"/>
-      <c r="FG17" s="17"/>
-      <c r="FH17" s="17"/>
-      <c r="FI17" s="17"/>
-      <c r="FJ17" s="17"/>
-      <c r="FK17" s="17"/>
-      <c r="FL17" s="17"/>
-      <c r="FM17" s="17"/>
-      <c r="FN17" s="17"/>
-      <c r="FO17" s="17"/>
-      <c r="FP17" s="17"/>
-      <c r="FQ17" s="17"/>
-      <c r="FR17" s="17"/>
-      <c r="FS17" s="17"/>
-      <c r="FT17" s="17"/>
-      <c r="FU17" s="17"/>
-      <c r="FV17" s="17"/>
-      <c r="FW17" s="17"/>
-      <c r="FX17" s="17"/>
-      <c r="FY17" s="17"/>
-      <c r="FZ17" s="17"/>
-      <c r="GA17" s="17"/>
-      <c r="GB17" s="17"/>
-      <c r="GC17" s="17"/>
-      <c r="GD17" s="17"/>
-      <c r="GE17" s="17"/>
-      <c r="GF17" s="17"/>
-      <c r="GG17" s="17"/>
-      <c r="GH17" s="17"/>
-      <c r="GI17" s="17"/>
-      <c r="GJ17" s="17"/>
-      <c r="GK17" s="17"/>
-      <c r="GL17" s="17"/>
-      <c r="GM17" s="17"/>
-      <c r="GN17" s="17"/>
-      <c r="GO17" s="17"/>
-      <c r="GP17" s="17"/>
-      <c r="GQ17" s="17"/>
-      <c r="GR17" s="17"/>
-      <c r="GS17" s="17"/>
-      <c r="GT17" s="17"/>
-      <c r="GU17" s="17"/>
-      <c r="GV17" s="17"/>
-      <c r="GW17" s="17"/>
-      <c r="GX17" s="17"/>
-      <c r="GY17" s="17"/>
-      <c r="GZ17" s="17"/>
-      <c r="HA17" s="17"/>
-      <c r="HB17" s="17"/>
-      <c r="HC17" s="17"/>
-      <c r="HD17" s="17"/>
-      <c r="HE17" s="17"/>
-      <c r="HF17" s="17"/>
-      <c r="HG17" s="17"/>
-      <c r="HH17" s="17"/>
-      <c r="HI17" s="17"/>
-      <c r="HJ17" s="17"/>
-      <c r="HK17" s="17"/>
-      <c r="HL17" s="17"/>
-      <c r="HM17" s="17"/>
-      <c r="HN17" s="17"/>
-      <c r="HO17" s="17"/>
-      <c r="HP17" s="17"/>
-      <c r="HQ17" s="17"/>
-      <c r="HR17" s="17"/>
-      <c r="HS17" s="17"/>
-      <c r="HT17" s="17"/>
-      <c r="HU17" s="17"/>
-      <c r="HV17" s="17"/>
-      <c r="HW17" s="17"/>
-      <c r="HX17" s="17"/>
-      <c r="HY17" s="17"/>
-      <c r="HZ17" s="17"/>
-      <c r="IA17" s="17"/>
-      <c r="IB17" s="17"/>
-      <c r="IC17" s="17"/>
-      <c r="ID17" s="17"/>
-      <c r="IE17" s="17"/>
-      <c r="IF17" s="17"/>
-      <c r="IG17" s="17"/>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="17"/>
-      <c r="IJ17" s="17"/>
-      <c r="IK17" s="17"/>
-      <c r="IL17" s="17"/>
-      <c r="IM17" s="17"/>
-      <c r="IN17" s="17"/>
-      <c r="IO17" s="17"/>
-      <c r="IP17" s="17"/>
-      <c r="IQ17" s="17"/>
-      <c r="IR17" s="17"/>
-      <c r="IS17" s="17"/>
-      <c r="IT17" s="17"/>
-      <c r="IU17" s="17"/>
-      <c r="IV17" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="17"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="17"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="17"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="17"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="17"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="17"/>
+      <c r="CU21" s="17"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="17"/>
+      <c r="CX21" s="17"/>
+      <c r="CY21" s="17"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="17"/>
+      <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="17"/>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
+      <c r="EA21" s="17"/>
+      <c r="EB21" s="17"/>
+      <c r="EC21" s="17"/>
+      <c r="ED21" s="17"/>
+      <c r="EE21" s="17"/>
+      <c r="EF21" s="17"/>
+      <c r="EG21" s="17"/>
+      <c r="EH21" s="17"/>
+      <c r="EI21" s="17"/>
+      <c r="EJ21" s="17"/>
+      <c r="EK21" s="17"/>
+      <c r="EL21" s="17"/>
+      <c r="EM21" s="17"/>
+      <c r="EN21" s="17"/>
+      <c r="EO21" s="17"/>
+      <c r="EP21" s="17"/>
+      <c r="EQ21" s="17"/>
+      <c r="ER21" s="17"/>
+      <c r="ES21" s="17"/>
+      <c r="ET21" s="17"/>
+      <c r="EU21" s="17"/>
+      <c r="EV21" s="17"/>
+      <c r="EW21" s="17"/>
+      <c r="EX21" s="17"/>
+      <c r="EY21" s="17"/>
+      <c r="EZ21" s="17"/>
+      <c r="FA21" s="17"/>
+      <c r="FB21" s="17"/>
+      <c r="FC21" s="17"/>
+      <c r="FD21" s="17"/>
+      <c r="FE21" s="17"/>
+      <c r="FF21" s="17"/>
+      <c r="FG21" s="17"/>
+      <c r="FH21" s="17"/>
+      <c r="FI21" s="17"/>
+      <c r="FJ21" s="17"/>
+      <c r="FK21" s="17"/>
+      <c r="FL21" s="17"/>
+      <c r="FM21" s="17"/>
+      <c r="FN21" s="17"/>
+      <c r="FO21" s="17"/>
+      <c r="FP21" s="17"/>
+      <c r="FQ21" s="17"/>
+      <c r="FR21" s="17"/>
+      <c r="FS21" s="17"/>
+      <c r="FT21" s="17"/>
+      <c r="FU21" s="17"/>
+      <c r="FV21" s="17"/>
+      <c r="FW21" s="17"/>
+      <c r="FX21" s="17"/>
+      <c r="FY21" s="17"/>
+      <c r="FZ21" s="17"/>
+      <c r="GA21" s="17"/>
+      <c r="GB21" s="17"/>
+      <c r="GC21" s="17"/>
+      <c r="GD21" s="17"/>
+      <c r="GE21" s="17"/>
+      <c r="GF21" s="17"/>
+      <c r="GG21" s="17"/>
+      <c r="GH21" s="17"/>
+      <c r="GI21" s="17"/>
+      <c r="GJ21" s="17"/>
+      <c r="GK21" s="17"/>
+      <c r="GL21" s="17"/>
+      <c r="GM21" s="17"/>
+      <c r="GN21" s="17"/>
+      <c r="GO21" s="17"/>
+      <c r="GP21" s="17"/>
+      <c r="GQ21" s="17"/>
+      <c r="GR21" s="17"/>
+      <c r="GS21" s="17"/>
+      <c r="GT21" s="17"/>
+      <c r="GU21" s="17"/>
+      <c r="GV21" s="17"/>
+      <c r="GW21" s="17"/>
+      <c r="GX21" s="17"/>
+      <c r="GY21" s="17"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="17"/>
+      <c r="HE21" s="17"/>
+      <c r="HF21" s="17"/>
+      <c r="HG21" s="17"/>
+      <c r="HH21" s="17"/>
+      <c r="HI21" s="17"/>
+      <c r="HJ21" s="17"/>
+      <c r="HK21" s="17"/>
+      <c r="HL21" s="17"/>
+      <c r="HM21" s="17"/>
+      <c r="HN21" s="17"/>
+      <c r="HO21" s="17"/>
+      <c r="HP21" s="17"/>
+      <c r="HQ21" s="17"/>
+      <c r="HR21" s="17"/>
+      <c r="HS21" s="17"/>
+      <c r="HT21" s="17"/>
+      <c r="HU21" s="17"/>
+      <c r="HV21" s="17"/>
+      <c r="HW21" s="17"/>
+      <c r="HX21" s="17"/>
+      <c r="HY21" s="17"/>
+      <c r="HZ21" s="17"/>
+      <c r="IA21" s="17"/>
+      <c r="IB21" s="17"/>
+      <c r="IC21" s="17"/>
+      <c r="ID21" s="17"/>
+      <c r="IE21" s="17"/>
+      <c r="IF21" s="17"/>
+      <c r="IG21" s="17"/>
+      <c r="IH21" s="17"/>
+      <c r="II21" s="17"/>
+      <c r="IJ21" s="17"/>
+      <c r="IK21" s="17"/>
+      <c r="IL21" s="17"/>
+      <c r="IM21" s="17"/>
+      <c r="IN21" s="17"/>
+      <c r="IO21" s="17"/>
+      <c r="IP21" s="17"/>
+      <c r="IQ21" s="17"/>
+      <c r="IR21" s="17"/>
+      <c r="IS21" s="17"/>
+      <c r="IT21" s="17"/>
+      <c r="IU21" s="17"/>
+      <c r="IV21" s="17"/>
     </row>
-    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="63" t="s">
+    <row r="22" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="17"/>
-      <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="17"/>
-      <c r="CI18" s="17"/>
-      <c r="CJ18" s="17"/>
-      <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="17"/>
-      <c r="CU18" s="17"/>
-      <c r="CV18" s="17"/>
-      <c r="CW18" s="17"/>
-      <c r="CX18" s="17"/>
-      <c r="CY18" s="17"/>
-      <c r="CZ18" s="17"/>
-      <c r="DA18" s="17"/>
-      <c r="DB18" s="17"/>
-      <c r="DC18" s="17"/>
-      <c r="DD18" s="17"/>
-      <c r="DE18" s="17"/>
-      <c r="DF18" s="17"/>
-      <c r="DG18" s="17"/>
-      <c r="DH18" s="17"/>
-      <c r="DI18" s="17"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="17"/>
-      <c r="DL18" s="17"/>
-      <c r="DM18" s="17"/>
-      <c r="DN18" s="17"/>
-      <c r="DO18" s="17"/>
-      <c r="DP18" s="17"/>
-      <c r="DQ18" s="17"/>
-      <c r="DR18" s="17"/>
-      <c r="DS18" s="17"/>
-      <c r="DT18" s="17"/>
-      <c r="DU18" s="17"/>
-      <c r="DV18" s="17"/>
-      <c r="DW18" s="17"/>
-      <c r="DX18" s="17"/>
-      <c r="DY18" s="17"/>
-      <c r="DZ18" s="17"/>
-      <c r="EA18" s="17"/>
-      <c r="EB18" s="17"/>
-      <c r="EC18" s="17"/>
-      <c r="ED18" s="17"/>
-      <c r="EE18" s="17"/>
-      <c r="EF18" s="17"/>
-      <c r="EG18" s="17"/>
-      <c r="EH18" s="17"/>
-      <c r="EI18" s="17"/>
-      <c r="EJ18" s="17"/>
-      <c r="EK18" s="17"/>
-      <c r="EL18" s="17"/>
-      <c r="EM18" s="17"/>
-      <c r="EN18" s="17"/>
-      <c r="EO18" s="17"/>
-      <c r="EP18" s="17"/>
-      <c r="EQ18" s="17"/>
-      <c r="ER18" s="17"/>
-      <c r="ES18" s="17"/>
-      <c r="ET18" s="17"/>
-      <c r="EU18" s="17"/>
-      <c r="EV18" s="17"/>
-      <c r="EW18" s="17"/>
-      <c r="EX18" s="17"/>
-      <c r="EY18" s="17"/>
-      <c r="EZ18" s="17"/>
-      <c r="FA18" s="17"/>
-      <c r="FB18" s="17"/>
-      <c r="FC18" s="17"/>
-      <c r="FD18" s="17"/>
-      <c r="FE18" s="17"/>
-      <c r="FF18" s="17"/>
-      <c r="FG18" s="17"/>
-      <c r="FH18" s="17"/>
-      <c r="FI18" s="17"/>
-      <c r="FJ18" s="17"/>
-      <c r="FK18" s="17"/>
-      <c r="FL18" s="17"/>
-      <c r="FM18" s="17"/>
-      <c r="FN18" s="17"/>
-      <c r="FO18" s="17"/>
-      <c r="FP18" s="17"/>
-      <c r="FQ18" s="17"/>
-      <c r="FR18" s="17"/>
-      <c r="FS18" s="17"/>
-      <c r="FT18" s="17"/>
-      <c r="FU18" s="17"/>
-      <c r="FV18" s="17"/>
-      <c r="FW18" s="17"/>
-      <c r="FX18" s="17"/>
-      <c r="FY18" s="17"/>
-      <c r="FZ18" s="17"/>
-      <c r="GA18" s="17"/>
-      <c r="GB18" s="17"/>
-      <c r="GC18" s="17"/>
-      <c r="GD18" s="17"/>
-      <c r="GE18" s="17"/>
-      <c r="GF18" s="17"/>
-      <c r="GG18" s="17"/>
-      <c r="GH18" s="17"/>
-      <c r="GI18" s="17"/>
-      <c r="GJ18" s="17"/>
-      <c r="GK18" s="17"/>
-      <c r="GL18" s="17"/>
-      <c r="GM18" s="17"/>
-      <c r="GN18" s="17"/>
-      <c r="GO18" s="17"/>
-      <c r="GP18" s="17"/>
-      <c r="GQ18" s="17"/>
-      <c r="GR18" s="17"/>
-      <c r="GS18" s="17"/>
-      <c r="GT18" s="17"/>
-      <c r="GU18" s="17"/>
-      <c r="GV18" s="17"/>
-      <c r="GW18" s="17"/>
-      <c r="GX18" s="17"/>
-      <c r="GY18" s="17"/>
-      <c r="GZ18" s="17"/>
-      <c r="HA18" s="17"/>
-      <c r="HB18" s="17"/>
-      <c r="HC18" s="17"/>
-      <c r="HD18" s="17"/>
-      <c r="HE18" s="17"/>
-      <c r="HF18" s="17"/>
-      <c r="HG18" s="17"/>
-      <c r="HH18" s="17"/>
-      <c r="HI18" s="17"/>
-      <c r="HJ18" s="17"/>
-      <c r="HK18" s="17"/>
-      <c r="HL18" s="17"/>
-      <c r="HM18" s="17"/>
-      <c r="HN18" s="17"/>
-      <c r="HO18" s="17"/>
-      <c r="HP18" s="17"/>
-      <c r="HQ18" s="17"/>
-      <c r="HR18" s="17"/>
-      <c r="HS18" s="17"/>
-      <c r="HT18" s="17"/>
-      <c r="HU18" s="17"/>
-      <c r="HV18" s="17"/>
-      <c r="HW18" s="17"/>
-      <c r="HX18" s="17"/>
-      <c r="HY18" s="17"/>
-      <c r="HZ18" s="17"/>
-      <c r="IA18" s="17"/>
-      <c r="IB18" s="17"/>
-      <c r="IC18" s="17"/>
-      <c r="ID18" s="17"/>
-      <c r="IE18" s="17"/>
-      <c r="IF18" s="17"/>
-      <c r="IG18" s="17"/>
-      <c r="IH18" s="17"/>
-      <c r="II18" s="17"/>
-      <c r="IJ18" s="17"/>
-      <c r="IK18" s="17"/>
-      <c r="IL18" s="17"/>
-      <c r="IM18" s="17"/>
-      <c r="IN18" s="17"/>
-      <c r="IO18" s="17"/>
-      <c r="IP18" s="17"/>
-      <c r="IQ18" s="17"/>
-      <c r="IR18" s="17"/>
-      <c r="IS18" s="17"/>
-      <c r="IT18" s="17"/>
-      <c r="IU18" s="17"/>
-      <c r="IV18" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="17"/>
+      <c r="CX22" s="17"/>
+      <c r="CY22" s="17"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="17"/>
+      <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="17"/>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
+      <c r="EA22" s="17"/>
+      <c r="EB22" s="17"/>
+      <c r="EC22" s="17"/>
+      <c r="ED22" s="17"/>
+      <c r="EE22" s="17"/>
+      <c r="EF22" s="17"/>
+      <c r="EG22" s="17"/>
+      <c r="EH22" s="17"/>
+      <c r="EI22" s="17"/>
+      <c r="EJ22" s="17"/>
+      <c r="EK22" s="17"/>
+      <c r="EL22" s="17"/>
+      <c r="EM22" s="17"/>
+      <c r="EN22" s="17"/>
+      <c r="EO22" s="17"/>
+      <c r="EP22" s="17"/>
+      <c r="EQ22" s="17"/>
+      <c r="ER22" s="17"/>
+      <c r="ES22" s="17"/>
+      <c r="ET22" s="17"/>
+      <c r="EU22" s="17"/>
+      <c r="EV22" s="17"/>
+      <c r="EW22" s="17"/>
+      <c r="EX22" s="17"/>
+      <c r="EY22" s="17"/>
+      <c r="EZ22" s="17"/>
+      <c r="FA22" s="17"/>
+      <c r="FB22" s="17"/>
+      <c r="FC22" s="17"/>
+      <c r="FD22" s="17"/>
+      <c r="FE22" s="17"/>
+      <c r="FF22" s="17"/>
+      <c r="FG22" s="17"/>
+      <c r="FH22" s="17"/>
+      <c r="FI22" s="17"/>
+      <c r="FJ22" s="17"/>
+      <c r="FK22" s="17"/>
+      <c r="FL22" s="17"/>
+      <c r="FM22" s="17"/>
+      <c r="FN22" s="17"/>
+      <c r="FO22" s="17"/>
+      <c r="FP22" s="17"/>
+      <c r="FQ22" s="17"/>
+      <c r="FR22" s="17"/>
+      <c r="FS22" s="17"/>
+      <c r="FT22" s="17"/>
+      <c r="FU22" s="17"/>
+      <c r="FV22" s="17"/>
+      <c r="FW22" s="17"/>
+      <c r="FX22" s="17"/>
+      <c r="FY22" s="17"/>
+      <c r="FZ22" s="17"/>
+      <c r="GA22" s="17"/>
+      <c r="GB22" s="17"/>
+      <c r="GC22" s="17"/>
+      <c r="GD22" s="17"/>
+      <c r="GE22" s="17"/>
+      <c r="GF22" s="17"/>
+      <c r="GG22" s="17"/>
+      <c r="GH22" s="17"/>
+      <c r="GI22" s="17"/>
+      <c r="GJ22" s="17"/>
+      <c r="GK22" s="17"/>
+      <c r="GL22" s="17"/>
+      <c r="GM22" s="17"/>
+      <c r="GN22" s="17"/>
+      <c r="GO22" s="17"/>
+      <c r="GP22" s="17"/>
+      <c r="GQ22" s="17"/>
+      <c r="GR22" s="17"/>
+      <c r="GS22" s="17"/>
+      <c r="GT22" s="17"/>
+      <c r="GU22" s="17"/>
+      <c r="GV22" s="17"/>
+      <c r="GW22" s="17"/>
+      <c r="GX22" s="17"/>
+      <c r="GY22" s="17"/>
+      <c r="GZ22" s="17"/>
+      <c r="HA22" s="17"/>
+      <c r="HB22" s="17"/>
+      <c r="HC22" s="17"/>
+      <c r="HD22" s="17"/>
+      <c r="HE22" s="17"/>
+      <c r="HF22" s="17"/>
+      <c r="HG22" s="17"/>
+      <c r="HH22" s="17"/>
+      <c r="HI22" s="17"/>
+      <c r="HJ22" s="17"/>
+      <c r="HK22" s="17"/>
+      <c r="HL22" s="17"/>
+      <c r="HM22" s="17"/>
+      <c r="HN22" s="17"/>
+      <c r="HO22" s="17"/>
+      <c r="HP22" s="17"/>
+      <c r="HQ22" s="17"/>
+      <c r="HR22" s="17"/>
+      <c r="HS22" s="17"/>
+      <c r="HT22" s="17"/>
+      <c r="HU22" s="17"/>
+      <c r="HV22" s="17"/>
+      <c r="HW22" s="17"/>
+      <c r="HX22" s="17"/>
+      <c r="HY22" s="17"/>
+      <c r="HZ22" s="17"/>
+      <c r="IA22" s="17"/>
+      <c r="IB22" s="17"/>
+      <c r="IC22" s="17"/>
+      <c r="ID22" s="17"/>
+      <c r="IE22" s="17"/>
+      <c r="IF22" s="17"/>
+      <c r="IG22" s="17"/>
+      <c r="IH22" s="17"/>
+      <c r="II22" s="17"/>
+      <c r="IJ22" s="17"/>
+      <c r="IK22" s="17"/>
+      <c r="IL22" s="17"/>
+      <c r="IM22" s="17"/>
+      <c r="IN22" s="17"/>
+      <c r="IO22" s="17"/>
+      <c r="IP22" s="17"/>
+      <c r="IQ22" s="17"/>
+      <c r="IR22" s="17"/>
+      <c r="IS22" s="17"/>
+      <c r="IT22" s="17"/>
+      <c r="IU22" s="17"/>
+      <c r="IV22" s="17"/>
     </row>
-    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+    <row r="23" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="17"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
-      <c r="BR19" s="17"/>
-      <c r="BS19" s="17"/>
-      <c r="BT19" s="17"/>
-      <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
-      <c r="BW19" s="17"/>
-      <c r="BX19" s="17"/>
-      <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
-      <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
-      <c r="CI19" s="17"/>
-      <c r="CJ19" s="17"/>
-      <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="17"/>
-      <c r="CU19" s="17"/>
-      <c r="CV19" s="17"/>
-      <c r="CW19" s="17"/>
-      <c r="CX19" s="17"/>
-      <c r="CY19" s="17"/>
-      <c r="CZ19" s="17"/>
-      <c r="DA19" s="17"/>
-      <c r="DB19" s="17"/>
-      <c r="DC19" s="17"/>
-      <c r="DD19" s="17"/>
-      <c r="DE19" s="17"/>
-      <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DP19" s="17"/>
-      <c r="DQ19" s="17"/>
-      <c r="DR19" s="17"/>
-      <c r="DS19" s="17"/>
-      <c r="DT19" s="17"/>
-      <c r="DU19" s="17"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
-      <c r="DX19" s="17"/>
-      <c r="DY19" s="17"/>
-      <c r="DZ19" s="17"/>
-      <c r="EA19" s="17"/>
-      <c r="EB19" s="17"/>
-      <c r="EC19" s="17"/>
-      <c r="ED19" s="17"/>
-      <c r="EE19" s="17"/>
-      <c r="EF19" s="17"/>
-      <c r="EG19" s="17"/>
-      <c r="EH19" s="17"/>
-      <c r="EI19" s="17"/>
-      <c r="EJ19" s="17"/>
-      <c r="EK19" s="17"/>
-      <c r="EL19" s="17"/>
-      <c r="EM19" s="17"/>
-      <c r="EN19" s="17"/>
-      <c r="EO19" s="17"/>
-      <c r="EP19" s="17"/>
-      <c r="EQ19" s="17"/>
-      <c r="ER19" s="17"/>
-      <c r="ES19" s="17"/>
-      <c r="ET19" s="17"/>
-      <c r="EU19" s="17"/>
-      <c r="EV19" s="17"/>
-      <c r="EW19" s="17"/>
-      <c r="EX19" s="17"/>
-      <c r="EY19" s="17"/>
-      <c r="EZ19" s="17"/>
-      <c r="FA19" s="17"/>
-      <c r="FB19" s="17"/>
-      <c r="FC19" s="17"/>
-      <c r="FD19" s="17"/>
-      <c r="FE19" s="17"/>
-      <c r="FF19" s="17"/>
-      <c r="FG19" s="17"/>
-      <c r="FH19" s="17"/>
-      <c r="FI19" s="17"/>
-      <c r="FJ19" s="17"/>
-      <c r="FK19" s="17"/>
-      <c r="FL19" s="17"/>
-      <c r="FM19" s="17"/>
-      <c r="FN19" s="17"/>
-      <c r="FO19" s="17"/>
-      <c r="FP19" s="17"/>
-      <c r="FQ19" s="17"/>
-      <c r="FR19" s="17"/>
-      <c r="FS19" s="17"/>
-      <c r="FT19" s="17"/>
-      <c r="FU19" s="17"/>
-      <c r="FV19" s="17"/>
-      <c r="FW19" s="17"/>
-      <c r="FX19" s="17"/>
-      <c r="FY19" s="17"/>
-      <c r="FZ19" s="17"/>
-      <c r="GA19" s="17"/>
-      <c r="GB19" s="17"/>
-      <c r="GC19" s="17"/>
-      <c r="GD19" s="17"/>
-      <c r="GE19" s="17"/>
-      <c r="GF19" s="17"/>
-      <c r="GG19" s="17"/>
-      <c r="GH19" s="17"/>
-      <c r="GI19" s="17"/>
-      <c r="GJ19" s="17"/>
-      <c r="GK19" s="17"/>
-      <c r="GL19" s="17"/>
-      <c r="GM19" s="17"/>
-      <c r="GN19" s="17"/>
-      <c r="GO19" s="17"/>
-      <c r="GP19" s="17"/>
-      <c r="GQ19" s="17"/>
-      <c r="GR19" s="17"/>
-      <c r="GS19" s="17"/>
-      <c r="GT19" s="17"/>
-      <c r="GU19" s="17"/>
-      <c r="GV19" s="17"/>
-      <c r="GW19" s="17"/>
-      <c r="GX19" s="17"/>
-      <c r="GY19" s="17"/>
-      <c r="GZ19" s="17"/>
-      <c r="HA19" s="17"/>
-      <c r="HB19" s="17"/>
-      <c r="HC19" s="17"/>
-      <c r="HD19" s="17"/>
-      <c r="HE19" s="17"/>
-      <c r="HF19" s="17"/>
-      <c r="HG19" s="17"/>
-      <c r="HH19" s="17"/>
-      <c r="HI19" s="17"/>
-      <c r="HJ19" s="17"/>
-      <c r="HK19" s="17"/>
-      <c r="HL19" s="17"/>
-      <c r="HM19" s="17"/>
-      <c r="HN19" s="17"/>
-      <c r="HO19" s="17"/>
-      <c r="HP19" s="17"/>
-      <c r="HQ19" s="17"/>
-      <c r="HR19" s="17"/>
-      <c r="HS19" s="17"/>
-      <c r="HT19" s="17"/>
-      <c r="HU19" s="17"/>
-      <c r="HV19" s="17"/>
-      <c r="HW19" s="17"/>
-      <c r="HX19" s="17"/>
-      <c r="HY19" s="17"/>
-      <c r="HZ19" s="17"/>
-      <c r="IA19" s="17"/>
-      <c r="IB19" s="17"/>
-      <c r="IC19" s="17"/>
-      <c r="ID19" s="17"/>
-      <c r="IE19" s="17"/>
-      <c r="IF19" s="17"/>
-      <c r="IG19" s="17"/>
-      <c r="IH19" s="17"/>
-      <c r="II19" s="17"/>
-      <c r="IJ19" s="17"/>
-      <c r="IK19" s="17"/>
-      <c r="IL19" s="17"/>
-      <c r="IM19" s="17"/>
-      <c r="IN19" s="17"/>
-      <c r="IO19" s="17"/>
-      <c r="IP19" s="17"/>
-      <c r="IQ19" s="17"/>
-      <c r="IR19" s="17"/>
-      <c r="IS19" s="17"/>
-      <c r="IT19" s="17"/>
-      <c r="IU19" s="17"/>
-      <c r="IV19" s="17"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="17"/>
+      <c r="CQ23" s="17"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="17"/>
+      <c r="CT23" s="17"/>
+      <c r="CU23" s="17"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="17"/>
+      <c r="CX23" s="17"/>
+      <c r="CY23" s="17"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="17"/>
+      <c r="DB23" s="17"/>
+      <c r="DC23" s="17"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="17"/>
+      <c r="DF23" s="17"/>
+      <c r="DG23" s="17"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="17"/>
+      <c r="DJ23" s="17"/>
+      <c r="DK23" s="17"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
+      <c r="DN23" s="17"/>
+      <c r="DO23" s="17"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
+      <c r="EA23" s="17"/>
+      <c r="EB23" s="17"/>
+      <c r="EC23" s="17"/>
+      <c r="ED23" s="17"/>
+      <c r="EE23" s="17"/>
+      <c r="EF23" s="17"/>
+      <c r="EG23" s="17"/>
+      <c r="EH23" s="17"/>
+      <c r="EI23" s="17"/>
+      <c r="EJ23" s="17"/>
+      <c r="EK23" s="17"/>
+      <c r="EL23" s="17"/>
+      <c r="EM23" s="17"/>
+      <c r="EN23" s="17"/>
+      <c r="EO23" s="17"/>
+      <c r="EP23" s="17"/>
+      <c r="EQ23" s="17"/>
+      <c r="ER23" s="17"/>
+      <c r="ES23" s="17"/>
+      <c r="ET23" s="17"/>
+      <c r="EU23" s="17"/>
+      <c r="EV23" s="17"/>
+      <c r="EW23" s="17"/>
+      <c r="EX23" s="17"/>
+      <c r="EY23" s="17"/>
+      <c r="EZ23" s="17"/>
+      <c r="FA23" s="17"/>
+      <c r="FB23" s="17"/>
+      <c r="FC23" s="17"/>
+      <c r="FD23" s="17"/>
+      <c r="FE23" s="17"/>
+      <c r="FF23" s="17"/>
+      <c r="FG23" s="17"/>
+      <c r="FH23" s="17"/>
+      <c r="FI23" s="17"/>
+      <c r="FJ23" s="17"/>
+      <c r="FK23" s="17"/>
+      <c r="FL23" s="17"/>
+      <c r="FM23" s="17"/>
+      <c r="FN23" s="17"/>
+      <c r="FO23" s="17"/>
+      <c r="FP23" s="17"/>
+      <c r="FQ23" s="17"/>
+      <c r="FR23" s="17"/>
+      <c r="FS23" s="17"/>
+      <c r="FT23" s="17"/>
+      <c r="FU23" s="17"/>
+      <c r="FV23" s="17"/>
+      <c r="FW23" s="17"/>
+      <c r="FX23" s="17"/>
+      <c r="FY23" s="17"/>
+      <c r="FZ23" s="17"/>
+      <c r="GA23" s="17"/>
+      <c r="GB23" s="17"/>
+      <c r="GC23" s="17"/>
+      <c r="GD23" s="17"/>
+      <c r="GE23" s="17"/>
+      <c r="GF23" s="17"/>
+      <c r="GG23" s="17"/>
+      <c r="GH23" s="17"/>
+      <c r="GI23" s="17"/>
+      <c r="GJ23" s="17"/>
+      <c r="GK23" s="17"/>
+      <c r="GL23" s="17"/>
+      <c r="GM23" s="17"/>
+      <c r="GN23" s="17"/>
+      <c r="GO23" s="17"/>
+      <c r="GP23" s="17"/>
+      <c r="GQ23" s="17"/>
+      <c r="GR23" s="17"/>
+      <c r="GS23" s="17"/>
+      <c r="GT23" s="17"/>
+      <c r="GU23" s="17"/>
+      <c r="GV23" s="17"/>
+      <c r="GW23" s="17"/>
+      <c r="GX23" s="17"/>
+      <c r="GY23" s="17"/>
+      <c r="GZ23" s="17"/>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="17"/>
+      <c r="HE23" s="17"/>
+      <c r="HF23" s="17"/>
+      <c r="HG23" s="17"/>
+      <c r="HH23" s="17"/>
+      <c r="HI23" s="17"/>
+      <c r="HJ23" s="17"/>
+      <c r="HK23" s="17"/>
+      <c r="HL23" s="17"/>
+      <c r="HM23" s="17"/>
+      <c r="HN23" s="17"/>
+      <c r="HO23" s="17"/>
+      <c r="HP23" s="17"/>
+      <c r="HQ23" s="17"/>
+      <c r="HR23" s="17"/>
+      <c r="HS23" s="17"/>
+      <c r="HT23" s="17"/>
+      <c r="HU23" s="17"/>
+      <c r="HV23" s="17"/>
+      <c r="HW23" s="17"/>
+      <c r="HX23" s="17"/>
+      <c r="HY23" s="17"/>
+      <c r="HZ23" s="17"/>
+      <c r="IA23" s="17"/>
+      <c r="IB23" s="17"/>
+      <c r="IC23" s="17"/>
+      <c r="ID23" s="17"/>
+      <c r="IE23" s="17"/>
+      <c r="IF23" s="17"/>
+      <c r="IG23" s="17"/>
+      <c r="IH23" s="17"/>
+      <c r="II23" s="17"/>
+      <c r="IJ23" s="17"/>
+      <c r="IK23" s="17"/>
+      <c r="IL23" s="17"/>
+      <c r="IM23" s="17"/>
+      <c r="IN23" s="17"/>
+      <c r="IO23" s="17"/>
+      <c r="IP23" s="17"/>
+      <c r="IQ23" s="17"/>
+      <c r="IR23" s="17"/>
+      <c r="IS23" s="17"/>
+      <c r="IT23" s="17"/>
+      <c r="IU23" s="17"/>
+      <c r="IV23" s="17"/>
     </row>
-    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="17"/>
-      <c r="CS20" s="17"/>
-      <c r="CT20" s="17"/>
-      <c r="CU20" s="17"/>
-      <c r="CV20" s="17"/>
-      <c r="CW20" s="17"/>
-      <c r="CX20" s="17"/>
-      <c r="CY20" s="17"/>
-      <c r="CZ20" s="17"/>
-      <c r="DA20" s="17"/>
-      <c r="DB20" s="17"/>
-      <c r="DC20" s="17"/>
-      <c r="DD20" s="17"/>
-      <c r="DE20" s="17"/>
-      <c r="DF20" s="17"/>
-      <c r="DG20" s="17"/>
-      <c r="DH20" s="17"/>
-      <c r="DI20" s="17"/>
-      <c r="DJ20" s="17"/>
-      <c r="DK20" s="17"/>
-      <c r="DL20" s="17"/>
-      <c r="DM20" s="17"/>
-      <c r="DN20" s="17"/>
-      <c r="DO20" s="17"/>
-      <c r="DP20" s="17"/>
-      <c r="DQ20" s="17"/>
-      <c r="DR20" s="17"/>
-      <c r="DS20" s="17"/>
-      <c r="DT20" s="17"/>
-      <c r="DU20" s="17"/>
-      <c r="DV20" s="17"/>
-      <c r="DW20" s="17"/>
-      <c r="DX20" s="17"/>
-      <c r="DY20" s="17"/>
-      <c r="DZ20" s="17"/>
-      <c r="EA20" s="17"/>
-      <c r="EB20" s="17"/>
-      <c r="EC20" s="17"/>
-      <c r="ED20" s="17"/>
-      <c r="EE20" s="17"/>
-      <c r="EF20" s="17"/>
-      <c r="EG20" s="17"/>
-      <c r="EH20" s="17"/>
-      <c r="EI20" s="17"/>
-      <c r="EJ20" s="17"/>
-      <c r="EK20" s="17"/>
-      <c r="EL20" s="17"/>
-      <c r="EM20" s="17"/>
-      <c r="EN20" s="17"/>
-      <c r="EO20" s="17"/>
-      <c r="EP20" s="17"/>
-      <c r="EQ20" s="17"/>
-      <c r="ER20" s="17"/>
-      <c r="ES20" s="17"/>
-      <c r="ET20" s="17"/>
-      <c r="EU20" s="17"/>
-      <c r="EV20" s="17"/>
-      <c r="EW20" s="17"/>
-      <c r="EX20" s="17"/>
-      <c r="EY20" s="17"/>
-      <c r="EZ20" s="17"/>
-      <c r="FA20" s="17"/>
-      <c r="FB20" s="17"/>
-      <c r="FC20" s="17"/>
-      <c r="FD20" s="17"/>
-      <c r="FE20" s="17"/>
-      <c r="FF20" s="17"/>
-      <c r="FG20" s="17"/>
-      <c r="FH20" s="17"/>
-      <c r="FI20" s="17"/>
-      <c r="FJ20" s="17"/>
-      <c r="FK20" s="17"/>
-      <c r="FL20" s="17"/>
-      <c r="FM20" s="17"/>
-      <c r="FN20" s="17"/>
-      <c r="FO20" s="17"/>
-      <c r="FP20" s="17"/>
-      <c r="FQ20" s="17"/>
-      <c r="FR20" s="17"/>
-      <c r="FS20" s="17"/>
-      <c r="FT20" s="17"/>
-      <c r="FU20" s="17"/>
-      <c r="FV20" s="17"/>
-      <c r="FW20" s="17"/>
-      <c r="FX20" s="17"/>
-      <c r="FY20" s="17"/>
-      <c r="FZ20" s="17"/>
-      <c r="GA20" s="17"/>
-      <c r="GB20" s="17"/>
-      <c r="GC20" s="17"/>
-      <c r="GD20" s="17"/>
-      <c r="GE20" s="17"/>
-      <c r="GF20" s="17"/>
-      <c r="GG20" s="17"/>
-      <c r="GH20" s="17"/>
-      <c r="GI20" s="17"/>
-      <c r="GJ20" s="17"/>
-      <c r="GK20" s="17"/>
-      <c r="GL20" s="17"/>
-      <c r="GM20" s="17"/>
-      <c r="GN20" s="17"/>
-      <c r="GO20" s="17"/>
-      <c r="GP20" s="17"/>
-      <c r="GQ20" s="17"/>
-      <c r="GR20" s="17"/>
-      <c r="GS20" s="17"/>
-      <c r="GT20" s="17"/>
-      <c r="GU20" s="17"/>
-      <c r="GV20" s="17"/>
-      <c r="GW20" s="17"/>
-      <c r="GX20" s="17"/>
-      <c r="GY20" s="17"/>
-      <c r="GZ20" s="17"/>
-      <c r="HA20" s="17"/>
-      <c r="HB20" s="17"/>
-      <c r="HC20" s="17"/>
-      <c r="HD20" s="17"/>
-      <c r="HE20" s="17"/>
-      <c r="HF20" s="17"/>
-      <c r="HG20" s="17"/>
-      <c r="HH20" s="17"/>
-      <c r="HI20" s="17"/>
-      <c r="HJ20" s="17"/>
-      <c r="HK20" s="17"/>
-      <c r="HL20" s="17"/>
-      <c r="HM20" s="17"/>
-      <c r="HN20" s="17"/>
-      <c r="HO20" s="17"/>
-      <c r="HP20" s="17"/>
-      <c r="HQ20" s="17"/>
-      <c r="HR20" s="17"/>
-      <c r="HS20" s="17"/>
-      <c r="HT20" s="17"/>
-      <c r="HU20" s="17"/>
-      <c r="HV20" s="17"/>
-      <c r="HW20" s="17"/>
-      <c r="HX20" s="17"/>
-      <c r="HY20" s="17"/>
-      <c r="HZ20" s="17"/>
-      <c r="IA20" s="17"/>
-      <c r="IB20" s="17"/>
-      <c r="IC20" s="17"/>
-      <c r="ID20" s="17"/>
-      <c r="IE20" s="17"/>
-      <c r="IF20" s="17"/>
-      <c r="IG20" s="17"/>
-      <c r="IH20" s="17"/>
-      <c r="II20" s="17"/>
-      <c r="IJ20" s="17"/>
-      <c r="IK20" s="17"/>
-      <c r="IL20" s="17"/>
-      <c r="IM20" s="17"/>
-      <c r="IN20" s="17"/>
-      <c r="IO20" s="17"/>
-      <c r="IP20" s="17"/>
-      <c r="IQ20" s="17"/>
-      <c r="IR20" s="17"/>
-      <c r="IS20" s="17"/>
-      <c r="IT20" s="17"/>
-      <c r="IU20" s="17"/>
-      <c r="IV20" s="17"/>
-    </row>
-    <row r="21" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="24" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="94"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="17"/>
+      <c r="CU24" s="17"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="17"/>
+      <c r="CX24" s="17"/>
+      <c r="CY24" s="17"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="17"/>
+      <c r="DB24" s="17"/>
+      <c r="DC24" s="17"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="17"/>
+      <c r="DF24" s="17"/>
+      <c r="DG24" s="17"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="17"/>
+      <c r="DJ24" s="17"/>
+      <c r="DK24" s="17"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
+      <c r="DN24" s="17"/>
+      <c r="DO24" s="17"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="17"/>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
+      <c r="EA24" s="17"/>
+      <c r="EB24" s="17"/>
+      <c r="EC24" s="17"/>
+      <c r="ED24" s="17"/>
+      <c r="EE24" s="17"/>
+      <c r="EF24" s="17"/>
+      <c r="EG24" s="17"/>
+      <c r="EH24" s="17"/>
+      <c r="EI24" s="17"/>
+      <c r="EJ24" s="17"/>
+      <c r="EK24" s="17"/>
+      <c r="EL24" s="17"/>
+      <c r="EM24" s="17"/>
+      <c r="EN24" s="17"/>
+      <c r="EO24" s="17"/>
+      <c r="EP24" s="17"/>
+      <c r="EQ24" s="17"/>
+      <c r="ER24" s="17"/>
+      <c r="ES24" s="17"/>
+      <c r="ET24" s="17"/>
+      <c r="EU24" s="17"/>
+      <c r="EV24" s="17"/>
+      <c r="EW24" s="17"/>
+      <c r="EX24" s="17"/>
+      <c r="EY24" s="17"/>
+      <c r="EZ24" s="17"/>
+      <c r="FA24" s="17"/>
+      <c r="FB24" s="17"/>
+      <c r="FC24" s="17"/>
+      <c r="FD24" s="17"/>
+      <c r="FE24" s="17"/>
+      <c r="FF24" s="17"/>
+      <c r="FG24" s="17"/>
+      <c r="FH24" s="17"/>
+      <c r="FI24" s="17"/>
+      <c r="FJ24" s="17"/>
+      <c r="FK24" s="17"/>
+      <c r="FL24" s="17"/>
+      <c r="FM24" s="17"/>
+      <c r="FN24" s="17"/>
+      <c r="FO24" s="17"/>
+      <c r="FP24" s="17"/>
+      <c r="FQ24" s="17"/>
+      <c r="FR24" s="17"/>
+      <c r="FS24" s="17"/>
+      <c r="FT24" s="17"/>
+      <c r="FU24" s="17"/>
+      <c r="FV24" s="17"/>
+      <c r="FW24" s="17"/>
+      <c r="FX24" s="17"/>
+      <c r="FY24" s="17"/>
+      <c r="FZ24" s="17"/>
+      <c r="GA24" s="17"/>
+      <c r="GB24" s="17"/>
+      <c r="GC24" s="17"/>
+      <c r="GD24" s="17"/>
+      <c r="GE24" s="17"/>
+      <c r="GF24" s="17"/>
+      <c r="GG24" s="17"/>
+      <c r="GH24" s="17"/>
+      <c r="GI24" s="17"/>
+      <c r="GJ24" s="17"/>
+      <c r="GK24" s="17"/>
+      <c r="GL24" s="17"/>
+      <c r="GM24" s="17"/>
+      <c r="GN24" s="17"/>
+      <c r="GO24" s="17"/>
+      <c r="GP24" s="17"/>
+      <c r="GQ24" s="17"/>
+      <c r="GR24" s="17"/>
+      <c r="GS24" s="17"/>
+      <c r="GT24" s="17"/>
+      <c r="GU24" s="17"/>
+      <c r="GV24" s="17"/>
+      <c r="GW24" s="17"/>
+      <c r="GX24" s="17"/>
+      <c r="GY24" s="17"/>
+      <c r="GZ24" s="17"/>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="17"/>
+      <c r="HE24" s="17"/>
+      <c r="HF24" s="17"/>
+      <c r="HG24" s="17"/>
+      <c r="HH24" s="17"/>
+      <c r="HI24" s="17"/>
+      <c r="HJ24" s="17"/>
+      <c r="HK24" s="17"/>
+      <c r="HL24" s="17"/>
+      <c r="HM24" s="17"/>
+      <c r="HN24" s="17"/>
+      <c r="HO24" s="17"/>
+      <c r="HP24" s="17"/>
+      <c r="HQ24" s="17"/>
+      <c r="HR24" s="17"/>
+      <c r="HS24" s="17"/>
+      <c r="HT24" s="17"/>
+      <c r="HU24" s="17"/>
+      <c r="HV24" s="17"/>
+      <c r="HW24" s="17"/>
+      <c r="HX24" s="17"/>
+      <c r="HY24" s="17"/>
+      <c r="HZ24" s="17"/>
+      <c r="IA24" s="17"/>
+      <c r="IB24" s="17"/>
+      <c r="IC24" s="17"/>
+      <c r="ID24" s="17"/>
+      <c r="IE24" s="17"/>
+      <c r="IF24" s="17"/>
+      <c r="IG24" s="17"/>
+      <c r="IH24" s="17"/>
+      <c r="II24" s="17"/>
+      <c r="IJ24" s="17"/>
+      <c r="IK24" s="17"/>
+      <c r="IL24" s="17"/>
+      <c r="IM24" s="17"/>
+      <c r="IN24" s="17"/>
+      <c r="IO24" s="17"/>
+      <c r="IP24" s="17"/>
+      <c r="IQ24" s="17"/>
+      <c r="IR24" s="17"/>
+      <c r="IS24" s="17"/>
+      <c r="IT24" s="17"/>
+      <c r="IU24" s="17"/>
+      <c r="IV24" s="17"/>
     </row>
     <row r="25" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363E910-B127-431A-846A-117F9D7530D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D8129-55EF-4E2E-888F-921FFC2467F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
